--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>well.time</t>
+          <t>well.tmor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>spring.tmor</t>
+          <t>spring.time</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>phom</t>
+          <t>yard.ptap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>yard.ptap</t>
+          <t>FA4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>outside.ws</t>
+          <t>FA2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -411,25 +411,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>-6.704758071142996</v>
+        <v>1.484292820072129</v>
       </c>
       <c r="C2">
-        <v>-2.9849864702667</v>
+        <v>7.766254122361525</v>
       </c>
       <c r="D2">
-        <v>-12.85618129874885</v>
+        <v>21.42338294062885</v>
       </c>
       <c r="E2">
-        <v>-11.88662589821254</v>
+        <v>-37.17839989213532</v>
       </c>
       <c r="F2">
-        <v>-59.2706823140728</v>
+        <v>-34.3803140371733</v>
       </c>
       <c r="G2">
-        <v>62.23705471683515</v>
+        <v>55.54924460983988</v>
       </c>
       <c r="H2">
-        <v>10.63756657892481</v>
+        <v>5.469082726212434</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -442,25 +442,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>-42.88807395120055</v>
+        <v>-15.28771981963644</v>
       </c>
       <c r="C3">
-        <v>-30.98433737504531</v>
+        <v>-2.043989946310269</v>
       </c>
       <c r="D3">
-        <v>20.82524913305958</v>
+        <v>10.35337284577383</v>
       </c>
       <c r="E3">
-        <v>-53.16572586986187</v>
+        <v>-105.2710824772989</v>
       </c>
       <c r="F3">
-        <v>-94.86436447966625</v>
+        <v>-29.99453119831436</v>
       </c>
       <c r="G3">
-        <v>122.7149098792341</v>
+        <v>111.0259307964444</v>
       </c>
       <c r="H3">
-        <v>27.02914296923771</v>
+        <v>38.94704367889696</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -473,25 +473,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>-2.512601564352158</v>
+        <v>3.793724438016572</v>
       </c>
       <c r="C4">
-        <v>3.686798014116036</v>
+        <v>11.70155786068527</v>
       </c>
       <c r="D4">
-        <v>2.726159628341084</v>
+        <v>24.13845363980899</v>
       </c>
       <c r="E4">
-        <v>-4.392143158735461</v>
+        <v>-34.53732022927524</v>
       </c>
       <c r="F4">
-        <v>-52.01720498429279</v>
+        <v>-11.63271617616948</v>
       </c>
       <c r="G4">
-        <v>52.46349329240317</v>
+        <v>45.41068508462075</v>
       </c>
       <c r="H4">
-        <v>20.41112800335678</v>
+        <v>15.60764225143157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -504,25 +504,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-63.60786203789925</v>
+        <v>-21.62862490443728</v>
       </c>
       <c r="C5">
-        <v>-51.50450856728934</v>
+        <v>-9.910424927333651</v>
       </c>
       <c r="D5">
-        <v>41.32224893075648</v>
+        <v>14.18582752945935</v>
       </c>
       <c r="E5">
-        <v>-78.39436922793213</v>
+        <v>-158.0744156658091</v>
       </c>
       <c r="F5">
-        <v>-136.3172228889155</v>
+        <v>-34.76002309902154</v>
       </c>
       <c r="G5">
-        <v>182.0281987914989</v>
+        <v>164.2042378689546</v>
       </c>
       <c r="H5">
-        <v>15.97229333594271</v>
+        <v>13.98377387156759</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -535,25 +535,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-35.99468542141629</v>
+        <v>-17.76045392243708</v>
       </c>
       <c r="C6">
-        <v>-25.3224884497292</v>
+        <v>-5.232462677339868</v>
       </c>
       <c r="D6">
-        <v>10.25590397121861</v>
+        <v>18.21675910902351</v>
       </c>
       <c r="E6">
-        <v>-32.18758172696059</v>
+        <v>-79.51994100280844</v>
       </c>
       <c r="F6">
-        <v>-81.70157574503804</v>
+        <v>-29.1257790504998</v>
       </c>
       <c r="G6">
-        <v>98.75837819037027</v>
+        <v>88.57987764738459</v>
       </c>
       <c r="H6">
-        <v>3.072611280373906</v>
+        <v>16.5009905298372</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>-38.40170901559964</v>
+        <v>-19.77067571822382</v>
       </c>
       <c r="C7">
-        <v>-38.6260716587159</v>
+        <v>-14.14505462290257</v>
       </c>
       <c r="D7">
-        <v>-60.62093177676305</v>
+        <v>7.172001249465415</v>
       </c>
       <c r="E7">
-        <v>-48.3291630044298</v>
+        <v>-63.22687314463936</v>
       </c>
       <c r="F7">
-        <v>-90.90471129727132</v>
+        <v>-115.0456089324424</v>
       </c>
       <c r="G7">
-        <v>131.3047469413616</v>
+        <v>133.6993994483415</v>
       </c>
       <c r="H7">
-        <v>32.12280114779236</v>
+        <v>43.53187213643717</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="B8">
-        <v>-6.11386114683225</v>
+        <v>6.163599331139281</v>
       </c>
       <c r="C8">
-        <v>-7.871829166189255</v>
+        <v>6.274545762301711</v>
       </c>
       <c r="D8">
-        <v>-17.71718854055465</v>
+        <v>24.64407947981325</v>
       </c>
       <c r="E8">
-        <v>-18.80641356180539</v>
+        <v>-47.9718300371324</v>
       </c>
       <c r="F8">
-        <v>-75.00815661299335</v>
+        <v>-48.23137655739144</v>
       </c>
       <c r="G8">
-        <v>79.95716673233844</v>
+        <v>72.88520217697004</v>
       </c>
       <c r="H8">
-        <v>7.082545436578485</v>
+        <v>17.28232513493431</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -628,25 +628,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>-38.77622997353316</v>
+        <v>-28.89708699347063</v>
       </c>
       <c r="C9">
-        <v>-29.71968753544394</v>
+        <v>-19.0691658909336</v>
       </c>
       <c r="D9">
-        <v>13.56865875422099</v>
+        <v>26.76888534741698</v>
       </c>
       <c r="E9">
-        <v>-10.76412095953631</v>
+        <v>-62.40362572222662</v>
       </c>
       <c r="F9">
-        <v>-68.66245020127774</v>
+        <v>-16.98012229159768</v>
       </c>
       <c r="G9">
-        <v>86.03117287488138</v>
+        <v>78.08831540982727</v>
       </c>
       <c r="H9">
-        <v>9.654594035114982</v>
+        <v>6.009428292279878</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -659,25 +659,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>-5.350044821306352</v>
+        <v>12.38497430994193</v>
       </c>
       <c r="C10">
-        <v>-9.524463436333924</v>
+        <v>10.7234193928864</v>
       </c>
       <c r="D10">
-        <v>-27.54596313570691</v>
+        <v>30.62028034715426</v>
       </c>
       <c r="E10">
-        <v>-29.00811431354381</v>
+        <v>-64.33099755230771</v>
       </c>
       <c r="F10">
-        <v>-101.1624807033494</v>
+        <v>-69.81765046808548</v>
       </c>
       <c r="G10">
-        <v>109.3317733620787</v>
+        <v>101.0888838776586</v>
       </c>
       <c r="H10">
-        <v>10.14982756850948</v>
+        <v>10.92135656575428</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.1068071337458088</v>
+        <v>5.883784813099602</v>
       </c>
       <c r="C11">
-        <v>25.59790516768597</v>
+        <v>38.91464712762979</v>
       </c>
       <c r="D11">
-        <v>-6.003151027375653</v>
+        <v>35.87829982731672</v>
       </c>
       <c r="E11">
-        <v>-4.155836160182531</v>
+        <v>-43.2187322805549</v>
       </c>
       <c r="F11">
-        <v>-75.70195809983125</v>
+        <v>-18.2100613073195</v>
       </c>
       <c r="G11">
-        <v>80.24561927815144</v>
+        <v>70.96256926047883</v>
       </c>
       <c r="H11">
-        <v>7.370997982391486</v>
+        <v>9.944241924426514</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -721,25 +721,25 @@
         </is>
       </c>
       <c r="B12">
-        <v>-19.28138634296046</v>
+        <v>2.177551995229592</v>
       </c>
       <c r="C12">
-        <v>-24.48401474981322</v>
+        <v>-2.242662579399413</v>
       </c>
       <c r="D12">
-        <v>-16.28828665438244</v>
+        <v>-0.2102101280767469</v>
       </c>
       <c r="E12">
-        <v>-47.06341640691581</v>
+        <v>-63.36721411762462</v>
       </c>
       <c r="F12">
-        <v>-67.41318936790498</v>
+        <v>-58.64793647948738</v>
       </c>
       <c r="G12">
-        <v>89.42063735153467</v>
+        <v>86.39907253417587</v>
       </c>
       <c r="H12">
-        <v>9.761308442034547</v>
+        <v>3.768454777728479</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B13">
-        <v>-11.72946834541467</v>
+        <v>3.240368639465929</v>
       </c>
       <c r="C13">
-        <v>-5.978123687853683</v>
+        <v>12.89006187491449</v>
       </c>
       <c r="D13">
-        <v>-19.06261359478003</v>
+        <v>26.09020865057447</v>
       </c>
       <c r="E13">
-        <v>-25.80586042132636</v>
+        <v>-60.43362603937094</v>
       </c>
       <c r="F13">
-        <v>-88.44914606097503</v>
+        <v>-54.06854243121995</v>
       </c>
       <c r="G13">
-        <v>95.00471303339602</v>
+        <v>86.21474994681847</v>
       </c>
       <c r="H13">
-        <v>4.177232760173197</v>
+        <v>3.952777365085879</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -783,25 +783,25 @@
         </is>
       </c>
       <c r="B14">
-        <v>4.397991658230481</v>
+        <v>22.08559964692223</v>
       </c>
       <c r="C14">
-        <v>-4.813638811735371</v>
+        <v>13.69783210800481</v>
       </c>
       <c r="D14">
-        <v>-21.29308089987418</v>
+        <v>27.67240521124643</v>
       </c>
       <c r="E14">
-        <v>-27.48564784730231</v>
+        <v>-58.00431164924035</v>
       </c>
       <c r="F14">
-        <v>-91.37606590377359</v>
+        <v>-59.3294174758344</v>
       </c>
       <c r="G14">
-        <v>97.98446305961464</v>
+        <v>91.24497944721497</v>
       </c>
       <c r="H14">
-        <v>1.197482733954573</v>
+        <v>1.077452135310622</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B15">
-        <v>-59.52452459916885</v>
+        <v>-20.10060057414776</v>
       </c>
       <c r="C15">
-        <v>-48.12446079368704</v>
+        <v>-8.901186276251146</v>
       </c>
       <c r="D15">
-        <v>36.8806855236607</v>
+        <v>8.445230171560624</v>
       </c>
       <c r="E15">
-        <v>-75.8931270921714</v>
+        <v>-145.3101340347594</v>
       </c>
       <c r="F15">
-        <v>-122.0639262785112</v>
+        <v>-33.51610289814383</v>
       </c>
       <c r="G15">
-        <v>166.9691185773274</v>
+        <v>150.9733465877182</v>
       </c>
       <c r="H15">
-        <v>0.913213121771264</v>
+        <v>0.7528825903311827</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -845,25 +845,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>-24.41172080674063</v>
+        <v>-17.8402726891192</v>
       </c>
       <c r="C16">
-        <v>-13.58088352283336</v>
+        <v>-5.076981530994272</v>
       </c>
       <c r="D16">
-        <v>7.772574857216084</v>
+        <v>25.07392071251359</v>
       </c>
       <c r="E16">
-        <v>-5.467475829772749</v>
+        <v>-46.38374469867683</v>
       </c>
       <c r="F16">
-        <v>-57.39591329461119</v>
+        <v>-12.95008640504132</v>
       </c>
       <c r="G16">
-        <v>64.53657555828109</v>
+        <v>57.37516083773251</v>
       </c>
       <c r="H16">
-        <v>31.14919135171527</v>
+        <v>14.70372627981489</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -876,25 +876,25 @@
         </is>
       </c>
       <c r="B17">
-        <v>-11.44239563553537</v>
+        <v>-4.313381854742774</v>
       </c>
       <c r="C17">
-        <v>-2.015515860106986</v>
+        <v>8.435746286333853</v>
       </c>
       <c r="D17">
-        <v>-6.554415993129318</v>
+        <v>31.68472604154339</v>
       </c>
       <c r="E17">
-        <v>-5.863860804218392</v>
+        <v>-44.46327636082798</v>
       </c>
       <c r="F17">
-        <v>-70.63057677466922</v>
+        <v>-28.30784691269859</v>
       </c>
       <c r="G17">
-        <v>72.11805828034434</v>
+        <v>62.22544563385642</v>
       </c>
       <c r="H17">
-        <v>0.7565630154156082</v>
+        <v>1.207118297804108</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -907,25 +907,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>3.518040166669925</v>
+        <v>11.42723982599218</v>
       </c>
       <c r="C18">
-        <v>24.9131729344707</v>
+        <v>39.56162476135608</v>
       </c>
       <c r="D18">
-        <v>-7.298867080929379</v>
+        <v>28.18269272337582</v>
       </c>
       <c r="E18">
-        <v>-10.83891928515778</v>
+        <v>-41.99324870988275</v>
       </c>
       <c r="F18">
-        <v>-69.73805676143793</v>
+        <v>-20.59672673731586</v>
       </c>
       <c r="G18">
-        <v>75.28077433896337</v>
+        <v>68.39317380002946</v>
       </c>
       <c r="H18">
-        <v>2.406153043203418</v>
+        <v>7.374846463977143</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -938,25 +938,25 @@
         </is>
       </c>
       <c r="B19">
-        <v>-11.08368405775144</v>
+        <v>1.201516470414097</v>
       </c>
       <c r="C19">
-        <v>-9.37468605427755</v>
+        <v>4.119843847350372</v>
       </c>
       <c r="D19">
-        <v>-2.49886210853583</v>
+        <v>30.63829586022163</v>
       </c>
       <c r="E19">
-        <v>-14.56104473591326</v>
+        <v>-56.30895794182062</v>
       </c>
       <c r="F19">
-        <v>-79.53042320863294</v>
+        <v>-32.59711971901717</v>
       </c>
       <c r="G19">
-        <v>82.18326680225923</v>
+        <v>72.04438136901005</v>
       </c>
       <c r="H19">
-        <v>9.308645506499275</v>
+        <v>11.02605403295774</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -969,28 +969,28 @@
         </is>
       </c>
       <c r="B20">
-        <v>-40.08401720522409</v>
+        <v>-30.41576143243622</v>
       </c>
       <c r="C20">
-        <v>-24.34095085816004</v>
+        <v>-11.11639035750936</v>
       </c>
       <c r="D20">
-        <v>-1.784790709845121</v>
+        <v>-17.48524683693836</v>
       </c>
       <c r="E20">
-        <v>-31.97835538840725</v>
+        <v>-36.65232843644355</v>
       </c>
       <c r="F20">
-        <v>-15.89579376918225</v>
+        <v>-21.46612581425085</v>
       </c>
       <c r="G20">
-        <v>58.97191937495049</v>
+        <v>56.20155044418472</v>
       </c>
       <c r="H20">
-        <v>40.21002641861873</v>
+        <v>15.87733667336268</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1000,25 +1000,25 @@
         </is>
       </c>
       <c r="B21">
-        <v>-62.21017356599007</v>
+        <v>-18.02792979728129</v>
       </c>
       <c r="C21">
-        <v>-50.33369313159891</v>
+        <v>-6.507983132858945</v>
       </c>
       <c r="D21">
-        <v>41.70088615608078</v>
+        <v>13.71241735769186</v>
       </c>
       <c r="E21">
-        <v>-82.95094720598047</v>
+        <v>-163.330241696735</v>
       </c>
       <c r="F21">
-        <v>-141.3899719839049</v>
+        <v>-36.89723384579905</v>
       </c>
       <c r="G21">
-        <v>187.1217092845129</v>
+        <v>169.0963163561237</v>
       </c>
       <c r="H21">
-        <v>21.06580382895672</v>
+        <v>18.87585235873661</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1031,25 +1031,25 @@
         </is>
       </c>
       <c r="B22">
-        <v>-1.786591829815553</v>
+        <v>12.25646780122948</v>
       </c>
       <c r="C22">
-        <v>-4.857679638297913</v>
+        <v>7.934460661816857</v>
       </c>
       <c r="D22">
-        <v>12.62352956526175</v>
+        <v>21.80914787051592</v>
       </c>
       <c r="E22">
-        <v>-17.50059316357834</v>
+        <v>-52.9274058755467</v>
       </c>
       <c r="F22">
-        <v>-63.65109429628981</v>
+        <v>-12.60893061122513</v>
       </c>
       <c r="G22">
-        <v>67.40827120399986</v>
+        <v>60.4078721994747</v>
       </c>
       <c r="H22">
-        <v>5.466350091760091</v>
+        <v>0.6104551365776132</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B23">
-        <v>-15.77031368532781</v>
+        <v>-2.171782795940791</v>
       </c>
       <c r="C23">
-        <v>-9.321998076080481</v>
+        <v>6.091105586587504</v>
       </c>
       <c r="D23">
-        <v>3.202505669245547</v>
+        <v>31.55423755295041</v>
       </c>
       <c r="E23">
-        <v>-17.01457278376581</v>
+        <v>-64.37579553426882</v>
       </c>
       <c r="F23">
-        <v>-84.69667636837485</v>
+        <v>-28.33512012170665</v>
       </c>
       <c r="G23">
-        <v>88.36787402268386</v>
+        <v>77.36026239814119</v>
       </c>
       <c r="H23">
-        <v>15.49325272692391</v>
+        <v>16.34193506208887</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1093,25 +1093,25 @@
         </is>
       </c>
       <c r="B24">
-        <v>-3.68178342106184</v>
+        <v>4.440097221695289</v>
       </c>
       <c r="C24">
-        <v>10.66759509672414</v>
+        <v>23.94931361724785</v>
       </c>
       <c r="D24">
-        <v>-10.64014248419272</v>
+        <v>30.53773801822807</v>
       </c>
       <c r="E24">
-        <v>-9.81585108769395</v>
+        <v>-44.37218294386885</v>
       </c>
       <c r="F24">
-        <v>-73.67746623558763</v>
+        <v>-30.10211037676142</v>
       </c>
       <c r="G24">
-        <v>75.92947853016719</v>
+        <v>66.33901715946827</v>
       </c>
       <c r="H24">
-        <v>3.054857234407237</v>
+        <v>5.320689823415954</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1124,25 +1124,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>-31.50857704274643</v>
+        <v>-18.86738725502334</v>
       </c>
       <c r="C25">
-        <v>-20.524672917484</v>
+        <v>-6.199733056232427</v>
       </c>
       <c r="D25">
-        <v>12.44360756220885</v>
+        <v>31.91628862502204</v>
       </c>
       <c r="E25">
-        <v>-14.7499269414773</v>
+        <v>-70.57512430721376</v>
       </c>
       <c r="F25">
-        <v>-83.23702900945014</v>
+        <v>-20.52122681971085</v>
       </c>
       <c r="G25">
-        <v>93.353410960123</v>
+        <v>82.55321551920291</v>
       </c>
       <c r="H25">
-        <v>2.33235594987336</v>
+        <v>10.47432840165551</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1155,25 +1155,25 @@
         </is>
       </c>
       <c r="B26">
-        <v>-14.24531749843477</v>
+        <v>-8.377421553753335</v>
       </c>
       <c r="C26">
-        <v>-8.1715989885806</v>
+        <v>0.02293123726146362</v>
       </c>
       <c r="D26">
-        <v>-5.296943851116994</v>
+        <v>42.65662446345797</v>
       </c>
       <c r="E26">
-        <v>1.854463623219077</v>
+        <v>-47.64607377601442</v>
       </c>
       <c r="F26">
-        <v>-80.95124840351438</v>
+        <v>-29.95534927644071</v>
       </c>
       <c r="G26">
-        <v>82.79073238135173</v>
+        <v>71.11427862877032</v>
       </c>
       <c r="H26">
-        <v>9.91611108559178</v>
+        <v>10.09595129271801</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1186,25 +1186,25 @@
         </is>
       </c>
       <c r="B27">
-        <v>-9.111828154962172</v>
+        <v>-4.79932183309813</v>
       </c>
       <c r="C27">
-        <v>-1.418414435401602</v>
+        <v>6.017908192667985</v>
       </c>
       <c r="D27">
-        <v>-10.46241907583126</v>
+        <v>23.08779684074845</v>
       </c>
       <c r="E27">
-        <v>-3.70633958087145</v>
+        <v>-29.78547331468881</v>
       </c>
       <c r="F27">
-        <v>-51.51156437160288</v>
+        <v>-26.19234075589382</v>
       </c>
       <c r="G27">
-        <v>53.49465152567083</v>
+        <v>46.53502129456484</v>
       </c>
       <c r="H27">
-        <v>19.37996977008912</v>
+        <v>14.48330604148748</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1217,28 +1217,28 @@
         </is>
       </c>
       <c r="B28">
-        <v>-40.77608175533877</v>
+        <v>-30.99171549914448</v>
       </c>
       <c r="C28">
-        <v>-26.39648728996319</v>
+        <v>-14.29195390035838</v>
       </c>
       <c r="D28">
-        <v>9.381227119764597</v>
+        <v>7.681752211567693</v>
       </c>
       <c r="E28">
-        <v>-20.01323311621177</v>
+        <v>-52.84667266395525</v>
       </c>
       <c r="F28">
-        <v>-46.03682311611205</v>
+        <v>-15.85571521104262</v>
       </c>
       <c r="G28">
-        <v>70.47970906032381</v>
+        <v>65.32939774262985</v>
       </c>
       <c r="H28">
-        <v>28.7022367332454</v>
+        <v>6.749489374917545</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1248,25 +1248,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>-13.80160901377684</v>
+        <v>4.071248583600253</v>
       </c>
       <c r="C29">
-        <v>-10.589464098571</v>
+        <v>11.30432735606814</v>
       </c>
       <c r="D29">
-        <v>-26.64127114314812</v>
+        <v>19.35879645416104</v>
       </c>
       <c r="E29">
-        <v>-35.40287887206858</v>
+        <v>-63.71750513572697</v>
       </c>
       <c r="F29">
-        <v>-89.73459121672624</v>
+        <v>-66.88341738284585</v>
       </c>
       <c r="G29">
-        <v>101.5777494466684</v>
+        <v>95.14430021649018</v>
       </c>
       <c r="H29">
-        <v>2.395803653099222</v>
+        <v>4.976772904585829</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -1279,28 +1279,28 @@
         </is>
       </c>
       <c r="B30">
-        <v>-39.86278101552571</v>
+        <v>-31.1839314135332</v>
       </c>
       <c r="C30">
-        <v>-25.2908400214104</v>
+        <v>-14.19836156934355</v>
       </c>
       <c r="D30">
-        <v>8.005496721214879</v>
+        <v>0.09341890588691859</v>
       </c>
       <c r="E30">
-        <v>-20.97132083379836</v>
+        <v>-44.90963360010059</v>
       </c>
       <c r="F30">
-        <v>-33.01924482486225</v>
+        <v>-13.43989837671356</v>
       </c>
       <c r="G30">
-        <v>61.82897947849383</v>
+        <v>58.06501386567821</v>
       </c>
       <c r="H30">
-        <v>37.35296631507539</v>
+        <v>14.01387325186919</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1310,25 +1310,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>5.38483709560485</v>
+        <v>10.53140037697952</v>
       </c>
       <c r="C31">
-        <v>21.25920171151289</v>
+        <v>31.15977131634127</v>
       </c>
       <c r="D31">
-        <v>-1.659059996694831</v>
+        <v>32.19447680536185</v>
       </c>
       <c r="E31">
-        <v>-1.314152566597501</v>
+        <v>-35.07788257978214</v>
       </c>
       <c r="F31">
-        <v>-63.23386267144206</v>
+        <v>-11.85228768344853</v>
       </c>
       <c r="G31">
-        <v>66.9623102450081</v>
+        <v>59.06996401531086</v>
       </c>
       <c r="H31">
-        <v>5.912311050751853</v>
+        <v>1.948363320741457</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1341,25 +1341,25 @@
         </is>
       </c>
       <c r="B32">
-        <v>-48.55985454289734</v>
+        <v>-24.32064728985597</v>
       </c>
       <c r="C32">
-        <v>-34.99860923499555</v>
+        <v>-8.973940525539813</v>
       </c>
       <c r="D32">
-        <v>16.8359834868629</v>
+        <v>-0.9910642624071673</v>
       </c>
       <c r="E32">
-        <v>-51.99633684134719</v>
+        <v>-91.59571151114021</v>
       </c>
       <c r="F32">
-        <v>-72.98001044849374</v>
+        <v>-28.41669425740082</v>
       </c>
       <c r="G32">
-        <v>109.0693056343639</v>
+        <v>99.34933608875474</v>
       </c>
       <c r="H32">
-        <v>13.38353872436751</v>
+        <v>27.27044897120734</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1372,25 +1372,25 @@
         </is>
       </c>
       <c r="B33">
-        <v>-30.93505980357985</v>
+        <v>-14.10611496098715</v>
       </c>
       <c r="C33">
-        <v>-26.45368021193911</v>
+        <v>-6.223997147436588</v>
       </c>
       <c r="D33">
-        <v>-21.08247100787389</v>
+        <v>21.11813504026551</v>
       </c>
       <c r="E33">
-        <v>-32.47891320740831</v>
+        <v>-69.65244802623637</v>
       </c>
       <c r="F33">
-        <v>-90.46268900726214</v>
+        <v>-65.12945102590132</v>
       </c>
       <c r="G33">
-        <v>106.4876688220915</v>
+        <v>98.87873964784144</v>
       </c>
       <c r="H33">
-        <v>7.305723028522266</v>
+        <v>8.711212335937091</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -1403,28 +1403,28 @@
         </is>
       </c>
       <c r="B34">
-        <v>-31.49080541883205</v>
+        <v>-22.67366658266541</v>
       </c>
       <c r="C34">
-        <v>-21.88863379696896</v>
+        <v>-10.16724783285354</v>
       </c>
       <c r="D34">
-        <v>-8.715805279624409</v>
+        <v>-7.897714274615868</v>
       </c>
       <c r="E34">
-        <v>-26.13553956039016</v>
+        <v>-33.86520690644535</v>
       </c>
       <c r="F34">
-        <v>-25.67094274328694</v>
+        <v>-29.70416434338636</v>
       </c>
       <c r="G34">
-        <v>53.747670708029</v>
+        <v>52.04835822305324</v>
       </c>
       <c r="H34">
-        <v>45.43427508554021</v>
+        <v>20.03052889449415</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B35">
-        <v>-57.82131911178176</v>
+        <v>-27.37815033591808</v>
       </c>
       <c r="C35">
-        <v>-43.65619722566272</v>
+        <v>-12.02767531031496</v>
       </c>
       <c r="D35">
-        <v>25.03683298843306</v>
+        <v>-4.606504610030118</v>
       </c>
       <c r="E35">
-        <v>-65.18933854169003</v>
+        <v>-111.5164713338349</v>
       </c>
       <c r="F35">
-        <v>-84.14906566275437</v>
+        <v>-29.76763310117733</v>
       </c>
       <c r="G35">
-        <v>131.1744129681577</v>
+        <v>119.3209257972174</v>
       </c>
       <c r="H35">
-        <v>35.48864605816131</v>
+        <v>47.24203867966996</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1465,25 +1465,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>-15.42276083466645</v>
+        <v>-6.310352046492186</v>
       </c>
       <c r="C36">
-        <v>-5.142043357169544</v>
+        <v>6.818228919985556</v>
       </c>
       <c r="D36">
-        <v>0.04657078876153609</v>
+        <v>25.22382458232034</v>
       </c>
       <c r="E36">
-        <v>-11.60520510864902</v>
+        <v>-48.84171565898367</v>
       </c>
       <c r="F36">
-        <v>-65.88395166317645</v>
+        <v>-22.72949710352643</v>
       </c>
       <c r="G36">
-        <v>68.84533537472443</v>
+        <v>60.20542618575082</v>
       </c>
       <c r="H36">
-        <v>4.029285921035523</v>
+        <v>0.8129011503014993</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1496,25 +1496,25 @@
         </is>
       </c>
       <c r="B37">
-        <v>-32.83075778321211</v>
+        <v>-17.59645283421881</v>
       </c>
       <c r="C37">
-        <v>-20.9358910002748</v>
+        <v>-3.72034007417332</v>
       </c>
       <c r="D37">
-        <v>12.59545182138851</v>
+        <v>31.70186529202556</v>
       </c>
       <c r="E37">
-        <v>-20.39401367958482</v>
+        <v>-78.42645900826823</v>
       </c>
       <c r="F37">
-        <v>-90.67565452861349</v>
+        <v>-24.23626460948944</v>
       </c>
       <c r="G37">
-        <v>101.5519852752068</v>
+        <v>89.81419899105535</v>
       </c>
       <c r="H37">
-        <v>5.866218365210386</v>
+        <v>17.73531187350795</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B38">
-        <v>-5.997255898688677</v>
+        <v>0.3779735552694046</v>
       </c>
       <c r="C38">
-        <v>4.511400608553391</v>
+        <v>14.54180014523648</v>
       </c>
       <c r="D38">
-        <v>-5.368342234442481</v>
+        <v>43.16031989087134</v>
       </c>
       <c r="E38">
-        <v>0.4150264962374584</v>
+        <v>-47.3392746745438</v>
       </c>
       <c r="F38">
-        <v>-83.15287592545921</v>
+        <v>-26.67689484014776</v>
       </c>
       <c r="G38">
-        <v>83.66428111075062</v>
+        <v>70.90192997076338</v>
       </c>
       <c r="H38">
-        <v>10.78965981499067</v>
+        <v>9.88360263471106</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1558,25 +1558,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>-5.872510049947906</v>
+        <v>10.11690898952146</v>
       </c>
       <c r="C39">
-        <v>-3.264486135574202</v>
+        <v>17.58498972711896</v>
       </c>
       <c r="D39">
-        <v>-35.25317627390643</v>
+        <v>28.03931582585698</v>
       </c>
       <c r="E39">
-        <v>-29.26056010831277</v>
+        <v>-59.16639394328249</v>
       </c>
       <c r="F39">
-        <v>-97.94712431979964</v>
+        <v>-74.10414599716592</v>
       </c>
       <c r="G39">
-        <v>108.340893580336</v>
+        <v>100.9449036326662</v>
       </c>
       <c r="H39">
-        <v>9.15894778676676</v>
+        <v>10.77737632076187</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -1589,25 +1589,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>2.779484486064734</v>
+        <v>9.756047548847711</v>
       </c>
       <c r="C40">
-        <v>12.92988630203459</v>
+        <v>23.61669224187194</v>
       </c>
       <c r="D40">
-        <v>-5.815453738843644</v>
+        <v>28.70904658936219</v>
       </c>
       <c r="E40">
-        <v>-6.157942882586935</v>
+        <v>-37.0094031543053</v>
       </c>
       <c r="F40">
-        <v>-63.70504921647712</v>
+        <v>-21.01152252639752</v>
       </c>
       <c r="G40">
-        <v>65.61235060717931</v>
+        <v>57.34385732585535</v>
       </c>
       <c r="H40">
-        <v>7.262270688580642</v>
+        <v>3.67447001019697</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1620,25 +1620,25 @@
         </is>
       </c>
       <c r="B41">
-        <v>-9.06140108859648</v>
+        <v>12.58547722908736</v>
       </c>
       <c r="C41">
-        <v>-10.1089428719968</v>
+        <v>16.17726188155305</v>
       </c>
       <c r="D41">
-        <v>-40.2070651390566</v>
+        <v>33.52207530386048</v>
       </c>
       <c r="E41">
-        <v>-39.07064747028211</v>
+        <v>-77.60817131601615</v>
       </c>
       <c r="F41">
-        <v>-122.4377749047378</v>
+        <v>-91.81337635318674</v>
       </c>
       <c r="G41">
-        <v>135.3456021455605</v>
+        <v>126.4774758766712</v>
       </c>
       <c r="H41">
-        <v>36.16365635199131</v>
+        <v>36.30994856476683</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="B42">
-        <v>-40.74459044728197</v>
+        <v>-31.70861815985621</v>
       </c>
       <c r="C42">
-        <v>-24.74250472556349</v>
+        <v>-13.06317056232228</v>
       </c>
       <c r="D42">
-        <v>8.631963094554589</v>
+        <v>-8.342490410455794</v>
       </c>
       <c r="E42">
-        <v>-25.2341690116736</v>
+        <v>-41.83758629719885</v>
       </c>
       <c r="F42">
-        <v>-22.91173347932585</v>
+        <v>-10.8175378464768</v>
       </c>
       <c r="G42">
-        <v>59.23288608884759</v>
+        <v>55.79500684856981</v>
       </c>
       <c r="H42">
-        <v>39.94905970472162</v>
+        <v>16.28388026897758</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="B43">
-        <v>-2.220817848003451</v>
+        <v>12.06050537697276</v>
       </c>
       <c r="C43">
-        <v>-6.602509704234503</v>
+        <v>8.723248793507031</v>
       </c>
       <c r="D43">
-        <v>-13.69863267170305</v>
+        <v>31.51931377967561</v>
       </c>
       <c r="E43">
-        <v>-18.80001372630775</v>
+        <v>-55.72989533670915</v>
       </c>
       <c r="F43">
-        <v>-86.97176931505737</v>
+        <v>-47.51343113132047</v>
       </c>
       <c r="G43">
-        <v>90.29787858683994</v>
+        <v>81.10712282354953</v>
       </c>
       <c r="H43">
-        <v>17.42325729107999</v>
+        <v>9.06040448835482</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1713,25 +1713,25 @@
         </is>
       </c>
       <c r="B44">
-        <v>-1.568969468997122</v>
+        <v>12.74617398111278</v>
       </c>
       <c r="C44">
-        <v>-4.957600580979923</v>
+        <v>8.412329719927813</v>
       </c>
       <c r="D44">
-        <v>9.419516385025482</v>
+        <v>29.30058447476732</v>
       </c>
       <c r="E44">
-        <v>-15.63847425060105</v>
+        <v>-57.44834054566255</v>
       </c>
       <c r="F44">
-        <v>-75.67112407707718</v>
+        <v>-18.88293921333036</v>
       </c>
       <c r="G44">
-        <v>78.01568850954315</v>
+        <v>68.91033099486099</v>
       </c>
       <c r="H44">
-        <v>5.141067213783202</v>
+        <v>7.892003658808669</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1744,25 +1744,25 @@
         </is>
       </c>
       <c r="B45">
-        <v>-13.36187873370273</v>
+        <v>13.4347437115666</v>
       </c>
       <c r="C45">
-        <v>-24.68375711528422</v>
+        <v>-0.9000163028746733</v>
       </c>
       <c r="D45">
-        <v>11.15672945534246</v>
+        <v>5.218352926976698</v>
       </c>
       <c r="E45">
-        <v>-49.36531866470181</v>
+        <v>-80.65187860443686</v>
       </c>
       <c r="F45">
-        <v>-76.54179225144416</v>
+        <v>-34.62504216704922</v>
       </c>
       <c r="G45">
-        <v>95.95770385274453</v>
+        <v>88.95028185849758</v>
       </c>
       <c r="H45">
-        <v>3.224241940824683</v>
+        <v>1.217245453406775</v>
       </c>
       <c r="I45">
         <v>4</v>
@@ -1775,25 +1775,25 @@
         </is>
       </c>
       <c r="B46">
-        <v>-29.61404057147657</v>
+        <v>9.571961564887625</v>
       </c>
       <c r="C46">
-        <v>-35.27054107290469</v>
+        <v>1.644968160289966</v>
       </c>
       <c r="D46">
-        <v>20.83255338539359</v>
+        <v>13.25282062155032</v>
       </c>
       <c r="E46">
-        <v>-71.7849400836204</v>
+        <v>-128.8204213324517</v>
       </c>
       <c r="F46">
-        <v>-123.2174623785041</v>
+        <v>-47.4461073040104</v>
       </c>
       <c r="G46">
-        <v>151.296458666113</v>
+        <v>138.2598990070841</v>
       </c>
       <c r="H46">
-        <v>14.75944678944319</v>
+        <v>11.96056499030297</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -1806,25 +1806,25 @@
         </is>
       </c>
       <c r="B47">
-        <v>-2.062454953228177</v>
+        <v>6.462543182891045</v>
       </c>
       <c r="C47">
-        <v>-4.777489569750378</v>
+        <v>4.282839348251284</v>
       </c>
       <c r="D47">
-        <v>-7.028282734780353</v>
+        <v>26.95072774798816</v>
       </c>
       <c r="E47">
-        <v>-7.823170234934295</v>
+        <v>-38.38981316856293</v>
       </c>
       <c r="F47">
-        <v>-62.66878049383931</v>
+        <v>-29.52062997279965</v>
       </c>
       <c r="G47">
-        <v>63.75776757645264</v>
+        <v>55.9615426210533</v>
       </c>
       <c r="H47">
-        <v>9.116853719307308</v>
+        <v>5.056784714999019</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1837,25 +1837,25 @@
         </is>
       </c>
       <c r="B48">
-        <v>-14.15056970016713</v>
+        <v>-2.020784158022213</v>
       </c>
       <c r="C48">
-        <v>-12.22809898201416</v>
+        <v>2.508278766537954</v>
       </c>
       <c r="D48">
-        <v>-18.62064407798504</v>
+        <v>12.33572346770718</v>
       </c>
       <c r="E48">
-        <v>-24.58166390444642</v>
+        <v>-44.5224772987831</v>
       </c>
       <c r="F48">
-        <v>-60.73203512559124</v>
+        <v>-47.62897306993838</v>
       </c>
       <c r="G48">
-        <v>70.63378585520837</v>
+        <v>66.43278682227091</v>
       </c>
       <c r="H48">
-        <v>28.54815993836084</v>
+        <v>23.73474048963344</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -1868,25 +1868,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>-28.07686714233306</v>
+        <v>-6.371668403213558</v>
       </c>
       <c r="C49">
-        <v>-20.12372535998021</v>
+        <v>3.133118505588723</v>
       </c>
       <c r="D49">
-        <v>10.80572781147218</v>
+        <v>32.41763928798329</v>
       </c>
       <c r="E49">
-        <v>-32.79026567880553</v>
+        <v>-93.54042597095923</v>
       </c>
       <c r="F49">
-        <v>-108.3334432149527</v>
+        <v>-35.22054026848354</v>
       </c>
       <c r="G49">
-        <v>118.8333917151311</v>
+        <v>105.3167397636707</v>
       </c>
       <c r="H49">
-        <v>23.14762480513474</v>
+        <v>33.23785264612334</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -1899,25 +1899,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>-30.39228726361376</v>
+        <v>-20.37368375739159</v>
       </c>
       <c r="C50">
-        <v>-23.04844722872247</v>
+        <v>-8.957983196462671</v>
       </c>
       <c r="D50">
-        <v>-23.2958938392552</v>
+        <v>23.73445643135148</v>
       </c>
       <c r="E50">
-        <v>-18.38062042035738</v>
+        <v>-52.63837657916676</v>
       </c>
       <c r="F50">
-        <v>-76.62948224307314</v>
+        <v>-57.71293357600599</v>
       </c>
       <c r="G50">
-        <v>90.59550469210817</v>
+        <v>84.61819110406864</v>
       </c>
       <c r="H50">
-        <v>8.586441101461048</v>
+        <v>5.549336207835708</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -1930,25 +1930,25 @@
         </is>
       </c>
       <c r="B51">
-        <v>-33.56617160871343</v>
+        <v>-21.12698443985256</v>
       </c>
       <c r="C51">
-        <v>-21.7033183702857</v>
+        <v>-7.930959111375499</v>
       </c>
       <c r="D51">
-        <v>17.10312931787249</v>
+        <v>23.31940569294838</v>
       </c>
       <c r="E51">
-        <v>-17.11042350997639</v>
+        <v>-66.67293110406915</v>
       </c>
       <c r="F51">
-        <v>-69.86283778269257</v>
+        <v>-12.82448757351499</v>
       </c>
       <c r="G51">
-        <v>84.04654444385574</v>
+        <v>75.25152150854883</v>
       </c>
       <c r="H51">
-        <v>11.63922246614062</v>
+        <v>3.172634391001438</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="B52">
-        <v>9.39523362817036</v>
+        <v>23.47948220300992</v>
       </c>
       <c r="C52">
-        <v>0.2111071349769821</v>
+        <v>13.79642459694742</v>
       </c>
       <c r="D52">
-        <v>-7.623126240546847</v>
+        <v>33.07543246547004</v>
       </c>
       <c r="E52">
-        <v>-15.20560077467045</v>
+        <v>-50.90865548450874</v>
       </c>
       <c r="F52">
-        <v>-82.73135113828062</v>
+        <v>-37.51195680642781</v>
       </c>
       <c r="G52">
-        <v>84.98302060361117</v>
+        <v>76.38356993258624</v>
       </c>
       <c r="H52">
-        <v>12.10839930785122</v>
+        <v>15.36524259653393</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -1992,28 +1992,28 @@
         </is>
       </c>
       <c r="B53">
-        <v>-5.328558922753012</v>
+        <v>8.273412555447546</v>
       </c>
       <c r="C53">
-        <v>-6.234937772317834</v>
+        <v>10.23516631708486</v>
       </c>
       <c r="D53">
-        <v>-25.11218408723734</v>
+        <v>23.90063953061023</v>
       </c>
       <c r="E53">
-        <v>-23.34228474226194</v>
+        <v>-50.21527931244211</v>
       </c>
       <c r="F53">
-        <v>-80.60031957068698</v>
+        <v>-58.22398396672636</v>
       </c>
       <c r="G53">
-        <v>87.97251588271716</v>
+        <v>81.58465015067098</v>
       </c>
       <c r="H53">
-        <v>15.09789458695721</v>
+        <v>8.58287716123337</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2023,25 +2023,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>-37.21183783883924</v>
+        <v>-16.83362682083642</v>
       </c>
       <c r="C54">
-        <v>-33.19965702468772</v>
+        <v>-8.769782109898431</v>
       </c>
       <c r="D54">
-        <v>-29.78323981361463</v>
+        <v>9.423172222492166</v>
       </c>
       <c r="E54">
-        <v>-46.15970148908629</v>
+        <v>-73.94993079371626</v>
       </c>
       <c r="F54">
-        <v>-88.60589100152485</v>
+        <v>-79.80766317564161</v>
       </c>
       <c r="G54">
-        <v>115.5668699819801</v>
+        <v>110.846432558225</v>
       </c>
       <c r="H54">
-        <v>16.38492418841092</v>
+        <v>20.6789052463206</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -2054,25 +2054,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>-5.664982201324349</v>
+        <v>2.62554146411301</v>
       </c>
       <c r="C55">
-        <v>11.23638590893696</v>
+        <v>24.28548348997775</v>
       </c>
       <c r="D55">
-        <v>-1.007784466899284</v>
+        <v>20.85505737800752</v>
       </c>
       <c r="E55">
-        <v>-12.78663970718393</v>
+        <v>-41.93176556710138</v>
       </c>
       <c r="F55">
-        <v>-58.55378207413558</v>
+        <v>-16.22226005411841</v>
       </c>
       <c r="G55">
-        <v>61.24873526330398</v>
+        <v>55.2543779206638</v>
       </c>
       <c r="H55">
-        <v>11.62588603245597</v>
+        <v>5.763949415388517</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2085,25 +2085,25 @@
         </is>
       </c>
       <c r="B56">
-        <v>-49.48736711299328</v>
+        <v>-13.66356297504969</v>
       </c>
       <c r="C56">
-        <v>-37.60745729384949</v>
+        <v>-1.408827596358023</v>
       </c>
       <c r="D56">
-        <v>33.50867569642408</v>
+        <v>17.09051773618587</v>
       </c>
       <c r="E56">
-        <v>-65.39154953575003</v>
+        <v>-136.117406956228</v>
       </c>
       <c r="F56">
-        <v>-123.4745981008699</v>
+        <v>-30.94715838785809</v>
       </c>
       <c r="G56">
-        <v>156.5508953077905</v>
+        <v>141.3026490679876</v>
       </c>
       <c r="H56">
-        <v>9.505010147765631</v>
+        <v>8.917814929399469</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -2116,28 +2116,28 @@
         </is>
       </c>
       <c r="B57">
-        <v>-39.4954842664561</v>
+        <v>-23.02638263644375</v>
       </c>
       <c r="C57">
-        <v>-26.28971087868777</v>
+        <v>-6.444359984561856</v>
       </c>
       <c r="D57">
-        <v>-2.232542381929916</v>
+        <v>-3.910443105163469</v>
       </c>
       <c r="E57">
-        <v>-40.21115157642802</v>
+        <v>-62.34177556185885</v>
       </c>
       <c r="F57">
-        <v>-52.67205578997536</v>
+        <v>-35.98119327384764</v>
       </c>
       <c r="G57">
-        <v>81.53102840795482</v>
+        <v>75.94852788451151</v>
       </c>
       <c r="H57">
-        <v>17.65091738561439</v>
+        <v>3.86964076696411</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2147,25 +2147,25 @@
         </is>
       </c>
       <c r="B58">
-        <v>-1.60939182650298</v>
+        <v>3.56978082313487</v>
       </c>
       <c r="C58">
-        <v>20.59823510126411</v>
+        <v>32.40776386542261</v>
       </c>
       <c r="D58">
-        <v>-5.813198142245751</v>
+        <v>35.79372919335489</v>
       </c>
       <c r="E58">
-        <v>-2.316690633442168</v>
+        <v>-41.28524804141392</v>
       </c>
       <c r="F58">
-        <v>-73.04841726519028</v>
+        <v>-18.63470229727638</v>
       </c>
       <c r="G58">
-        <v>76.17157622380937</v>
+        <v>66.30174491669604</v>
       </c>
       <c r="H58">
-        <v>3.296954928049416</v>
+        <v>5.283417580643722</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2178,25 +2178,25 @@
         </is>
       </c>
       <c r="B59">
-        <v>-8.275102407703418</v>
+        <v>-3.416332413403384</v>
       </c>
       <c r="C59">
-        <v>3.742646536621245</v>
+        <v>12.21050354679096</v>
       </c>
       <c r="D59">
-        <v>-1.439987187068017</v>
+        <v>51.9573077490591</v>
       </c>
       <c r="E59">
-        <v>7.324241585619673</v>
+        <v>-50.05754923169116</v>
       </c>
       <c r="F59">
-        <v>-90.31836535391162</v>
+        <v>-22.64123328715832</v>
       </c>
       <c r="G59">
-        <v>91.08023891636519</v>
+        <v>76.67276721497805</v>
       </c>
       <c r="H59">
-        <v>18.20561762060524</v>
+        <v>15.65443987892574</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -2209,25 +2209,25 @@
         </is>
       </c>
       <c r="B60">
-        <v>-28.83554855119135</v>
+        <v>-17.55436403292612</v>
       </c>
       <c r="C60">
-        <v>-23.6817329511448</v>
+        <v>-12.08187066234856</v>
       </c>
       <c r="D60">
-        <v>10.60833699049787</v>
+        <v>22.71751339515039</v>
       </c>
       <c r="E60">
-        <v>-14.5951074688418</v>
+        <v>-58.54403059047579</v>
       </c>
       <c r="F60">
-        <v>-65.19669550107196</v>
+        <v>-18.87026391788043</v>
       </c>
       <c r="G60">
-        <v>77.25591508621172</v>
+        <v>68.9471035524341</v>
       </c>
       <c r="H60">
-        <v>18.42985182378465</v>
+        <v>3.131783565113295</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2240,25 +2240,25 @@
         </is>
       </c>
       <c r="B61">
-        <v>2.028600047707752</v>
+        <v>12.07572148665501</v>
       </c>
       <c r="C61">
-        <v>6.292742808576318</v>
+        <v>19.0640054786775</v>
       </c>
       <c r="D61">
-        <v>-9.643629101262304</v>
+        <v>29.82251417234045</v>
       </c>
       <c r="E61">
-        <v>-11.58519867271826</v>
+        <v>-44.30561803476024</v>
       </c>
       <c r="F61">
-        <v>-73.42861189858853</v>
+        <v>-32.19274706812607</v>
       </c>
       <c r="G61">
-        <v>75.25085571666978</v>
+        <v>66.31743706679387</v>
       </c>
       <c r="H61">
-        <v>2.376234420909825</v>
+        <v>5.299109730741556</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2271,25 +2271,25 @@
         </is>
       </c>
       <c r="B62">
-        <v>-42.15502854744889</v>
+        <v>-20.36526632768485</v>
       </c>
       <c r="C62">
-        <v>-31.13523003984235</v>
+        <v>-8.220600712801996</v>
       </c>
       <c r="D62">
-        <v>19.47486430181332</v>
+        <v>24.84291844275169</v>
       </c>
       <c r="E62">
-        <v>-35.52988545303103</v>
+        <v>-96.88056779858526</v>
       </c>
       <c r="F62">
-        <v>-98.4223078286976</v>
+        <v>-27.20942206909311</v>
       </c>
       <c r="G62">
-        <v>118.6382853874608</v>
+        <v>105.9513568187798</v>
       </c>
       <c r="H62">
-        <v>22.95251847746442</v>
+        <v>33.87246970123239</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B63">
-        <v>-33.2636665172212</v>
+        <v>-20.11951288539019</v>
       </c>
       <c r="C63">
-        <v>-22.93686180506064</v>
+        <v>-7.738847296357959</v>
       </c>
       <c r="D63">
-        <v>6.022172517524276</v>
+        <v>23.03436963190531</v>
       </c>
       <c r="E63">
-        <v>-20.40074401364554</v>
+        <v>-66.52117707085824</v>
       </c>
       <c r="F63">
-        <v>-75.00749820336367</v>
+        <v>-27.28284487803107</v>
       </c>
       <c r="G63">
-        <v>87.813170108487</v>
+        <v>78.51552307723711</v>
       </c>
       <c r="H63">
-        <v>7.87259680150936</v>
+        <v>6.43663595968971</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -2333,25 +2333,25 @@
         </is>
       </c>
       <c r="B64">
-        <v>-3.756664578205418</v>
+        <v>2.750697188926061</v>
       </c>
       <c r="C64">
-        <v>-0.04104011403300745</v>
+        <v>7.451769081148379</v>
       </c>
       <c r="D64">
-        <v>3.475793165745762</v>
+        <v>23.30844123379306</v>
       </c>
       <c r="E64">
-        <v>-4.534699306656476</v>
+        <v>-34.4931161901425</v>
       </c>
       <c r="F64">
-        <v>-50.56127306807278</v>
+        <v>-11.94016577531786</v>
       </c>
       <c r="G64">
-        <v>51.02157566403805</v>
+        <v>44.03091247591687</v>
       </c>
       <c r="H64">
-        <v>21.8530456317219</v>
+        <v>16.98741486013545</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2364,25 +2364,25 @@
         </is>
       </c>
       <c r="B65">
-        <v>-26.13286214535016</v>
+        <v>-14.49597127994866</v>
       </c>
       <c r="C65">
-        <v>-12.52895567809162</v>
+        <v>2.086404131922059</v>
       </c>
       <c r="D65">
-        <v>5.657365696070766</v>
+        <v>19.88897665064138</v>
       </c>
       <c r="E65">
-        <v>-18.98047603368448</v>
+        <v>-58.5979327253425</v>
       </c>
       <c r="F65">
-        <v>-66.50970770060162</v>
+        <v>-21.18605737138681</v>
       </c>
       <c r="G65">
-        <v>75.20443264725341</v>
+        <v>67.02704233656752</v>
       </c>
       <c r="H65">
-        <v>20.48133426274295</v>
+        <v>5.051844780979877</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -2395,28 +2395,28 @@
         </is>
       </c>
       <c r="B66">
-        <v>-3.113127056858424</v>
+        <v>8.85841648815301</v>
       </c>
       <c r="C66">
-        <v>-2.567638541687279</v>
+        <v>12.1803218209309</v>
       </c>
       <c r="D66">
-        <v>-20.16250714851633</v>
+        <v>29.58914023711006</v>
       </c>
       <c r="E66">
-        <v>-17.03751229795348</v>
+        <v>-49.15667020834626</v>
       </c>
       <c r="F66">
-        <v>-82.05138030326113</v>
+        <v>-50.33358207347069</v>
       </c>
       <c r="G66">
-        <v>86.28740845129246</v>
+        <v>77.79586565254813</v>
       </c>
       <c r="H66">
-        <v>13.41278715553251</v>
+        <v>12.37166165935622</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2426,25 +2426,25 @@
         </is>
       </c>
       <c r="B67">
-        <v>-52.66005527896103</v>
+        <v>-25.52567295398748</v>
       </c>
       <c r="C67">
-        <v>-37.23568781266931</v>
+        <v>-8.067886789949306</v>
       </c>
       <c r="D67">
-        <v>19.35558976513143</v>
+        <v>-2.899777852314287</v>
       </c>
       <c r="E67">
-        <v>-58.79747471773287</v>
+        <v>-100.9606603266795</v>
       </c>
       <c r="F67">
-        <v>-78.86058525921486</v>
+        <v>-30.02685410876151</v>
       </c>
       <c r="G67">
-        <v>119.2071795850829</v>
+        <v>108.7185650653564</v>
       </c>
       <c r="H67">
-        <v>23.5214126750865</v>
+        <v>36.63967794780905</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -2457,25 +2457,25 @@
         </is>
       </c>
       <c r="B68">
-        <v>-32.49894981575415</v>
+        <v>-24.29901754198325</v>
       </c>
       <c r="C68">
-        <v>-20.83229496990401</v>
+        <v>-11.31747615868614</v>
       </c>
       <c r="D68">
-        <v>14.87144600978726</v>
+        <v>20.36017284142843</v>
       </c>
       <c r="E68">
-        <v>-9.859850415773288</v>
+        <v>-52.46804669098599</v>
       </c>
       <c r="F68">
-        <v>-54.54059275823376</v>
+        <v>-8.248499330149716</v>
       </c>
       <c r="G68">
-        <v>69.16082032410357</v>
+        <v>62.88082237859048</v>
       </c>
       <c r="H68">
-        <v>26.52494658589279</v>
+        <v>9.198064738956916</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -2488,25 +2488,25 @@
         </is>
       </c>
       <c r="B69">
-        <v>-7.491229341168068</v>
+        <v>9.631466432440281</v>
       </c>
       <c r="C69">
-        <v>-6.597256360332544</v>
+        <v>14.39457004496348</v>
       </c>
       <c r="D69">
-        <v>-29.62170332274803</v>
+        <v>24.44202971655588</v>
       </c>
       <c r="E69">
-        <v>-31.68178470266614</v>
+        <v>-61.07336688576446</v>
       </c>
       <c r="F69">
-        <v>-93.83471986256932</v>
+        <v>-69.09579009605297</v>
       </c>
       <c r="G69">
-        <v>103.8545990791923</v>
+        <v>96.96167263844301</v>
       </c>
       <c r="H69">
-        <v>4.672653285623113</v>
+        <v>6.794145326538654</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -2519,25 +2519,25 @@
         </is>
       </c>
       <c r="B70">
-        <v>-31.96374462061039</v>
+        <v>8.6136406028929</v>
       </c>
       <c r="C70">
-        <v>-37.47521301927241</v>
+        <v>1.160685139286402</v>
       </c>
       <c r="D70">
-        <v>17.76023207704116</v>
+        <v>11.37647337580525</v>
       </c>
       <c r="E70">
-        <v>-76.08458431980718</v>
+        <v>-132.1671229553105</v>
       </c>
       <c r="F70">
-        <v>-126.1444580083772</v>
+        <v>-53.40830879319412</v>
       </c>
       <c r="G70">
-        <v>156.3418902974724</v>
+        <v>143.2674491269113</v>
       </c>
       <c r="H70">
-        <v>9.714015158083782</v>
+        <v>6.953014870475755</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -2550,28 +2550,28 @@
         </is>
       </c>
       <c r="B71">
-        <v>-7.626099392127874</v>
+        <v>-3.647649921250868</v>
       </c>
       <c r="C71">
-        <v>-7.404575154219301</v>
+        <v>-3.183743480995871</v>
       </c>
       <c r="D71">
-        <v>-1.178124173073008</v>
+        <v>8.130710275912039</v>
       </c>
       <c r="E71">
-        <v>-5.581605400688782</v>
+        <v>-18.64710150167582</v>
       </c>
       <c r="F71">
-        <v>-24.02500348006066</v>
+        <v>-12.06669935185559</v>
       </c>
       <c r="G71">
-        <v>26.88360490682377</v>
+        <v>24.14269350659697</v>
       </c>
       <c r="H71">
-        <v>72.29834088674545</v>
+        <v>47.93619361095043</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2581,28 +2581,28 @@
         </is>
       </c>
       <c r="B72">
-        <v>-22.1362393937001</v>
+        <v>-25.67669070555506</v>
       </c>
       <c r="C72">
-        <v>-11.95381930282036</v>
+        <v>-13.11011771775782</v>
       </c>
       <c r="D72">
-        <v>-5.011320990274027</v>
+        <v>-4.285358628209176</v>
       </c>
       <c r="E72">
-        <v>1.712564764042664</v>
+        <v>1.305461319505554</v>
       </c>
       <c r="F72">
-        <v>6.785254279189356</v>
+        <v>-4.958925201476866</v>
       </c>
       <c r="G72">
-        <v>26.58933587345761</v>
+        <v>29.59437614049567</v>
       </c>
       <c r="H72">
-        <v>72.5926099201116</v>
+        <v>42.48451097705173</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2612,28 +2612,28 @@
         </is>
       </c>
       <c r="B73">
-        <v>-7.121965379125367</v>
+        <v>6.689745744481501</v>
       </c>
       <c r="C73">
-        <v>-7.880859881435712</v>
+        <v>7.6556311158836</v>
       </c>
       <c r="D73">
-        <v>-12.98658985804971</v>
+        <v>26.81020770537731</v>
       </c>
       <c r="E73">
-        <v>-20.48934378910873</v>
+        <v>-54.74542978479727</v>
       </c>
       <c r="F73">
-        <v>-81.00010147046831</v>
+        <v>-45.4814170407513</v>
       </c>
       <c r="G73">
-        <v>85.21919681977725</v>
+        <v>76.7318056705997</v>
       </c>
       <c r="H73">
-        <v>12.3445755240173</v>
+        <v>13.43572164130465</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -2643,25 +2643,25 @@
         </is>
       </c>
       <c r="B74">
-        <v>-13.32552916765544</v>
+        <v>5.571309004356545</v>
       </c>
       <c r="C74">
-        <v>-13.40769018499656</v>
+        <v>7.508121690970612</v>
       </c>
       <c r="D74">
-        <v>-13.62474499073029</v>
+        <v>23.56972927390102</v>
       </c>
       <c r="E74">
-        <v>-32.75606946810875</v>
+        <v>-69.49859304769845</v>
       </c>
       <c r="F74">
-        <v>-92.33693544030888</v>
+        <v>-54.73068946471029</v>
       </c>
       <c r="G74">
-        <v>100.7076923241947</v>
+        <v>92.02416160055783</v>
       </c>
       <c r="H74">
-        <v>1.52574653062544</v>
+        <v>1.856634288653481</v>
       </c>
       <c r="I74">
         <v>4</v>

--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>well.tmor</t>
+          <t>ptap.pipy.tles</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>spring.time</t>
+          <t>well</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>yard.ptap</t>
+          <t>sprg.tmor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FA4</t>
+          <t>tles.ctan.surw</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FA2</t>
+          <t>othw.truc</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -411,25 +411,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.484292820072129</v>
+        <v>0.4772910010114015</v>
       </c>
       <c r="C2">
-        <v>7.766254122361525</v>
+        <v>0.6477677636777102</v>
       </c>
       <c r="D2">
-        <v>21.42338294062885</v>
+        <v>0.3468083964406111</v>
       </c>
       <c r="E2">
-        <v>-37.17839989213532</v>
+        <v>0.8409081299224218</v>
       </c>
       <c r="F2">
-        <v>-34.3803140371733</v>
+        <v>0.7141206217877775</v>
       </c>
       <c r="G2">
-        <v>55.54924460983988</v>
+        <v>1.408822410589916</v>
       </c>
       <c r="H2">
-        <v>5.469082726212434</v>
+        <v>0.3438504751796514</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -442,25 +442,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>-15.28771981963644</v>
+        <v>0.4099689956040277</v>
       </c>
       <c r="C3">
-        <v>-2.043989946310269</v>
+        <v>0.3283735460778234</v>
       </c>
       <c r="D3">
-        <v>10.35337284577383</v>
+        <v>0.3086171989909032</v>
       </c>
       <c r="E3">
-        <v>-105.2710824772989</v>
+        <v>0.2379806819287397</v>
       </c>
       <c r="F3">
-        <v>-29.99453119831436</v>
+        <v>0.7155083715494895</v>
       </c>
       <c r="G3">
-        <v>111.0259307964444</v>
+        <v>0.9693994911087795</v>
       </c>
       <c r="H3">
-        <v>38.94704367889696</v>
+        <v>1.289852635339342</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -473,25 +473,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>3.793724438016572</v>
+        <v>0.5194337716196947</v>
       </c>
       <c r="C4">
-        <v>11.70155786068527</v>
+        <v>0.6641239358051915</v>
       </c>
       <c r="D4">
-        <v>24.13845363980899</v>
+        <v>0.3615613470301919</v>
       </c>
       <c r="E4">
-        <v>-34.53732022927524</v>
+        <v>0.7659234968260024</v>
       </c>
       <c r="F4">
-        <v>-11.63271617616948</v>
+        <v>0.8742423543698472</v>
       </c>
       <c r="G4">
-        <v>45.41068508462075</v>
+        <v>1.480721834119775</v>
       </c>
       <c r="H4">
-        <v>15.60764225143157</v>
+        <v>0.2719510516497925</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -504,28 +504,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>-21.62862490443728</v>
+        <v>0.4569303887130264</v>
       </c>
       <c r="C5">
-        <v>-9.910424927333651</v>
+        <v>0.210776698482255</v>
       </c>
       <c r="D5">
-        <v>14.18582752945935</v>
+        <v>0.2364113106184987</v>
       </c>
       <c r="E5">
-        <v>-158.0744156658091</v>
+        <v>0.01842226178992746</v>
       </c>
       <c r="F5">
-        <v>-34.76002309902154</v>
+        <v>0.8960110850851712</v>
       </c>
       <c r="G5">
-        <v>164.2042378689546</v>
+        <v>1.054645793082131</v>
       </c>
       <c r="H5">
-        <v>13.98377387156759</v>
+        <v>1.204606333365991</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -535,28 +535,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>-17.76045392243708</v>
+        <v>0.5293132234641942</v>
       </c>
       <c r="C6">
-        <v>-5.232462677339868</v>
+        <v>0.255823710273961</v>
       </c>
       <c r="D6">
-        <v>18.21675910902351</v>
+        <v>0.2584627178445965</v>
       </c>
       <c r="E6">
-        <v>-79.51994100280844</v>
+        <v>0.4418367646386774</v>
       </c>
       <c r="F6">
-        <v>-29.1257790504998</v>
+        <v>0.7282313589986034</v>
       </c>
       <c r="G6">
-        <v>88.57987764738459</v>
+        <v>1.066752958563197</v>
       </c>
       <c r="H6">
-        <v>16.5009905298372</v>
+        <v>2.211696737080361</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>-19.77067571822382</v>
+        <v>0.3789621646500418</v>
       </c>
       <c r="C7">
-        <v>-14.14505462290257</v>
+        <v>0.1779115038678429</v>
       </c>
       <c r="D7">
-        <v>7.172001249465415</v>
+        <v>0.1731506396454595</v>
       </c>
       <c r="E7">
-        <v>-63.22687314463936</v>
+        <v>0.7438362311455762</v>
       </c>
       <c r="F7">
-        <v>-115.0456089324424</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>133.6993994483415</v>
+        <v>0.8709410474993412</v>
       </c>
       <c r="H7">
-        <v>43.53187213643717</v>
+        <v>3.284042946271507</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="B8">
-        <v>6.163599331139281</v>
+        <v>0.5540730225388566</v>
       </c>
       <c r="C8">
-        <v>6.274545762301711</v>
+        <v>0.6539791027090247</v>
       </c>
       <c r="D8">
-        <v>24.64407947981325</v>
+        <v>0.2749208598623625</v>
       </c>
       <c r="E8">
-        <v>-47.9718300371324</v>
+        <v>0.8478821752709835</v>
       </c>
       <c r="F8">
-        <v>-48.23137655739144</v>
+        <v>0.6004310258970712</v>
       </c>
       <c r="G8">
-        <v>72.88520217697004</v>
+        <v>1.374659470659905</v>
       </c>
       <c r="H8">
-        <v>17.28232513493431</v>
+        <v>0.3780134151096624</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B9">
-        <v>-28.89708699347063</v>
+        <v>0.7133135705248195</v>
       </c>
       <c r="C9">
-        <v>-19.0691658909336</v>
+        <v>0.03177915718402662</v>
       </c>
       <c r="D9">
-        <v>26.76888534741698</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-62.40362572222662</v>
+        <v>0.6374755048513738</v>
       </c>
       <c r="F9">
-        <v>-16.98012229159768</v>
+        <v>0.8527481995555151</v>
       </c>
       <c r="G9">
-        <v>78.08831540982727</v>
+        <v>1.281944100129518</v>
       </c>
       <c r="H9">
-        <v>6.009428292279878</v>
+        <v>1.996505595514039</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -659,25 +659,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>12.38497430994193</v>
+        <v>0.6667352712681578</v>
       </c>
       <c r="C10">
-        <v>10.7234193928864</v>
+        <v>0.6831427384242876</v>
       </c>
       <c r="D10">
-        <v>30.62028034715426</v>
+        <v>0.3345854164779478</v>
       </c>
       <c r="E10">
-        <v>-64.33099755230771</v>
+        <v>0.7414790481684866</v>
       </c>
       <c r="F10">
-        <v>-69.81765046808548</v>
+        <v>0.4426345089242327</v>
       </c>
       <c r="G10">
-        <v>101.0888838776586</v>
+        <v>1.329993914007888</v>
       </c>
       <c r="H10">
-        <v>10.92135656575428</v>
+        <v>2.82499007976296</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -690,28 +690,28 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.883784813099602</v>
+        <v>0.6804618186670938</v>
       </c>
       <c r="C11">
-        <v>38.91464712762979</v>
+        <v>0.2813726942223435</v>
       </c>
       <c r="D11">
-        <v>35.87829982731672</v>
+        <v>0.9707661857210309</v>
       </c>
       <c r="E11">
-        <v>-43.2187322805549</v>
+        <v>0.7895794139447014</v>
       </c>
       <c r="F11">
-        <v>-18.2100613073195</v>
+        <v>0.833361162188576</v>
       </c>
       <c r="G11">
-        <v>70.96256926047883</v>
+        <v>1.674070591291353</v>
       </c>
       <c r="H11">
-        <v>9.944241924426514</v>
+        <v>3.573753411508214</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -721,25 +721,25 @@
         </is>
       </c>
       <c r="B12">
-        <v>2.177551995229592</v>
+        <v>0.2832251344544932</v>
       </c>
       <c r="C12">
-        <v>-2.242662579399413</v>
+        <v>0.4616105409815359</v>
       </c>
       <c r="D12">
-        <v>-0.2102101280767469</v>
+        <v>0.2484294705629883</v>
       </c>
       <c r="E12">
-        <v>-63.36721411762462</v>
+        <v>0.613582386605283</v>
       </c>
       <c r="F12">
-        <v>-58.64793647948738</v>
+        <v>0.506072448914742</v>
       </c>
       <c r="G12">
-        <v>86.39907253417587</v>
+        <v>0.9937860126199392</v>
       </c>
       <c r="H12">
-        <v>3.768454777728479</v>
+        <v>3.161197981150909</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.240368639465929</v>
+        <v>0.5586109568014758</v>
       </c>
       <c r="C13">
-        <v>12.89006187491449</v>
+        <v>0.4864491218762149</v>
       </c>
       <c r="D13">
-        <v>26.09020865057447</v>
+        <v>0.4299445697937762</v>
       </c>
       <c r="E13">
-        <v>-60.43362603937094</v>
+        <v>0.7618152667544044</v>
       </c>
       <c r="F13">
-        <v>-54.06854243121995</v>
+        <v>0.557754872293298</v>
       </c>
       <c r="G13">
-        <v>86.21474994681847</v>
+        <v>1.274748712709667</v>
       </c>
       <c r="H13">
-        <v>3.952777365085879</v>
+        <v>2.880235281061181</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -783,28 +783,28 @@
         </is>
       </c>
       <c r="B14">
-        <v>22.08559964692223</v>
+        <v>0.5755225326521909</v>
       </c>
       <c r="C14">
-        <v>13.69783210800481</v>
+        <v>0.9480806304882167</v>
       </c>
       <c r="D14">
-        <v>27.67240521124643</v>
+        <v>0.3243863069263112</v>
       </c>
       <c r="E14">
-        <v>-58.00431164924035</v>
+        <v>0.7796134063046073</v>
       </c>
       <c r="F14">
-        <v>-59.3294174758344</v>
+        <v>0.4897454398542877</v>
       </c>
       <c r="G14">
-        <v>91.24497944721497</v>
+        <v>1.477483401858227</v>
       </c>
       <c r="H14">
-        <v>1.077452135310622</v>
+        <v>0.2751894839113402</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B15">
-        <v>-20.10060057414776</v>
+        <v>0.3538090110319278</v>
       </c>
       <c r="C15">
-        <v>-8.901186276251146</v>
+        <v>0.2727574756263216</v>
       </c>
       <c r="D15">
-        <v>8.445230171560624</v>
+        <v>0.2382476475935109</v>
       </c>
       <c r="E15">
-        <v>-145.3101340347594</v>
+        <v>0.1148853689518591</v>
       </c>
       <c r="F15">
-        <v>-33.51610289814383</v>
+        <v>0.8973483286232086</v>
       </c>
       <c r="G15">
-        <v>150.9733465877182</v>
+        <v>1.036712143877627</v>
       </c>
       <c r="H15">
-        <v>0.7528825903311827</v>
+        <v>1.222539982570494</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -845,28 +845,28 @@
         </is>
       </c>
       <c r="B16">
-        <v>-17.8402726891192</v>
+        <v>0.6541394729950698</v>
       </c>
       <c r="C16">
-        <v>-5.076981530994272</v>
+        <v>0.1962356039302703</v>
       </c>
       <c r="D16">
-        <v>25.07392071251359</v>
+        <v>0.1929120578498177</v>
       </c>
       <c r="E16">
-        <v>-46.38374469867683</v>
+        <v>0.7286910364572697</v>
       </c>
       <c r="F16">
-        <v>-12.95008640504132</v>
+        <v>0.8815125723411581</v>
       </c>
       <c r="G16">
-        <v>57.37516083773251</v>
+        <v>1.345985500015766</v>
       </c>
       <c r="H16">
-        <v>14.70372627981489</v>
+        <v>1.932464195627791</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="B17">
-        <v>-4.313381854742774</v>
+        <v>0.7012692584184751</v>
       </c>
       <c r="C17">
-        <v>8.435746286333853</v>
+        <v>0.3323802114543132</v>
       </c>
       <c r="D17">
-        <v>31.68472604154339</v>
+        <v>0.3705946818909939</v>
       </c>
       <c r="E17">
-        <v>-44.46327636082798</v>
+        <v>0.8276923679249101</v>
       </c>
       <c r="F17">
-        <v>-28.30784691269859</v>
+        <v>0.7638511115179598</v>
       </c>
       <c r="G17">
-        <v>62.22544563385642</v>
+        <v>1.417088131523042</v>
       </c>
       <c r="H17">
-        <v>1.207118297804108</v>
+        <v>1.861361564120516</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -907,28 +907,28 @@
         </is>
       </c>
       <c r="B18">
-        <v>11.42723982599218</v>
+        <v>0.5433953317201971</v>
       </c>
       <c r="C18">
-        <v>39.56162476135608</v>
+        <v>0.481501605973306</v>
       </c>
       <c r="D18">
-        <v>28.18269272337582</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>-41.99324870988275</v>
+        <v>0.8152780125739252</v>
       </c>
       <c r="F18">
-        <v>-20.59672673731586</v>
+        <v>0.7737857274893309</v>
       </c>
       <c r="G18">
-        <v>68.39317380002946</v>
+        <v>1.670492404335577</v>
       </c>
       <c r="H18">
-        <v>7.374846463977143</v>
+        <v>3.57733159846399</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.201516470414097</v>
+        <v>0.6617551131731581</v>
       </c>
       <c r="C19">
-        <v>4.119843847350372</v>
+        <v>0.5471599727602386</v>
       </c>
       <c r="D19">
-        <v>30.63829586022163</v>
+        <v>0.2421139270206954</v>
       </c>
       <c r="E19">
-        <v>-56.30895794182062</v>
+        <v>0.7461377789577579</v>
       </c>
       <c r="F19">
-        <v>-32.59711971901717</v>
+        <v>0.726907143713076</v>
       </c>
       <c r="G19">
-        <v>72.04438136901005</v>
+        <v>1.371509606247184</v>
       </c>
       <c r="H19">
-        <v>11.02605403295774</v>
+        <v>1.906940089396374</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -969,28 +969,28 @@
         </is>
       </c>
       <c r="B20">
-        <v>-30.41576143243622</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>-11.11639035750936</v>
+        <v>0.1526695718770997</v>
       </c>
       <c r="D20">
-        <v>-17.48524683693836</v>
+        <v>0.1826599920375386</v>
       </c>
       <c r="E20">
-        <v>-36.65232843644355</v>
+        <v>0.8227292333982993</v>
       </c>
       <c r="F20">
-        <v>-21.46612581425085</v>
+        <v>0.8657294006753448</v>
       </c>
       <c r="G20">
-        <v>56.20155044418472</v>
+        <v>1.217802717007207</v>
       </c>
       <c r="H20">
-        <v>15.87733667336268</v>
+        <v>4.879108758272738</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1000,28 +1000,28 @@
         </is>
       </c>
       <c r="B21">
-        <v>-18.02792979728129</v>
+        <v>0.4303296621998755</v>
       </c>
       <c r="C21">
-        <v>-6.507983132858945</v>
+        <v>0.2737430350372202</v>
       </c>
       <c r="D21">
-        <v>13.71241735769186</v>
+        <v>0.2677108828516406</v>
       </c>
       <c r="E21">
-        <v>-163.330241696735</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-36.89723384579905</v>
+        <v>0.8922342595959224</v>
       </c>
       <c r="G21">
-        <v>169.0963163561237</v>
+        <v>1.062012221301778</v>
       </c>
       <c r="H21">
-        <v>18.87585235873661</v>
+        <v>1.197239905146344</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1031,25 +1031,25 @@
         </is>
       </c>
       <c r="B22">
-        <v>12.25646780122948</v>
+        <v>0.5959447600301896</v>
       </c>
       <c r="C22">
-        <v>7.934460661816857</v>
+        <v>0.8927695081747954</v>
       </c>
       <c r="D22">
-        <v>21.80914787051592</v>
+        <v>0.354788034055473</v>
       </c>
       <c r="E22">
-        <v>-52.9274058755467</v>
+        <v>0.563183843409735</v>
       </c>
       <c r="F22">
-        <v>-12.60893061122513</v>
+        <v>0.8746219469481457</v>
       </c>
       <c r="G22">
-        <v>60.4078721994747</v>
+        <v>1.536294793457356</v>
       </c>
       <c r="H22">
-        <v>0.6104551365776132</v>
+        <v>0.2163780923122116</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="B23">
-        <v>-2.171782795940791</v>
+        <v>0.6750249640344412</v>
       </c>
       <c r="C23">
-        <v>6.091105586587504</v>
+        <v>0.4248672819433277</v>
       </c>
       <c r="D23">
-        <v>31.55423755295041</v>
+        <v>0.3031707464669821</v>
       </c>
       <c r="E23">
-        <v>-64.37579553426882</v>
+        <v>0.664519420207174</v>
       </c>
       <c r="F23">
-        <v>-28.33512012170665</v>
+        <v>0.7646552137340356</v>
       </c>
       <c r="G23">
-        <v>77.36026239814119</v>
+        <v>1.324525223078851</v>
       </c>
       <c r="H23">
-        <v>16.34193506208887</v>
+        <v>1.953924472564707</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1093,28 +1093,28 @@
         </is>
       </c>
       <c r="B24">
-        <v>4.440097221695289</v>
+        <v>0.6298159166817741</v>
       </c>
       <c r="C24">
-        <v>23.94931361724785</v>
+        <v>0.4195929377997095</v>
       </c>
       <c r="D24">
-        <v>30.53773801822807</v>
+        <v>0.6874504083489071</v>
       </c>
       <c r="E24">
-        <v>-44.37218294386885</v>
+        <v>0.7969590665692612</v>
       </c>
       <c r="F24">
-        <v>-30.10211037676142</v>
+        <v>0.7184402468120938</v>
       </c>
       <c r="G24">
-        <v>66.33901715946827</v>
+        <v>1.48209801576095</v>
       </c>
       <c r="H24">
-        <v>5.320689823415954</v>
+        <v>3.765725987038618</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="B25">
-        <v>-18.86738725502334</v>
+        <v>0.7540634261053607</v>
       </c>
       <c r="C25">
-        <v>-6.199733056232427</v>
+        <v>0.1135355976885857</v>
       </c>
       <c r="D25">
-        <v>31.91628862502204</v>
+        <v>0.1776982186110183</v>
       </c>
       <c r="E25">
-        <v>-70.57512430721376</v>
+        <v>0.6135171705456213</v>
       </c>
       <c r="F25">
-        <v>-20.52122681971085</v>
+        <v>0.8779106373190355</v>
       </c>
       <c r="G25">
-        <v>82.55321551920291</v>
+        <v>1.32672870064004</v>
       </c>
       <c r="H25">
-        <v>10.47432840165551</v>
+        <v>1.951720995003518</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1155,28 +1155,28 @@
         </is>
       </c>
       <c r="B26">
-        <v>-8.377421553753335</v>
+        <v>0.8820741629064713</v>
       </c>
       <c r="C26">
-        <v>0.02293123726146362</v>
+        <v>0.2549907793977209</v>
       </c>
       <c r="D26">
-        <v>42.65662446345797</v>
+        <v>0.1516767931419917</v>
       </c>
       <c r="E26">
-        <v>-47.64607377601442</v>
+        <v>0.8302701610616857</v>
       </c>
       <c r="F26">
-        <v>-29.95534927644071</v>
+        <v>0.744525902905616</v>
       </c>
       <c r="G26">
-        <v>71.11427862877032</v>
+        <v>1.452497275890619</v>
       </c>
       <c r="H26">
-        <v>10.09595129271801</v>
+        <v>1.825952419752939</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1186,28 +1186,28 @@
         </is>
       </c>
       <c r="B27">
-        <v>-4.79932183309813</v>
+        <v>0.5424572787220731</v>
       </c>
       <c r="C27">
-        <v>6.017908192667985</v>
+        <v>0.3871534647302241</v>
       </c>
       <c r="D27">
-        <v>23.08779684074845</v>
+        <v>0.3275462114557624</v>
       </c>
       <c r="E27">
-        <v>-29.78547331468881</v>
+        <v>0.9677721231528892</v>
       </c>
       <c r="F27">
-        <v>-26.19234075589382</v>
+        <v>0.8462631666002226</v>
       </c>
       <c r="G27">
-        <v>46.53502129456484</v>
+        <v>1.484647586003589</v>
       </c>
       <c r="H27">
-        <v>14.48330604148748</v>
+        <v>1.793802109639969</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1217,28 +1217,28 @@
         </is>
       </c>
       <c r="B28">
-        <v>-30.99171549914448</v>
+        <v>0.420133676138072</v>
       </c>
       <c r="C28">
-        <v>-14.29195390035838</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>7.681752211567693</v>
+        <v>0.1490631602326824</v>
       </c>
       <c r="E28">
-        <v>-52.84667266395525</v>
+        <v>0.7239641133529513</v>
       </c>
       <c r="F28">
-        <v>-15.85571521104262</v>
+        <v>0.8906494912393801</v>
       </c>
       <c r="G28">
-        <v>65.32939774262985</v>
+        <v>1.231305277025863</v>
       </c>
       <c r="H28">
-        <v>6.749489374917545</v>
+        <v>4.865606198254083</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1248,25 +1248,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>4.071248583600253</v>
+        <v>0.4840791277904374</v>
       </c>
       <c r="C29">
-        <v>11.30432735606814</v>
+        <v>0.5310013339576286</v>
       </c>
       <c r="D29">
-        <v>19.35879645416104</v>
+        <v>0.4706238342827063</v>
       </c>
       <c r="E29">
-        <v>-63.71750513572697</v>
+        <v>0.7095139260821483</v>
       </c>
       <c r="F29">
-        <v>-66.88341738284585</v>
+        <v>0.453922093030484</v>
       </c>
       <c r="G29">
-        <v>95.14430021649018</v>
+        <v>1.203011674867608</v>
       </c>
       <c r="H29">
-        <v>4.976772904585829</v>
+        <v>2.95197231890324</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -1279,28 +1279,28 @@
         </is>
       </c>
       <c r="B30">
-        <v>-31.1839314135332</v>
+        <v>0.3147998386309222</v>
       </c>
       <c r="C30">
-        <v>-14.19836156934355</v>
+        <v>0.03520781751117109</v>
       </c>
       <c r="D30">
-        <v>0.09341890588691859</v>
+        <v>0.169678182060668</v>
       </c>
       <c r="E30">
-        <v>-44.90963360010059</v>
+        <v>0.6841870410802475</v>
       </c>
       <c r="F30">
-        <v>-13.43989837671356</v>
+        <v>0.8497196168245099</v>
       </c>
       <c r="G30">
-        <v>58.06501386567821</v>
+        <v>1.148592420609637</v>
       </c>
       <c r="H30">
-        <v>14.01387325186919</v>
+        <v>4.948319054670309</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1310,28 +1310,28 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.53140037697952</v>
+        <v>0.6109041090775765</v>
       </c>
       <c r="C31">
-        <v>31.15977131634127</v>
+        <v>0.5236328459848699</v>
       </c>
       <c r="D31">
-        <v>32.19447680536185</v>
+        <v>0.7328805848346274</v>
       </c>
       <c r="E31">
-        <v>-35.07788257978214</v>
+        <v>0.9119081551021427</v>
       </c>
       <c r="F31">
-        <v>-11.85228768344853</v>
+        <v>0.9303121366812792</v>
       </c>
       <c r="G31">
-        <v>59.06996401531086</v>
+        <v>1.697517686066307</v>
       </c>
       <c r="H31">
-        <v>1.948363320741457</v>
+        <v>3.550306316733261</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="B32">
-        <v>-24.32064728985597</v>
+        <v>0.2394443103475994</v>
       </c>
       <c r="C32">
-        <v>-8.973940525539813</v>
+        <v>0.1584356917995227</v>
       </c>
       <c r="D32">
-        <v>-0.9910642624071673</v>
+        <v>0.2202914655745408</v>
       </c>
       <c r="E32">
-        <v>-91.59571151114021</v>
+        <v>0.4873726349914916</v>
       </c>
       <c r="F32">
-        <v>-28.41669425740082</v>
+        <v>0.8350167102561904</v>
       </c>
       <c r="G32">
-        <v>99.34933608875474</v>
+        <v>1.032351087442848</v>
       </c>
       <c r="H32">
-        <v>27.27044897120734</v>
+        <v>5.064560387837098</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1372,25 +1372,25 @@
         </is>
       </c>
       <c r="B33">
-        <v>-14.10611496098715</v>
+        <v>0.5666963470988569</v>
       </c>
       <c r="C33">
-        <v>-6.223997147436588</v>
+        <v>0.2545800158315917</v>
       </c>
       <c r="D33">
-        <v>21.11813504026551</v>
+        <v>0.1976458656456602</v>
       </c>
       <c r="E33">
-        <v>-69.65244802623637</v>
+        <v>0.6637197562900863</v>
       </c>
       <c r="F33">
-        <v>-65.12945102590132</v>
+        <v>0.4550513913839991</v>
       </c>
       <c r="G33">
-        <v>98.87873964784144</v>
+        <v>1.03567142770915</v>
       </c>
       <c r="H33">
-        <v>8.711212335937091</v>
+        <v>3.119312566061699</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -1403,28 +1403,28 @@
         </is>
       </c>
       <c r="B34">
-        <v>-22.67366658266541</v>
+        <v>0.1585048306930079</v>
       </c>
       <c r="C34">
-        <v>-10.16724783285354</v>
+        <v>0.2857042548703013</v>
       </c>
       <c r="D34">
-        <v>-7.897714274615868</v>
+        <v>0.2672991624436178</v>
       </c>
       <c r="E34">
-        <v>-33.86520690644535</v>
+        <v>0.7989389612636112</v>
       </c>
       <c r="F34">
-        <v>-29.70416434338636</v>
+        <v>0.7067445813830994</v>
       </c>
       <c r="G34">
-        <v>52.04835822305324</v>
+        <v>1.147166470912754</v>
       </c>
       <c r="H34">
-        <v>20.03052889449415</v>
+        <v>4.949745004367191</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1434,28 +1434,28 @@
         </is>
       </c>
       <c r="B35">
-        <v>-27.37815033591808</v>
+        <v>0.2087440421925085</v>
       </c>
       <c r="C35">
-        <v>-12.02767531031496</v>
+        <v>0.1444752940028046</v>
       </c>
       <c r="D35">
-        <v>-4.606504610030118</v>
+        <v>0.2311428456157812</v>
       </c>
       <c r="E35">
-        <v>-111.5164713338349</v>
+        <v>0.3188619154711689</v>
       </c>
       <c r="F35">
-        <v>-29.76763310117733</v>
+        <v>0.8495005262540146</v>
       </c>
       <c r="G35">
-        <v>119.3209257972174</v>
+        <v>0.970153733204803</v>
       </c>
       <c r="H35">
-        <v>47.24203867966996</v>
+        <v>5.126757742075142</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1465,28 +1465,28 @@
         </is>
       </c>
       <c r="B36">
-        <v>-6.310352046492186</v>
+        <v>0.5757287986425473</v>
       </c>
       <c r="C36">
-        <v>6.818228919985556</v>
+        <v>0.3708077207630109</v>
       </c>
       <c r="D36">
-        <v>25.22382458232034</v>
+        <v>0.3651000148458514</v>
       </c>
       <c r="E36">
-        <v>-48.84171565898367</v>
+        <v>0.72168883892211</v>
       </c>
       <c r="F36">
-        <v>-22.72949710352643</v>
+        <v>0.8116127747852144</v>
       </c>
       <c r="G36">
-        <v>60.20542618575082</v>
+        <v>1.334844602425162</v>
       </c>
       <c r="H36">
-        <v>0.8129011503014993</v>
+        <v>1.943605093218396</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1496,28 +1496,28 @@
         </is>
       </c>
       <c r="B37">
-        <v>-17.59645283421881</v>
+        <v>0.7180616588026321</v>
       </c>
       <c r="C37">
-        <v>-3.72034007417332</v>
+        <v>0.1357708126771575</v>
       </c>
       <c r="D37">
-        <v>31.70186529202556</v>
+        <v>0.2125916027932445</v>
       </c>
       <c r="E37">
-        <v>-78.42645900826823</v>
+        <v>0.5678651679306973</v>
       </c>
       <c r="F37">
-        <v>-24.23626460948944</v>
+        <v>0.836483840489839</v>
       </c>
       <c r="G37">
-        <v>89.81419899105535</v>
+        <v>1.265471261366766</v>
       </c>
       <c r="H37">
-        <v>17.73531187350795</v>
+        <v>2.012978434276792</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.3779735552694046</v>
+        <v>0.8547123205318193</v>
       </c>
       <c r="C38">
-        <v>14.54180014523648</v>
+        <v>0.3369697688908177</v>
       </c>
       <c r="D38">
-        <v>43.16031989087134</v>
+        <v>0.4208301039727709</v>
       </c>
       <c r="E38">
-        <v>-47.3392746745438</v>
+        <v>0.8273810318264364</v>
       </c>
       <c r="F38">
-        <v>-26.67689484014776</v>
+        <v>0.7817722647765283</v>
       </c>
       <c r="G38">
-        <v>70.90192997076338</v>
+        <v>1.522138954965989</v>
       </c>
       <c r="H38">
-        <v>9.88360263471106</v>
+        <v>1.756310740677569</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1558,25 +1558,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>10.11690898952146</v>
+        <v>0.5338437393639561</v>
       </c>
       <c r="C39">
-        <v>17.58498972711896</v>
+        <v>0.5522732679566851</v>
       </c>
       <c r="D39">
-        <v>28.03931582585698</v>
+        <v>0.4245656502535997</v>
       </c>
       <c r="E39">
-        <v>-59.16639394328249</v>
+        <v>0.8328436775040299</v>
       </c>
       <c r="F39">
-        <v>-74.10414599716592</v>
+        <v>0.4031693995862545</v>
       </c>
       <c r="G39">
-        <v>100.9449036326662</v>
+        <v>1.27531370566386</v>
       </c>
       <c r="H39">
-        <v>10.77737632076187</v>
+        <v>2.879670288106988</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -1589,25 +1589,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>9.756047548847711</v>
+        <v>0.5399291208471161</v>
       </c>
       <c r="C40">
-        <v>23.61669224187194</v>
+        <v>0.6235000267772984</v>
       </c>
       <c r="D40">
-        <v>28.70904658936219</v>
+        <v>0.6039897729517186</v>
       </c>
       <c r="E40">
-        <v>-37.0094031543053</v>
+        <v>0.8637017397716681</v>
       </c>
       <c r="F40">
-        <v>-21.01152252639752</v>
+        <v>0.7391645202732511</v>
       </c>
       <c r="G40">
-        <v>57.34385732585535</v>
+        <v>1.528863717953857</v>
       </c>
       <c r="H40">
-        <v>3.67447001019697</v>
+        <v>0.2238091678157101</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1620,25 +1620,25 @@
         </is>
       </c>
       <c r="B41">
-        <v>12.58547722908736</v>
+        <v>0.6500416645141763</v>
       </c>
       <c r="C41">
-        <v>16.17726188155305</v>
+        <v>0.5721552971746813</v>
       </c>
       <c r="D41">
-        <v>33.52207530386048</v>
+        <v>0.3917613841416237</v>
       </c>
       <c r="E41">
-        <v>-77.60817131601615</v>
+        <v>0.7152533992757726</v>
       </c>
       <c r="F41">
-        <v>-91.81337635318674</v>
+        <v>0.2468067069652277</v>
       </c>
       <c r="G41">
-        <v>126.4774758766712</v>
+        <v>1.214863699174742</v>
       </c>
       <c r="H41">
-        <v>36.30994856476683</v>
+        <v>2.940120294596107</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="B42">
-        <v>-31.70861815985621</v>
+        <v>0.1972998354358164</v>
       </c>
       <c r="C42">
-        <v>-13.06317056232228</v>
+        <v>0.05408265376348905</v>
       </c>
       <c r="D42">
-        <v>-8.342490410455794</v>
+        <v>0.2297467855409431</v>
       </c>
       <c r="E42">
-        <v>-41.83758629719885</v>
+        <v>0.6436237678209403</v>
       </c>
       <c r="F42">
-        <v>-10.8175378464768</v>
+        <v>0.8525082667241565</v>
       </c>
       <c r="G42">
-        <v>55.79500684856981</v>
+        <v>1.111601386875955</v>
       </c>
       <c r="H42">
-        <v>16.28388026897758</v>
+        <v>4.98531008840399</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="B43">
-        <v>12.06050537697276</v>
+        <v>0.6340528341794309</v>
       </c>
       <c r="C43">
-        <v>8.723248793507031</v>
+        <v>0.7681251727725705</v>
       </c>
       <c r="D43">
-        <v>31.51931377967561</v>
+        <v>0.2432195668219638</v>
       </c>
       <c r="E43">
-        <v>-55.72989533670915</v>
+        <v>0.8023529700171999</v>
       </c>
       <c r="F43">
-        <v>-47.51343113132047</v>
+        <v>0.5824767370755485</v>
       </c>
       <c r="G43">
-        <v>81.10712282354953</v>
+        <v>1.426269425106113</v>
       </c>
       <c r="H43">
-        <v>9.06040448835482</v>
+        <v>0.3264034606634541</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1713,25 +1713,25 @@
         </is>
       </c>
       <c r="B44">
-        <v>12.74617398111278</v>
+        <v>0.6336111409634652</v>
       </c>
       <c r="C44">
-        <v>8.412329719927813</v>
+        <v>0.8666146496272993</v>
       </c>
       <c r="D44">
-        <v>29.30058447476732</v>
+        <v>0.2610609854226393</v>
       </c>
       <c r="E44">
-        <v>-57.44834054566255</v>
+        <v>0.6982424378917012</v>
       </c>
       <c r="F44">
-        <v>-18.88293921333036</v>
+        <v>0.829600118252624</v>
       </c>
       <c r="G44">
-        <v>68.91033099486099</v>
+        <v>1.548036086559104</v>
       </c>
       <c r="H44">
-        <v>7.892003658808669</v>
+        <v>0.2046367992104639</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1744,28 +1744,28 @@
         </is>
       </c>
       <c r="B45">
-        <v>13.4347437115666</v>
+        <v>0.3186722500237375</v>
       </c>
       <c r="C45">
-        <v>-0.9000163028746733</v>
+        <v>0.8479352932128857</v>
       </c>
       <c r="D45">
-        <v>5.218352926976698</v>
+        <v>0.2115935634449341</v>
       </c>
       <c r="E45">
-        <v>-80.65187860443686</v>
+        <v>0.5141479563436152</v>
       </c>
       <c r="F45">
-        <v>-34.62504216704922</v>
+        <v>0.8372981255007639</v>
       </c>
       <c r="G45">
-        <v>88.95028185849758</v>
+        <v>1.353046330500899</v>
       </c>
       <c r="H45">
-        <v>1.217245453406775</v>
+        <v>0.3996265552686684</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1775,28 +1775,28 @@
         </is>
       </c>
       <c r="B46">
-        <v>9.571961564887625</v>
+        <v>0.4418436952764199</v>
       </c>
       <c r="C46">
-        <v>1.644968160289966</v>
+        <v>0.6007772847147948</v>
       </c>
       <c r="D46">
-        <v>13.25282062155032</v>
+        <v>0.2468640989177554</v>
       </c>
       <c r="E46">
-        <v>-128.8204213324517</v>
+        <v>0.2905753603169244</v>
       </c>
       <c r="F46">
-        <v>-47.4461073040104</v>
+        <v>0.7818793991255172</v>
       </c>
       <c r="G46">
-        <v>138.2598990070841</v>
+        <v>1.145805618339982</v>
       </c>
       <c r="H46">
-        <v>11.96056499030297</v>
+        <v>1.113446508108139</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1806,25 +1806,25 @@
         </is>
       </c>
       <c r="B47">
-        <v>6.462543182891045</v>
+        <v>0.60891834268664</v>
       </c>
       <c r="C47">
-        <v>4.282839348251284</v>
+        <v>0.6823512630110518</v>
       </c>
       <c r="D47">
-        <v>26.95072774798816</v>
+        <v>0.2277254237496606</v>
       </c>
       <c r="E47">
-        <v>-38.38981316856293</v>
+        <v>0.8628379499550337</v>
       </c>
       <c r="F47">
-        <v>-29.52062997279965</v>
+        <v>0.7238676474338373</v>
       </c>
       <c r="G47">
-        <v>55.9615426210533</v>
+        <v>1.468576644815989</v>
       </c>
       <c r="H47">
-        <v>5.056784714999019</v>
+        <v>0.2840962409535783</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1837,25 +1837,25 @@
         </is>
       </c>
       <c r="B48">
-        <v>-2.020784158022213</v>
+        <v>0.37861131910101</v>
       </c>
       <c r="C48">
-        <v>2.508278766537954</v>
+        <v>0.5625551089870677</v>
       </c>
       <c r="D48">
-        <v>12.33572346770718</v>
+        <v>0.2845704134901629</v>
       </c>
       <c r="E48">
-        <v>-44.5224772987831</v>
+        <v>0.7908581704542588</v>
       </c>
       <c r="F48">
-        <v>-47.62897306993838</v>
+        <v>0.5565435984999353</v>
       </c>
       <c r="G48">
-        <v>66.43278682227091</v>
+        <v>1.214904327360116</v>
       </c>
       <c r="H48">
-        <v>23.73474048963344</v>
+        <v>2.940079666410733</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="B49">
-        <v>-6.371668403213558</v>
+        <v>0.688289852271547</v>
       </c>
       <c r="C49">
-        <v>3.133118505588723</v>
+        <v>0.3458554017543872</v>
       </c>
       <c r="D49">
-        <v>32.41763928798329</v>
+        <v>0.2411097793615139</v>
       </c>
       <c r="E49">
-        <v>-93.54042597095923</v>
+        <v>0.5477636883507305</v>
       </c>
       <c r="F49">
-        <v>-35.22054026848354</v>
+        <v>0.8080562225453717</v>
       </c>
       <c r="G49">
-        <v>105.3167397636707</v>
+        <v>1.26668572362537</v>
       </c>
       <c r="H49">
-        <v>33.23785264612334</v>
+        <v>2.011763972018188</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1899,25 +1899,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>-20.37368375739159</v>
+        <v>0.6313681817846215</v>
       </c>
       <c r="C50">
-        <v>-8.957983196462671</v>
+        <v>0.0988420928643116</v>
       </c>
       <c r="D50">
-        <v>23.73445643135148</v>
+        <v>0.1737817961866811</v>
       </c>
       <c r="E50">
-        <v>-52.63837657916676</v>
+        <v>0.7720892753132187</v>
       </c>
       <c r="F50">
-        <v>-57.71293357600599</v>
+        <v>0.4967155242778024</v>
       </c>
       <c r="G50">
-        <v>84.61819110406864</v>
+        <v>1.132008751772683</v>
       </c>
       <c r="H50">
-        <v>5.549336207835708</v>
+        <v>3.022975241998165</v>
       </c>
       <c r="I50">
         <v>4</v>
@@ -1930,28 +1930,28 @@
         </is>
       </c>
       <c r="B51">
-        <v>-21.12698443985256</v>
+        <v>0.6035109447449892</v>
       </c>
       <c r="C51">
-        <v>-7.930959111375499</v>
+        <v>0.1268595368016743</v>
       </c>
       <c r="D51">
-        <v>23.31940569294838</v>
+        <v>0.1737984351049426</v>
       </c>
       <c r="E51">
-        <v>-66.67293110406915</v>
+        <v>0.6709097558625047</v>
       </c>
       <c r="F51">
-        <v>-12.82448757351499</v>
+        <v>0.9925188158154296</v>
       </c>
       <c r="G51">
-        <v>75.25152150854883</v>
+        <v>1.358579478281856</v>
       </c>
       <c r="H51">
-        <v>3.172634391001438</v>
+        <v>1.919870217361702</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="B52">
-        <v>23.47948220300992</v>
+        <v>0.6858185243648244</v>
       </c>
       <c r="C52">
-        <v>13.79642459694742</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>33.07543246547004</v>
+        <v>0.3070269056756507</v>
       </c>
       <c r="E52">
-        <v>-50.90865548450874</v>
+        <v>0.791191316775821</v>
       </c>
       <c r="F52">
-        <v>-37.51195680642781</v>
+        <v>0.6956792869470303</v>
       </c>
       <c r="G52">
-        <v>76.38356993258624</v>
+        <v>1.635410021737453</v>
       </c>
       <c r="H52">
-        <v>15.36524259653393</v>
+        <v>0.1172628640321147</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -1992,28 +1992,28 @@
         </is>
       </c>
       <c r="B53">
-        <v>8.273412555447546</v>
+        <v>0.5010609834078437</v>
       </c>
       <c r="C53">
-        <v>10.23516631708486</v>
+        <v>0.6810575068114317</v>
       </c>
       <c r="D53">
-        <v>23.90063953061023</v>
+        <v>0.3246718871020455</v>
       </c>
       <c r="E53">
-        <v>-50.21527931244211</v>
+        <v>0.8211905141223074</v>
       </c>
       <c r="F53">
-        <v>-58.22398396672636</v>
+        <v>0.5161140132149658</v>
       </c>
       <c r="G53">
-        <v>81.58465015067098</v>
+        <v>1.327042126713979</v>
       </c>
       <c r="H53">
-        <v>8.58287716123337</v>
+        <v>0.4256307590555888</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2023,25 +2023,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>-16.83362682083642</v>
+        <v>0.3945064368586436</v>
       </c>
       <c r="C54">
-        <v>-8.769782109898431</v>
+        <v>0.2527365845109188</v>
       </c>
       <c r="D54">
-        <v>9.423172222492166</v>
+        <v>0.2393317498566351</v>
       </c>
       <c r="E54">
-        <v>-73.94993079371626</v>
+        <v>0.6386548637200749</v>
       </c>
       <c r="F54">
-        <v>-79.80766317564161</v>
+        <v>0.3582905212529113</v>
       </c>
       <c r="G54">
-        <v>110.846432558225</v>
+        <v>0.901688931359134</v>
       </c>
       <c r="H54">
-        <v>20.6789052463206</v>
+        <v>3.253295062411715</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -2054,28 +2054,28 @@
         </is>
       </c>
       <c r="B55">
-        <v>2.62554146411301</v>
+        <v>0.4396166844656941</v>
       </c>
       <c r="C55">
-        <v>24.28548348997775</v>
+        <v>0.4945256703562327</v>
       </c>
       <c r="D55">
-        <v>20.85505737800752</v>
+        <v>0.7284931039800875</v>
       </c>
       <c r="E55">
-        <v>-41.93176556710138</v>
+        <v>0.7564286925795887</v>
       </c>
       <c r="F55">
-        <v>-16.22226005411841</v>
+        <v>0.791695176724964</v>
       </c>
       <c r="G55">
-        <v>55.2543779206638</v>
+        <v>1.472238530352902</v>
       </c>
       <c r="H55">
-        <v>5.763949415388517</v>
+        <v>3.775585472446666</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2085,28 +2085,28 @@
         </is>
       </c>
       <c r="B56">
-        <v>-13.66356297504969</v>
+        <v>0.447279196521686</v>
       </c>
       <c r="C56">
-        <v>-1.408827596358023</v>
+        <v>0.3042459969977338</v>
       </c>
       <c r="D56">
-        <v>17.09051773618587</v>
+        <v>0.2396593857117934</v>
       </c>
       <c r="E56">
-        <v>-136.117406956228</v>
+        <v>0.2653278058288346</v>
       </c>
       <c r="F56">
-        <v>-30.94715838785809</v>
+        <v>0.9295871961757034</v>
       </c>
       <c r="G56">
-        <v>141.3026490679876</v>
+        <v>1.133398485674714</v>
       </c>
       <c r="H56">
-        <v>8.917814929399469</v>
+        <v>1.125853640773408</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2116,28 +2116,28 @@
         </is>
       </c>
       <c r="B57">
-        <v>-23.02638263644375</v>
+        <v>0.2098028311593161</v>
       </c>
       <c r="C57">
-        <v>-6.444359984561856</v>
+        <v>0.1667162449481845</v>
       </c>
       <c r="D57">
-        <v>-3.910443105163469</v>
+        <v>0.2895847636559054</v>
       </c>
       <c r="E57">
-        <v>-62.34177556185885</v>
+        <v>0.6742806621883101</v>
       </c>
       <c r="F57">
-        <v>-35.98119327384764</v>
+        <v>0.7105973535230931</v>
       </c>
       <c r="G57">
-        <v>75.94852788451151</v>
+        <v>1.056065282010948</v>
       </c>
       <c r="H57">
-        <v>3.86964076696411</v>
+        <v>5.040846193268997</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2147,28 +2147,28 @@
         </is>
       </c>
       <c r="B58">
-        <v>3.56978082313487</v>
+        <v>0.7002744456866195</v>
       </c>
       <c r="C58">
-        <v>32.40776386542261</v>
+        <v>0.2930553084503704</v>
       </c>
       <c r="D58">
-        <v>35.79372919335489</v>
+        <v>0.8463421024529133</v>
       </c>
       <c r="E58">
-        <v>-41.28524804141392</v>
+        <v>0.8024107832496989</v>
       </c>
       <c r="F58">
-        <v>-18.63470229727638</v>
+        <v>0.8324302328788236</v>
       </c>
       <c r="G58">
-        <v>66.30174491669604</v>
+        <v>1.621531321055239</v>
       </c>
       <c r="H58">
-        <v>5.283417580643722</v>
+        <v>3.626292681744328</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2178,28 +2178,28 @@
         </is>
       </c>
       <c r="B59">
-        <v>-3.416332413403384</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>12.21050354679096</v>
+        <v>0.1999304895486649</v>
       </c>
       <c r="D59">
-        <v>51.9573077490591</v>
+        <v>0.3345491399571588</v>
       </c>
       <c r="E59">
-        <v>-50.05754923169116</v>
+        <v>0.8145711244880213</v>
       </c>
       <c r="F59">
-        <v>-22.64123328715832</v>
+        <v>0.842514040121963</v>
       </c>
       <c r="G59">
-        <v>76.67276721497805</v>
+        <v>1.589103946363974</v>
       </c>
       <c r="H59">
-        <v>15.65443987892574</v>
+        <v>1.689345749279584</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2209,28 +2209,28 @@
         </is>
       </c>
       <c r="B60">
-        <v>-17.55436403292612</v>
+        <v>0.5901429985573439</v>
       </c>
       <c r="C60">
-        <v>-12.08187066234856</v>
+        <v>0.341958562845432</v>
       </c>
       <c r="D60">
-        <v>22.71751339515039</v>
+        <v>0.06471226696620698</v>
       </c>
       <c r="E60">
-        <v>-58.54403059047579</v>
+        <v>0.6869463127422675</v>
       </c>
       <c r="F60">
-        <v>-18.87026391788043</v>
+        <v>0.9234173332856104</v>
       </c>
       <c r="G60">
-        <v>68.9471035524341</v>
+        <v>1.339397962872864</v>
       </c>
       <c r="H60">
-        <v>3.131783565113295</v>
+        <v>1.939051732770694</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2240,25 +2240,25 @@
         </is>
       </c>
       <c r="B61">
-        <v>12.07572148665501</v>
+        <v>0.5772673814798602</v>
       </c>
       <c r="C61">
-        <v>19.0640054786775</v>
+        <v>0.6772759319874415</v>
       </c>
       <c r="D61">
-        <v>29.82251417234045</v>
+        <v>0.4684309742814957</v>
       </c>
       <c r="E61">
-        <v>-44.30561803476024</v>
+        <v>0.8215401536009749</v>
       </c>
       <c r="F61">
-        <v>-32.19274706812607</v>
+        <v>0.7135554902004173</v>
       </c>
       <c r="G61">
-        <v>66.31743706679387</v>
+        <v>1.481707648967992</v>
       </c>
       <c r="H61">
-        <v>5.299109730741556</v>
+        <v>0.2709652368015754</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2271,28 +2271,28 @@
         </is>
       </c>
       <c r="B62">
-        <v>-20.36526632768485</v>
+        <v>0.6338668411013515</v>
       </c>
       <c r="C62">
-        <v>-8.220600712801996</v>
+        <v>0.1622218415814493</v>
       </c>
       <c r="D62">
-        <v>24.84291844275169</v>
+        <v>0.1840981284328134</v>
       </c>
       <c r="E62">
-        <v>-96.88056779858526</v>
+        <v>0.4264549517625205</v>
       </c>
       <c r="F62">
-        <v>-27.20942206909311</v>
+        <v>0.8592422935056725</v>
       </c>
       <c r="G62">
-        <v>105.9513568187798</v>
+        <v>1.175651463597103</v>
       </c>
       <c r="H62">
-        <v>33.87246970123239</v>
+        <v>2.102798232046455</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2302,28 +2302,28 @@
         </is>
       </c>
       <c r="B63">
-        <v>-20.11951288539019</v>
+        <v>0.6087661747713156</v>
       </c>
       <c r="C63">
-        <v>-7.738847296357959</v>
+        <v>0.1720202681881352</v>
       </c>
       <c r="D63">
-        <v>23.03436963190531</v>
+        <v>0.1978787754340567</v>
       </c>
       <c r="E63">
-        <v>-66.52117707085824</v>
+        <v>0.5692621070122395</v>
       </c>
       <c r="F63">
-        <v>-27.28284487803107</v>
+        <v>0.743105396328717</v>
       </c>
       <c r="G63">
-        <v>78.51552307723711</v>
+        <v>1.146999657590783</v>
       </c>
       <c r="H63">
-        <v>6.43663595968971</v>
+        <v>2.131450038052774</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2333,25 +2333,25 @@
         </is>
       </c>
       <c r="B64">
-        <v>2.750697188926061</v>
+        <v>0.5584462601254668</v>
       </c>
       <c r="C64">
-        <v>7.451769081148379</v>
+        <v>0.6294218206540364</v>
       </c>
       <c r="D64">
-        <v>23.30844123379306</v>
+        <v>0.3559834090256132</v>
       </c>
       <c r="E64">
-        <v>-34.4931161901425</v>
+        <v>0.8363617402967368</v>
       </c>
       <c r="F64">
-        <v>-11.94016577531786</v>
+        <v>0.8976269192919352</v>
       </c>
       <c r="G64">
-        <v>44.03091247591687</v>
+        <v>1.529703660234484</v>
       </c>
       <c r="H64">
-        <v>16.98741486013545</v>
+        <v>0.2229692255350839</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2364,28 +2364,28 @@
         </is>
       </c>
       <c r="B65">
-        <v>-14.49597127994866</v>
+        <v>0.5396240879998515</v>
       </c>
       <c r="C65">
-        <v>2.086404131922059</v>
+        <v>0.2508183647435789</v>
       </c>
       <c r="D65">
-        <v>19.88897665064138</v>
+        <v>0.4064952944151784</v>
       </c>
       <c r="E65">
-        <v>-58.5979327253425</v>
+        <v>0.6707372462739477</v>
       </c>
       <c r="F65">
-        <v>-21.18605737138681</v>
+        <v>0.8239675854004211</v>
       </c>
       <c r="G65">
-        <v>67.02704233656752</v>
+        <v>1.283804295114234</v>
       </c>
       <c r="H65">
-        <v>5.051844780979877</v>
+        <v>1.994645400529324</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2395,28 +2395,28 @@
         </is>
       </c>
       <c r="B66">
-        <v>8.85841648815301</v>
+        <v>0.5939467945093785</v>
       </c>
       <c r="C66">
-        <v>12.1803218209309</v>
+        <v>0.6189739522441152</v>
       </c>
       <c r="D66">
-        <v>29.58914023711006</v>
+        <v>0.3309825651248808</v>
       </c>
       <c r="E66">
-        <v>-49.15667020834626</v>
+        <v>0.8487130754932576</v>
       </c>
       <c r="F66">
-        <v>-50.33358207347069</v>
+        <v>0.5784502932317902</v>
       </c>
       <c r="G66">
-        <v>77.79586565254813</v>
+        <v>1.378538948646167</v>
       </c>
       <c r="H66">
-        <v>12.37166165935622</v>
+        <v>0.3741339371234003</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2426,28 +2426,28 @@
         </is>
       </c>
       <c r="B67">
-        <v>-25.52567295398748</v>
+        <v>0.2234959237322641</v>
       </c>
       <c r="C67">
-        <v>-8.067886789949306</v>
+        <v>0.1407472887501553</v>
       </c>
       <c r="D67">
-        <v>-2.899777852314287</v>
+        <v>0.3026096809731778</v>
       </c>
       <c r="E67">
-        <v>-100.9606603266795</v>
+        <v>0.4015004971062978</v>
       </c>
       <c r="F67">
-        <v>-30.02685410876151</v>
+        <v>0.8382292266573327</v>
       </c>
       <c r="G67">
-        <v>108.7185650653564</v>
+        <v>1.012503694725753</v>
       </c>
       <c r="H67">
-        <v>36.63967794780905</v>
+        <v>5.084407780554193</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2457,28 +2457,28 @@
         </is>
       </c>
       <c r="B68">
-        <v>-24.29901754198325</v>
+        <v>0.5904286923167069</v>
       </c>
       <c r="C68">
-        <v>-11.31747615868614</v>
+        <v>0.1156342571546296</v>
       </c>
       <c r="D68">
-        <v>20.36017284142843</v>
+        <v>0.1462530108672042</v>
       </c>
       <c r="E68">
-        <v>-52.46804669098599</v>
+        <v>0.7157052003441938</v>
       </c>
       <c r="F68">
-        <v>-8.248499330149716</v>
+        <v>0.9840511353552579</v>
       </c>
       <c r="G68">
-        <v>62.88082237859048</v>
+        <v>1.36526841174911</v>
       </c>
       <c r="H68">
-        <v>9.198064738956916</v>
+        <v>1.913181283894448</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2488,25 +2488,25 @@
         </is>
       </c>
       <c r="B69">
-        <v>9.631466432440281</v>
+        <v>0.5519904708975167</v>
       </c>
       <c r="C69">
-        <v>14.39457004496348</v>
+        <v>0.612671199455001</v>
       </c>
       <c r="D69">
-        <v>24.44202971655588</v>
+        <v>0.4644306206438028</v>
       </c>
       <c r="E69">
-        <v>-61.07336688576446</v>
+        <v>0.7391119731688141</v>
       </c>
       <c r="F69">
-        <v>-69.09579009605297</v>
+        <v>0.432384886364659</v>
       </c>
       <c r="G69">
-        <v>96.96167263844301</v>
+        <v>1.276322247253003</v>
       </c>
       <c r="H69">
-        <v>6.794145326538654</v>
+        <v>2.878661746517845</v>
       </c>
       <c r="I69">
         <v>4</v>
@@ -2519,28 +2519,28 @@
         </is>
       </c>
       <c r="B70">
-        <v>8.6136406028929</v>
+        <v>0.4181535786264842</v>
       </c>
       <c r="C70">
-        <v>1.160685139286402</v>
+        <v>0.5778687218707602</v>
       </c>
       <c r="D70">
-        <v>11.37647337580525</v>
+        <v>0.253432668131202</v>
       </c>
       <c r="E70">
-        <v>-132.1671229553105</v>
+        <v>0.2473798633876208</v>
       </c>
       <c r="F70">
-        <v>-53.40830879319412</v>
+        <v>0.7329985918680061</v>
       </c>
       <c r="G70">
-        <v>143.2674491269113</v>
+        <v>1.082356930407405</v>
       </c>
       <c r="H70">
-        <v>6.953014870475755</v>
+        <v>1.176895196040717</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2550,28 +2550,28 @@
         </is>
       </c>
       <c r="B71">
-        <v>-3.647649921250868</v>
+        <v>0.4145861499041938</v>
       </c>
       <c r="C71">
-        <v>-3.183743480995871</v>
+        <v>0.3150781466484709</v>
       </c>
       <c r="D71">
-        <v>8.130710275912039</v>
+        <v>0.209585219053728</v>
       </c>
       <c r="E71">
-        <v>-18.64710150167582</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>-12.06669935185559</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>24.14269350659697</v>
+        <v>1.521539312089444</v>
       </c>
       <c r="H71">
-        <v>47.93619361095043</v>
+        <v>1.756910383554114</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2581,28 +2581,28 @@
         </is>
       </c>
       <c r="B72">
-        <v>-25.67669070555506</v>
+        <v>0.2538015647857727</v>
       </c>
       <c r="C72">
-        <v>-13.11011771775782</v>
+        <v>0.2629541952861546</v>
       </c>
       <c r="D72">
-        <v>-4.285358628209176</v>
+        <v>0.2219240806717628</v>
       </c>
       <c r="E72">
-        <v>1.305461319505554</v>
+        <v>0.9442884213196895</v>
       </c>
       <c r="F72">
-        <v>-4.958925201476866</v>
+        <v>0.8879297461420074</v>
       </c>
       <c r="G72">
-        <v>29.59437614049567</v>
+        <v>1.36488471945822</v>
       </c>
       <c r="H72">
-        <v>42.48451097705173</v>
+        <v>1.913564976185338</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -2612,28 +2612,28 @@
         </is>
       </c>
       <c r="B73">
-        <v>6.689745744481501</v>
+        <v>0.5785969477081231</v>
       </c>
       <c r="C73">
-        <v>7.6556311158836</v>
+        <v>0.6446827425156523</v>
       </c>
       <c r="D73">
-        <v>26.81020770537731</v>
+        <v>0.292393732879681</v>
       </c>
       <c r="E73">
-        <v>-54.74542978479727</v>
+        <v>0.7811215687785382</v>
       </c>
       <c r="F73">
-        <v>-45.4814170407513</v>
+        <v>0.6112496241668786</v>
       </c>
       <c r="G73">
-        <v>76.7318056705997</v>
+        <v>1.348948245737089</v>
       </c>
       <c r="H73">
-        <v>13.43572164130465</v>
+        <v>0.403724640032479</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2643,25 +2643,25 @@
         </is>
       </c>
       <c r="B74">
-        <v>5.571309004356545</v>
+        <v>0.5398306856661524</v>
       </c>
       <c r="C74">
-        <v>7.508121690970612</v>
+        <v>0.6226410830223799</v>
       </c>
       <c r="D74">
-        <v>23.56972927390102</v>
+        <v>0.3354448521351234</v>
       </c>
       <c r="E74">
-        <v>-69.49859304769845</v>
+        <v>0.6623027592148884</v>
       </c>
       <c r="F74">
-        <v>-54.73068946471029</v>
+        <v>0.5586758836765609</v>
       </c>
       <c r="G74">
-        <v>92.02416160055783</v>
+        <v>1.241928349037683</v>
       </c>
       <c r="H74">
-        <v>1.856634288653481</v>
+        <v>2.913055644733165</v>
       </c>
       <c r="I74">
         <v>4</v>

--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,40 +365,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ptap.pipy.tles</t>
+          <t>Spring_Dist</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>Well</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sprg.tmor</t>
+          <t>Piped_Yard_Tap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tles.ctan.surw</t>
+          <t>Piped_Home</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>othw.truc</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>distToCentroid</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>distToCentroid</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>clusters</t>
         </is>
@@ -411,27 +406,24 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4772910010114015</v>
+        <v>0.3301026324782411</v>
       </c>
       <c r="C2">
-        <v>0.6477677636777102</v>
+        <v>0.6011028806334483</v>
       </c>
       <c r="D2">
-        <v>0.3468083964406111</v>
+        <v>0.4301594088733358</v>
       </c>
       <c r="E2">
-        <v>0.8409081299224218</v>
+        <v>0.6498169611969592</v>
       </c>
       <c r="F2">
-        <v>0.7141206217877775</v>
+        <v>1.03807110603099</v>
       </c>
       <c r="G2">
-        <v>1.408822410589916</v>
+        <v>0.3908607228408512</v>
       </c>
       <c r="H2">
-        <v>0.3438504751796514</v>
-      </c>
-      <c r="I2">
         <v>1</v>
       </c>
     </row>
@@ -442,27 +434,24 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4099689956040277</v>
+        <v>0.2023686208553027</v>
       </c>
       <c r="C3">
-        <v>0.3283735460778234</v>
+        <v>0.2777357682949861</v>
       </c>
       <c r="D3">
-        <v>0.3086171989909032</v>
+        <v>0.3322684967206326</v>
       </c>
       <c r="E3">
-        <v>0.2379806819287397</v>
+        <v>0.5996713172868109</v>
       </c>
       <c r="F3">
-        <v>0.7155083715494895</v>
+        <v>0.7668756472771655</v>
       </c>
       <c r="G3">
-        <v>0.9693994911087795</v>
+        <v>1.425066491195488</v>
       </c>
       <c r="H3">
-        <v>1.289852635339342</v>
-      </c>
-      <c r="I3">
         <v>2</v>
       </c>
     </row>
@@ -473,27 +462,24 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5194337716196947</v>
+        <v>0.3745132704338859</v>
       </c>
       <c r="C4">
-        <v>0.6641239358051915</v>
+        <v>0.6519004068346094</v>
       </c>
       <c r="D4">
-        <v>0.3615613470301919</v>
+        <v>0.4579437249363378</v>
       </c>
       <c r="E4">
-        <v>0.7659234968260024</v>
+        <v>0.7650362669863743</v>
       </c>
       <c r="F4">
-        <v>0.8742423543698472</v>
+        <v>1.166287818325832</v>
       </c>
       <c r="G4">
-        <v>1.480721834119775</v>
+        <v>0.2626440105460086</v>
       </c>
       <c r="H4">
-        <v>0.2719510516497925</v>
-      </c>
-      <c r="I4">
         <v>1</v>
       </c>
     </row>
@@ -504,28 +490,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4569303887130264</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.210776698482255</v>
+        <v>0.03179103204839025</v>
       </c>
       <c r="D5">
-        <v>0.2364113106184987</v>
+        <v>0.3635339227366345</v>
       </c>
       <c r="E5">
-        <v>0.01842226178992746</v>
+        <v>0.8450433456689586</v>
       </c>
       <c r="F5">
-        <v>0.8960110850851712</v>
+        <v>0.92047044426118</v>
       </c>
       <c r="G5">
-        <v>1.054645793082131</v>
+        <v>2.2052681411956</v>
       </c>
       <c r="H5">
-        <v>1.204606333365991</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -535,28 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.5293132234641942</v>
+        <v>0.171164950739965</v>
       </c>
       <c r="C6">
-        <v>0.255823710273961</v>
+        <v>0.23385009651925</v>
       </c>
       <c r="D6">
-        <v>0.2584627178445965</v>
+        <v>0.4104450956588311</v>
       </c>
       <c r="E6">
-        <v>0.4418367646386774</v>
+        <v>0.6323821960073675</v>
       </c>
       <c r="F6">
-        <v>0.7282313589986034</v>
+        <v>0.8076854130051903</v>
       </c>
       <c r="G6">
-        <v>1.066752958563197</v>
+        <v>1.384256725467463</v>
       </c>
       <c r="H6">
-        <v>2.211696737080361</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -566,28 +546,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3789621646500418</v>
+        <v>0.05283777878988627</v>
       </c>
       <c r="C7">
-        <v>0.1779115038678429</v>
+        <v>0.1000038869768483</v>
       </c>
       <c r="D7">
-        <v>0.1731506396454595</v>
+        <v>0.3018868268455396</v>
       </c>
       <c r="E7">
-        <v>0.7438362311455762</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.3223790695761684</v>
       </c>
       <c r="G7">
-        <v>0.8709410474993412</v>
+        <v>1.869563068896485</v>
       </c>
       <c r="H7">
-        <v>3.284042946271507</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -597,27 +574,24 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.5540730225388566</v>
+        <v>0.2261475967129348</v>
       </c>
       <c r="C8">
-        <v>0.6539791027090247</v>
+        <v>0.6088815393195453</v>
       </c>
       <c r="D8">
-        <v>0.2749208598623625</v>
+        <v>0.4949832013086082</v>
       </c>
       <c r="E8">
-        <v>0.8478821752709835</v>
+        <v>0.5560220174960099</v>
       </c>
       <c r="F8">
-        <v>0.6004310258970712</v>
+        <v>0.9879515767188321</v>
       </c>
       <c r="G8">
-        <v>1.374659470659905</v>
+        <v>0.4409802521530088</v>
       </c>
       <c r="H8">
-        <v>0.3780134151096624</v>
-      </c>
-      <c r="I8">
         <v>1</v>
       </c>
     </row>
@@ -628,28 +602,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.7133135705248195</v>
+        <v>0.03386179997977935</v>
       </c>
       <c r="C9">
-        <v>0.03177915718402662</v>
+        <v>0.1107349983824677</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5163633588361585</v>
       </c>
       <c r="E9">
-        <v>0.6374755048513738</v>
+        <v>0.7140026564830567</v>
       </c>
       <c r="F9">
-        <v>0.8527481995555151</v>
+        <v>0.8887293025314609</v>
       </c>
       <c r="G9">
-        <v>1.281944100129518</v>
+        <v>1.303212835941193</v>
       </c>
       <c r="H9">
-        <v>1.996505595514039</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -659,28 +630,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.6667352712681578</v>
+        <v>0.289182512910864</v>
       </c>
       <c r="C10">
-        <v>0.6831427384242876</v>
+        <v>0.6818255349856556</v>
       </c>
       <c r="D10">
-        <v>0.3345854164779478</v>
+        <v>0.5903346370146425</v>
       </c>
       <c r="E10">
-        <v>0.7414790481684866</v>
+        <v>0.3599127492239455</v>
       </c>
       <c r="F10">
-        <v>0.4426345089242327</v>
+        <v>1.013185450273081</v>
       </c>
       <c r="G10">
-        <v>1.329993914007888</v>
+        <v>0.4157463785987599</v>
       </c>
       <c r="H10">
-        <v>2.82499007976296</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -690,28 +658,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.6804618186670938</v>
+        <v>0.8562516591020831</v>
       </c>
       <c r="C11">
-        <v>0.2813726942223435</v>
+        <v>0.24845764104367</v>
       </c>
       <c r="D11">
-        <v>0.9707661857210309</v>
+        <v>0.6386042567360687</v>
       </c>
       <c r="E11">
-        <v>0.7895794139447014</v>
+        <v>0.764941524208031</v>
       </c>
       <c r="F11">
-        <v>0.833361162188576</v>
+        <v>1.337104721137125</v>
       </c>
       <c r="G11">
-        <v>1.674070591291353</v>
+        <v>2.856501336935779</v>
       </c>
       <c r="H11">
-        <v>3.573753411508214</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -721,28 +686,25 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2832251344544932</v>
+        <v>0.2056692847191466</v>
       </c>
       <c r="C12">
-        <v>0.4616105409815359</v>
+        <v>0.4384933306689822</v>
       </c>
       <c r="D12">
-        <v>0.2484294705629883</v>
+        <v>0.2141635315047961</v>
       </c>
       <c r="E12">
-        <v>0.613582386605283</v>
+        <v>0.4254404654110284</v>
       </c>
       <c r="F12">
-        <v>0.506072448914742</v>
+        <v>0.6792951225747327</v>
       </c>
       <c r="G12">
-        <v>0.9937860126199392</v>
+        <v>0.7496367062971082</v>
       </c>
       <c r="H12">
-        <v>3.161197981150909</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -752,28 +714,25 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.5586109568014758</v>
+        <v>0.3883821749011942</v>
       </c>
       <c r="C13">
-        <v>0.4864491218762149</v>
+        <v>0.452326508622745</v>
       </c>
       <c r="D13">
-        <v>0.4299445697937762</v>
+        <v>0.4887501316244985</v>
       </c>
       <c r="E13">
-        <v>0.7618152667544044</v>
+        <v>0.4867584891838891</v>
       </c>
       <c r="F13">
-        <v>0.557754872293298</v>
+        <v>0.9117294018179796</v>
       </c>
       <c r="G13">
-        <v>1.274748712709667</v>
+        <v>0.5172024270538613</v>
       </c>
       <c r="H13">
-        <v>2.880235281061181</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -783,27 +742,24 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.5755225326521909</v>
+        <v>0.2978960509025257</v>
       </c>
       <c r="C14">
-        <v>0.9480806304882167</v>
+        <v>0.9456322417326022</v>
       </c>
       <c r="D14">
-        <v>0.3243863069263112</v>
+        <v>0.4975580771901655</v>
       </c>
       <c r="E14">
-        <v>0.7796134063046073</v>
+        <v>0.4030218862189334</v>
       </c>
       <c r="F14">
-        <v>0.4897454398542877</v>
+        <v>1.180234330417561</v>
       </c>
       <c r="G14">
-        <v>1.477483401858227</v>
+        <v>0.24869749845428</v>
       </c>
       <c r="H14">
-        <v>0.2751894839113402</v>
-      </c>
-      <c r="I14">
         <v>1</v>
       </c>
     </row>
@@ -814,28 +770,25 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.3538090110319278</v>
+        <v>0.01011410332953179</v>
       </c>
       <c r="C15">
-        <v>0.2727574756263216</v>
+        <v>0.08131038598568167</v>
       </c>
       <c r="D15">
-        <v>0.2382476475935109</v>
+        <v>0.2920887362425406</v>
       </c>
       <c r="E15">
-        <v>0.1148853689518591</v>
+        <v>0.8619539234444267</v>
       </c>
       <c r="F15">
-        <v>0.8973483286232086</v>
+        <v>0.9137800993326053</v>
       </c>
       <c r="G15">
-        <v>1.036712143877627</v>
+        <v>2.211958486124175</v>
       </c>
       <c r="H15">
-        <v>1.222539982570494</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -845,28 +798,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.6541394729950698</v>
+        <v>0.1728062469694915</v>
       </c>
       <c r="C16">
-        <v>0.1962356039302703</v>
+        <v>0.1953971575719869</v>
       </c>
       <c r="D16">
-        <v>0.1929120578498177</v>
+        <v>0.5737804577256376</v>
       </c>
       <c r="E16">
-        <v>0.7286910364572697</v>
+        <v>0.7949831727565437</v>
       </c>
       <c r="F16">
-        <v>0.8815125723411581</v>
+        <v>1.014526641746187</v>
       </c>
       <c r="G16">
-        <v>1.345985500015766</v>
+        <v>1.177415496726467</v>
       </c>
       <c r="H16">
-        <v>1.932464195627791</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -876,28 +826,25 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7012692584184751</v>
+        <v>0.3674435410126524</v>
       </c>
       <c r="C17">
-        <v>0.3323802114543132</v>
+        <v>0.3404960364434364</v>
       </c>
       <c r="D17">
-        <v>0.3705946818909939</v>
+        <v>0.6345579063202654</v>
       </c>
       <c r="E17">
-        <v>0.8276923679249101</v>
+        <v>0.6808636481627547</v>
       </c>
       <c r="F17">
-        <v>0.7638511115179598</v>
+        <v>1.056972729321178</v>
       </c>
       <c r="G17">
-        <v>1.417088131523042</v>
+        <v>1.134969409151475</v>
       </c>
       <c r="H17">
-        <v>1.861361564120516</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -907,28 +854,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.5433953317201971</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.481501605973306</v>
+        <v>0.4476549628751105</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.4645593470500635</v>
       </c>
       <c r="E18">
-        <v>0.8152780125739252</v>
+        <v>0.7031139675738407</v>
       </c>
       <c r="F18">
-        <v>0.7737857274893309</v>
+        <v>1.382237173612302</v>
       </c>
       <c r="G18">
-        <v>1.670492404335577</v>
+        <v>2.811368884460601</v>
       </c>
       <c r="H18">
-        <v>3.57733159846399</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -938,28 +882,25 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.6617551131731581</v>
+        <v>0.2314014398510715</v>
       </c>
       <c r="C19">
-        <v>0.5471599727602386</v>
+        <v>0.5689011374449776</v>
       </c>
       <c r="D19">
-        <v>0.2421139270206954</v>
+        <v>0.5625172962397955</v>
       </c>
       <c r="E19">
-        <v>0.7461377789577579</v>
+        <v>0.6326975262493664</v>
       </c>
       <c r="F19">
-        <v>0.726907143713076</v>
+        <v>1.045909651376416</v>
       </c>
       <c r="G19">
-        <v>1.371509606247184</v>
+        <v>0.383022177495425</v>
       </c>
       <c r="H19">
-        <v>1.906940089396374</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -969,28 +910,25 @@
         </is>
       </c>
       <c r="B20">
+        <v>0.2591072608303278</v>
+      </c>
+      <c r="C20">
+        <v>0.1408369038213745</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0.1526695718770997</v>
-      </c>
-      <c r="D20">
-        <v>0.1826599920375386</v>
-      </c>
       <c r="E20">
-        <v>0.8227292333982993</v>
+        <v>0.7410425772463075</v>
       </c>
       <c r="F20">
-        <v>0.8657294006753448</v>
+        <v>0.7975686223672771</v>
       </c>
       <c r="G20">
-        <v>1.217802717007207</v>
+        <v>2.328169963089503</v>
       </c>
       <c r="H20">
-        <v>4.879108758272738</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1000,28 +938,25 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.4303296621998755</v>
+        <v>0.01603324335212698</v>
       </c>
       <c r="C21">
-        <v>0.2737430350372202</v>
+        <v>0.07263120562842093</v>
       </c>
       <c r="D21">
-        <v>0.2677108828516406</v>
+        <v>0.3639701249673358</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.848403666487265</v>
       </c>
       <c r="F21">
-        <v>0.8922342595959224</v>
+        <v>0.9261724408020349</v>
       </c>
       <c r="G21">
-        <v>1.062012221301778</v>
+        <v>2.199566144654745</v>
       </c>
       <c r="H21">
-        <v>1.197239905146344</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1031,27 +966,24 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.5959447600301896</v>
+        <v>0.236350836990546</v>
       </c>
       <c r="C22">
-        <v>0.8927695081747954</v>
+        <v>0.845226369996683</v>
       </c>
       <c r="D22">
-        <v>0.354788034055473</v>
+        <v>0.548991514508833</v>
       </c>
       <c r="E22">
-        <v>0.563183843409735</v>
+        <v>0.8232197142223527</v>
       </c>
       <c r="F22">
-        <v>0.8746219469481457</v>
+        <v>1.322630604352907</v>
       </c>
       <c r="G22">
-        <v>1.536294793457356</v>
+        <v>0.1063012245189341</v>
       </c>
       <c r="H22">
-        <v>0.2163780923122116</v>
-      </c>
-      <c r="I22">
         <v>1</v>
       </c>
     </row>
@@ -1062,28 +994,25 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.6750249640344412</v>
+        <v>0.2807890639432907</v>
       </c>
       <c r="C23">
-        <v>0.4248672819433277</v>
+        <v>0.4252360939430628</v>
       </c>
       <c r="D23">
-        <v>0.3031707464669821</v>
+        <v>0.5885175665296136</v>
       </c>
       <c r="E23">
-        <v>0.664519420207174</v>
+        <v>0.6600094018958611</v>
       </c>
       <c r="F23">
-        <v>0.7646552137340356</v>
+        <v>1.020604512397909</v>
       </c>
       <c r="G23">
-        <v>1.324525223078851</v>
+        <v>1.171337626074745</v>
       </c>
       <c r="H23">
-        <v>1.953924472564707</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1093,28 +1022,25 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.6298159166817741</v>
+        <v>0.6759842426180606</v>
       </c>
       <c r="C24">
-        <v>0.4195929377997095</v>
+        <v>0.4067532560039821</v>
       </c>
       <c r="D24">
-        <v>0.6874504083489071</v>
+        <v>0.5563790460046527</v>
       </c>
       <c r="E24">
-        <v>0.7969590665692612</v>
+        <v>0.6376612158801445</v>
       </c>
       <c r="F24">
-        <v>0.7184402468120938</v>
+        <v>1.156966886565275</v>
       </c>
       <c r="G24">
-        <v>1.48209801576095</v>
+        <v>3.036639171507628</v>
       </c>
       <c r="H24">
-        <v>3.765725987038618</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1124,28 +1050,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.7540634261053607</v>
+        <v>0.1556270398347348</v>
       </c>
       <c r="C25">
-        <v>0.1135355976885857</v>
+        <v>0.1315775084201037</v>
       </c>
       <c r="D25">
-        <v>0.1776982186110183</v>
+        <v>0.6331463548921003</v>
       </c>
       <c r="E25">
-        <v>0.6135171705456213</v>
+        <v>0.7636286451485556</v>
       </c>
       <c r="F25">
-        <v>0.8779106373190355</v>
+        <v>1.012687232394255</v>
       </c>
       <c r="G25">
-        <v>1.32672870064004</v>
+        <v>1.179254906078398</v>
       </c>
       <c r="H25">
-        <v>1.951720995003518</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1155,28 +1078,25 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.8820741629064713</v>
+        <v>0.203904772412834</v>
       </c>
       <c r="C26">
-        <v>0.2549907793977209</v>
+        <v>0.3238133361257333</v>
       </c>
       <c r="D26">
-        <v>0.1516767931419917</v>
+        <v>0.7835417286375226</v>
       </c>
       <c r="E26">
-        <v>0.8302701610616857</v>
+        <v>0.6108187337819763</v>
       </c>
       <c r="F26">
-        <v>0.744525902905616</v>
+        <v>1.064645198608861</v>
       </c>
       <c r="G26">
-        <v>1.452497275890619</v>
+        <v>1.127296939863793</v>
       </c>
       <c r="H26">
-        <v>1.825952419752939</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1186,28 +1106,25 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.5424572787220731</v>
+        <v>0.2660281701285499</v>
       </c>
       <c r="C27">
-        <v>0.3871534647302241</v>
+        <v>0.299059373145779</v>
       </c>
       <c r="D27">
-        <v>0.3275462114557624</v>
+        <v>0.5040227708054446</v>
       </c>
       <c r="E27">
-        <v>0.9677721231528892</v>
+        <v>0.8481278820300008</v>
       </c>
       <c r="F27">
-        <v>0.8462631666002226</v>
+        <v>1.064691201116729</v>
       </c>
       <c r="G27">
-        <v>1.484647586003589</v>
+        <v>1.127250937355924</v>
       </c>
       <c r="H27">
-        <v>1.793802109639969</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1217,28 +1134,25 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.420133676138072</v>
+        <v>0.1534340972302506</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.01031635394423281</v>
       </c>
       <c r="D28">
-        <v>0.1490631602326824</v>
+        <v>0.3036556630080568</v>
       </c>
       <c r="E28">
-        <v>0.7239641133529513</v>
+        <v>0.8038365954171426</v>
       </c>
       <c r="F28">
-        <v>0.8906494912393801</v>
+        <v>0.8729309727351013</v>
       </c>
       <c r="G28">
-        <v>1.231305277025863</v>
+        <v>2.252807612721679</v>
       </c>
       <c r="H28">
-        <v>4.865606198254083</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1248,28 +1162,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.4840791277904374</v>
+        <v>0.4024256920663447</v>
       </c>
       <c r="C29">
-        <v>0.5310013339576286</v>
+        <v>0.4916660398871648</v>
       </c>
       <c r="D29">
-        <v>0.4706238342827063</v>
+        <v>0.3954592929816316</v>
       </c>
       <c r="E29">
-        <v>0.7095139260821483</v>
+        <v>0.4028928122784831</v>
       </c>
       <c r="F29">
-        <v>0.453922093030484</v>
+        <v>0.849936822948977</v>
       </c>
       <c r="G29">
-        <v>1.203011674867608</v>
+        <v>0.5789950059228639</v>
       </c>
       <c r="H29">
-        <v>2.95197231890324</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1279,28 +1190,25 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.3147998386309222</v>
+        <v>0.1767531920959871</v>
       </c>
       <c r="C30">
-        <v>0.03520781751117109</v>
+        <v>0.03211143535795882</v>
       </c>
       <c r="D30">
-        <v>0.169678182060668</v>
+        <v>0.2337211273088025</v>
       </c>
       <c r="E30">
-        <v>0.6841870410802475</v>
+        <v>0.7489953248028083</v>
       </c>
       <c r="F30">
-        <v>0.8497196168245099</v>
+        <v>0.8049176337513243</v>
       </c>
       <c r="G30">
-        <v>1.148592420609637</v>
+        <v>2.320820951705456</v>
       </c>
       <c r="H30">
-        <v>4.948319054670309</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1310,28 +1218,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.6109041090775765</v>
+        <v>0.7245817323867252</v>
       </c>
       <c r="C31">
-        <v>0.5236328459848699</v>
+        <v>0.458953180404373</v>
       </c>
       <c r="D31">
-        <v>0.7328805848346274</v>
+        <v>0.5748275278240957</v>
       </c>
       <c r="E31">
-        <v>0.9119081551021427</v>
+        <v>0.8828097229365592</v>
       </c>
       <c r="F31">
-        <v>0.9303121366812792</v>
+        <v>1.358468403153906</v>
       </c>
       <c r="G31">
-        <v>1.697517686066307</v>
+        <v>2.835137654918997</v>
       </c>
       <c r="H31">
-        <v>3.550306316733261</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1341,28 +1246,25 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.2394443103475994</v>
+        <v>0.129571638972332</v>
       </c>
       <c r="C32">
-        <v>0.1584356917995227</v>
+        <v>0.08299944111439274</v>
       </c>
       <c r="D32">
-        <v>0.2202914655745408</v>
+        <v>0.1909002432564171</v>
       </c>
       <c r="E32">
-        <v>0.4873726349914916</v>
+        <v>0.7701374064971955</v>
       </c>
       <c r="F32">
-        <v>0.8350167102561904</v>
+        <v>0.8082278420178704</v>
       </c>
       <c r="G32">
-        <v>1.032351087442848</v>
+        <v>2.31751074343891</v>
       </c>
       <c r="H32">
-        <v>5.064560387837098</v>
-      </c>
-      <c r="I32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1372,28 +1274,25 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.5666963470988569</v>
+        <v>0.1249605736198036</v>
       </c>
       <c r="C33">
-        <v>0.2545800158315917</v>
+        <v>0.2101193970524475</v>
       </c>
       <c r="D33">
-        <v>0.1976458656456602</v>
+        <v>0.495718222668913</v>
       </c>
       <c r="E33">
-        <v>0.6637197562900863</v>
+        <v>0.3961354014248406</v>
       </c>
       <c r="F33">
-        <v>0.4550513913839991</v>
+        <v>0.6800184692529462</v>
       </c>
       <c r="G33">
-        <v>1.03567142770915</v>
+        <v>1.511923669219707</v>
       </c>
       <c r="H33">
-        <v>3.119312566061699</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1403,28 +1302,25 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.1585048306930079</v>
+        <v>0.1959336838489023</v>
       </c>
       <c r="C34">
-        <v>0.2857042548703013</v>
+        <v>0.2386276274188597</v>
       </c>
       <c r="D34">
-        <v>0.2672991624436178</v>
+        <v>0.1135537857343022</v>
       </c>
       <c r="E34">
-        <v>0.7989389612636112</v>
+        <v>0.6867386951410494</v>
       </c>
       <c r="F34">
-        <v>0.7067445813830994</v>
+        <v>0.7614707155845054</v>
       </c>
       <c r="G34">
-        <v>1.147166470912754</v>
+        <v>2.364267869872275</v>
       </c>
       <c r="H34">
-        <v>4.949745004367191</v>
-      </c>
-      <c r="I34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1434,28 +1330,25 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.2087440421925085</v>
+        <v>0.08642884028875079</v>
       </c>
       <c r="C35">
-        <v>0.1444752940028046</v>
+        <v>0.02048330573016863</v>
       </c>
       <c r="D35">
-        <v>0.2311428456157812</v>
+        <v>0.1671338817164624</v>
       </c>
       <c r="E35">
-        <v>0.3188619154711689</v>
+        <v>0.7966155527326994</v>
       </c>
       <c r="F35">
-        <v>0.8495005262540146</v>
+        <v>0.8187915385008143</v>
       </c>
       <c r="G35">
-        <v>0.970153733204803</v>
+        <v>2.306947046955966</v>
       </c>
       <c r="H35">
-        <v>5.126757742075142</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1465,28 +1358,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.5757287986425473</v>
+        <v>0.3254855998302122</v>
       </c>
       <c r="C36">
-        <v>0.3708077207630109</v>
+        <v>0.3428113399695774</v>
       </c>
       <c r="D36">
-        <v>0.3651000148458514</v>
+        <v>0.5227349997298579</v>
       </c>
       <c r="E36">
-        <v>0.72168883892211</v>
+        <v>0.7253743886134558</v>
       </c>
       <c r="F36">
-        <v>0.8116127747852144</v>
+        <v>1.011375486210483</v>
       </c>
       <c r="G36">
-        <v>1.334844602425162</v>
+        <v>1.180566652262171</v>
       </c>
       <c r="H36">
-        <v>1.943605093218396</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1496,28 +1386,25 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.7180616588026321</v>
+        <v>0.1718761871179025</v>
       </c>
       <c r="C37">
-        <v>0.1357708126771575</v>
+        <v>0.1189948967720449</v>
       </c>
       <c r="D37">
-        <v>0.2125916027932445</v>
+        <v>0.6220269171149764</v>
       </c>
       <c r="E37">
-        <v>0.5678651679306973</v>
+        <v>0.732218403546221</v>
       </c>
       <c r="F37">
-        <v>0.836483840489839</v>
+        <v>0.9832408073627316</v>
       </c>
       <c r="G37">
-        <v>1.265471261366766</v>
+        <v>1.208701331109922</v>
       </c>
       <c r="H37">
-        <v>2.012978434276792</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1527,28 +1414,25 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.8547123205318193</v>
+        <v>0.4331580224487923</v>
       </c>
       <c r="C38">
-        <v>0.3369697688908177</v>
+        <v>0.3381139729738223</v>
       </c>
       <c r="D38">
-        <v>0.4208301039727709</v>
+        <v>0.8103533309948563</v>
       </c>
       <c r="E38">
-        <v>0.8273810318264364</v>
+        <v>0.6798295423703931</v>
       </c>
       <c r="F38">
-        <v>0.7817722647765283</v>
+        <v>1.191967977282061</v>
       </c>
       <c r="G38">
-        <v>1.522138954965989</v>
+        <v>0.9999741611905921</v>
       </c>
       <c r="H38">
-        <v>1.756310740677569</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1558,28 +1442,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.5338437393639561</v>
+        <v>0.3881353666333209</v>
       </c>
       <c r="C39">
-        <v>0.5522732679566851</v>
+        <v>0.5244775180511403</v>
       </c>
       <c r="D39">
-        <v>0.4245656502535997</v>
+        <v>0.4652198706826153</v>
       </c>
       <c r="E39">
-        <v>0.8328436775040299</v>
+        <v>0.3384668832453257</v>
       </c>
       <c r="F39">
-        <v>0.4031693995862545</v>
+        <v>0.8698937227641206</v>
       </c>
       <c r="G39">
-        <v>1.27531370566386</v>
+        <v>0.5590381061077203</v>
       </c>
       <c r="H39">
-        <v>2.879670288106988</v>
-      </c>
-      <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1589,28 +1470,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.5399291208471161</v>
+        <v>0.6165499290029342</v>
       </c>
       <c r="C40">
-        <v>0.6235000267772984</v>
+        <v>0.5917838434988236</v>
       </c>
       <c r="D40">
-        <v>0.6039897729517186</v>
+        <v>0.4970250097716574</v>
       </c>
       <c r="E40">
-        <v>0.8637017397716681</v>
+        <v>0.6706723250313723</v>
       </c>
       <c r="F40">
-        <v>0.7391645202732511</v>
+        <v>1.194645202677877</v>
       </c>
       <c r="G40">
-        <v>1.528863717953857</v>
+        <v>2.998960855395026</v>
       </c>
       <c r="H40">
-        <v>0.2238091678157101</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1620,28 +1498,25 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.6500416645141763</v>
+        <v>0.3598851123399027</v>
       </c>
       <c r="C41">
-        <v>0.5721552971746813</v>
+        <v>0.5700397517257323</v>
       </c>
       <c r="D41">
-        <v>0.3917613841416237</v>
+        <v>0.5764102687575259</v>
       </c>
       <c r="E41">
-        <v>0.7152533992757726</v>
+        <v>0.1449859048012774</v>
       </c>
       <c r="F41">
-        <v>0.2468067069652277</v>
+        <v>0.8987392965435567</v>
       </c>
       <c r="G41">
-        <v>1.214863699174742</v>
+        <v>0.5301925323282842</v>
       </c>
       <c r="H41">
-        <v>2.940120294596107</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1651,28 +1526,25 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.1972998354358164</v>
+        <v>0.2094332747614254</v>
       </c>
       <c r="C42">
-        <v>0.05408265376348905</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.2297467855409431</v>
+        <v>0.160086804495707</v>
       </c>
       <c r="E42">
-        <v>0.6436237678209403</v>
+        <v>0.7666640496759322</v>
       </c>
       <c r="F42">
-        <v>0.8525082667241565</v>
+        <v>0.8107181055190772</v>
       </c>
       <c r="G42">
-        <v>1.111601386875955</v>
+        <v>2.315020479937703</v>
       </c>
       <c r="H42">
-        <v>4.98531008840399</v>
-      </c>
-      <c r="I42">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1682,27 +1554,24 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.6340528341794309</v>
+        <v>0.2278261630942707</v>
       </c>
       <c r="C43">
-        <v>0.7681251727725705</v>
+        <v>0.7621153455433927</v>
       </c>
       <c r="D43">
-        <v>0.2432195668219638</v>
+        <v>0.5673158536285688</v>
       </c>
       <c r="E43">
-        <v>0.8023529700171999</v>
+        <v>0.4951880653990571</v>
       </c>
       <c r="F43">
-        <v>0.5824767370755485</v>
+        <v>1.095346090692323</v>
       </c>
       <c r="G43">
-        <v>1.426269425106113</v>
+        <v>0.333585738179518</v>
       </c>
       <c r="H43">
-        <v>0.3264034606634541</v>
-      </c>
-      <c r="I43">
         <v>1</v>
       </c>
     </row>
@@ -1713,27 +1582,24 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.6336111409634652</v>
+        <v>0.1872962744664455</v>
       </c>
       <c r="C44">
-        <v>0.8666146496272993</v>
+        <v>0.8203105905524946</v>
       </c>
       <c r="D44">
-        <v>0.2610609854226393</v>
+        <v>0.6066547968931867</v>
       </c>
       <c r="E44">
-        <v>0.6982424378917012</v>
+        <v>0.7721110755853329</v>
       </c>
       <c r="F44">
-        <v>0.829600118252624</v>
+        <v>1.29312602442169</v>
       </c>
       <c r="G44">
-        <v>1.548036086559104</v>
+        <v>0.1358058044501507</v>
       </c>
       <c r="H44">
-        <v>0.2046367992104639</v>
-      </c>
-      <c r="I44">
         <v>1</v>
       </c>
     </row>
@@ -1744,27 +1610,24 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.3186722500237375</v>
+        <v>0.1001986224450368</v>
       </c>
       <c r="C45">
-        <v>0.8479352932128857</v>
+        <v>0.8286406110356639</v>
       </c>
       <c r="D45">
-        <v>0.2115935634449341</v>
+        <v>0.2138877326135669</v>
       </c>
       <c r="E45">
-        <v>0.5141479563436152</v>
+        <v>0.7940009466759583</v>
       </c>
       <c r="F45">
-        <v>0.8372981255007639</v>
+        <v>1.171695562713426</v>
       </c>
       <c r="G45">
-        <v>1.353046330500899</v>
+        <v>0.2572362661584149</v>
       </c>
       <c r="H45">
-        <v>0.3996265552686684</v>
-      </c>
-      <c r="I45">
         <v>1</v>
       </c>
     </row>
@@ -1775,27 +1638,24 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.4418436952764199</v>
+        <v>0.07583478533531694</v>
       </c>
       <c r="C46">
-        <v>0.6007772847147948</v>
+        <v>0.4932814281612489</v>
       </c>
       <c r="D46">
-        <v>0.2468640989177554</v>
+        <v>0.3787489688518938</v>
       </c>
       <c r="E46">
-        <v>0.2905753603169244</v>
+        <v>0.7359843329707245</v>
       </c>
       <c r="F46">
-        <v>0.7818793991255172</v>
+        <v>0.9665408433275803</v>
       </c>
       <c r="G46">
-        <v>1.145805618339982</v>
+        <v>1.225401295145073</v>
       </c>
       <c r="H46">
-        <v>1.113446508108139</v>
-      </c>
-      <c r="I46">
         <v>2</v>
       </c>
     </row>
@@ -1806,27 +1666,24 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.60891834268664</v>
+        <v>0.2200003447285272</v>
       </c>
       <c r="C47">
-        <v>0.6823512630110518</v>
+        <v>0.6883821505657728</v>
       </c>
       <c r="D47">
-        <v>0.2277254237496606</v>
+        <v>0.5289738220817494</v>
       </c>
       <c r="E47">
-        <v>0.8628379499550337</v>
+        <v>0.6518040846426849</v>
       </c>
       <c r="F47">
-        <v>0.7238676474338373</v>
+        <v>1.107669628590986</v>
       </c>
       <c r="G47">
-        <v>1.468576644815989</v>
+        <v>0.3212622002808554</v>
       </c>
       <c r="H47">
-        <v>0.2840962409535783</v>
-      </c>
-      <c r="I47">
         <v>1</v>
       </c>
     </row>
@@ -1837,28 +1694,25 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.37861131910101</v>
+        <v>0.2585281817553575</v>
       </c>
       <c r="C48">
-        <v>0.5625551089870677</v>
+        <v>0.5631577185411767</v>
       </c>
       <c r="D48">
-        <v>0.2845704134901629</v>
+        <v>0.306283501082446</v>
       </c>
       <c r="E48">
-        <v>0.7908581704542588</v>
+        <v>0.4874167991773501</v>
       </c>
       <c r="F48">
-        <v>0.5565435984999353</v>
+        <v>0.8457943933781119</v>
       </c>
       <c r="G48">
-        <v>1.214904327360116</v>
+        <v>0.583137435493729</v>
       </c>
       <c r="H48">
-        <v>2.940079666410733</v>
-      </c>
-      <c r="I48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1868,28 +1722,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.688289852271547</v>
+        <v>0.1556867310881036</v>
       </c>
       <c r="C49">
-        <v>0.3458554017543872</v>
+        <v>0.2790936058521271</v>
       </c>
       <c r="D49">
-        <v>0.2411097793615139</v>
+        <v>0.6403103824621902</v>
       </c>
       <c r="E49">
-        <v>0.5477636883507305</v>
+        <v>0.7284510077444392</v>
       </c>
       <c r="F49">
-        <v>0.8080562225453717</v>
+        <v>1.021161033156479</v>
       </c>
       <c r="G49">
-        <v>1.26668572362537</v>
+        <v>1.170781105316175</v>
       </c>
       <c r="H49">
-        <v>2.011763972018188</v>
-      </c>
-      <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1899,28 +1750,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.6313681817846215</v>
+        <v>0.1410208475522975</v>
       </c>
       <c r="C50">
-        <v>0.0988420928643116</v>
+        <v>0.08842758321577901</v>
       </c>
       <c r="D50">
-        <v>0.1737817961866811</v>
+        <v>0.5482938101257687</v>
       </c>
       <c r="E50">
-        <v>0.7720892753132187</v>
+        <v>0.4294895401028141</v>
       </c>
       <c r="F50">
-        <v>0.4967155242778024</v>
+        <v>0.7160961417279883</v>
       </c>
       <c r="G50">
-        <v>1.132008751772683</v>
+        <v>1.475845996744665</v>
       </c>
       <c r="H50">
-        <v>3.022975241998165</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1930,27 +1778,24 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.6035109447449892</v>
+        <v>0.1279151208738922</v>
       </c>
       <c r="C51">
-        <v>0.1268595368016743</v>
+        <v>0.09039953928669239</v>
       </c>
       <c r="D51">
-        <v>0.1737984351049426</v>
+        <v>0.4680124494706774</v>
       </c>
       <c r="E51">
-        <v>0.6709097558625047</v>
+        <v>0.9273977410762925</v>
       </c>
       <c r="F51">
-        <v>0.9925188158154296</v>
+        <v>1.050541088137148</v>
       </c>
       <c r="G51">
-        <v>1.358579478281856</v>
+        <v>2.075197497319633</v>
       </c>
       <c r="H51">
-        <v>1.919870217361702</v>
-      </c>
-      <c r="I51">
         <v>3</v>
       </c>
     </row>
@@ -1961,27 +1806,24 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.6858185243648244</v>
+        <v>0.2653049105720428</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.3070269056756507</v>
+        <v>0.6301038663154741</v>
       </c>
       <c r="E52">
-        <v>0.791191316775821</v>
+        <v>0.6204110932783936</v>
       </c>
       <c r="F52">
-        <v>0.6956792869470303</v>
+        <v>1.361002388896596</v>
       </c>
       <c r="G52">
-        <v>1.635410021737453</v>
+        <v>0.06792943997524525</v>
       </c>
       <c r="H52">
-        <v>0.1172628640321147</v>
-      </c>
-      <c r="I52">
         <v>1</v>
       </c>
     </row>
@@ -1992,27 +1834,24 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.5010609834078437</v>
+        <v>0.2944621095291136</v>
       </c>
       <c r="C53">
-        <v>0.6810575068114317</v>
+        <v>0.6449819697982618</v>
       </c>
       <c r="D53">
-        <v>0.3246718871020455</v>
+        <v>0.4406566212803352</v>
       </c>
       <c r="E53">
-        <v>0.8211905141223074</v>
+        <v>0.448332055209423</v>
       </c>
       <c r="F53">
-        <v>0.5161140132149658</v>
+        <v>0.9475703482695559</v>
       </c>
       <c r="G53">
-        <v>1.327042126713979</v>
+        <v>0.481361480602285</v>
       </c>
       <c r="H53">
-        <v>0.4256307590555888</v>
-      </c>
-      <c r="I53">
         <v>1</v>
       </c>
     </row>
@@ -2023,28 +1862,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.3945064368586436</v>
+        <v>0.09900488846680774</v>
       </c>
       <c r="C54">
-        <v>0.2527365845109188</v>
+        <v>0.1411672103221323</v>
       </c>
       <c r="D54">
-        <v>0.2393317498566351</v>
+        <v>0.3376407884933096</v>
       </c>
       <c r="E54">
-        <v>0.6386548637200749</v>
+        <v>0.3543761523521577</v>
       </c>
       <c r="F54">
-        <v>0.3582905212529113</v>
+        <v>0.5189546305995946</v>
       </c>
       <c r="G54">
-        <v>0.901688931359134</v>
+        <v>1.672987507873059</v>
       </c>
       <c r="H54">
-        <v>3.253295062411715</v>
-      </c>
-      <c r="I54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2054,28 +1890,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.4396166844656941</v>
+        <v>0.7544005130978924</v>
       </c>
       <c r="C55">
-        <v>0.4945256703562327</v>
+        <v>0.4391623005247469</v>
       </c>
       <c r="D55">
-        <v>0.7284931039800875</v>
+        <v>0.3703606312810996</v>
       </c>
       <c r="E55">
-        <v>0.7564286925795887</v>
+        <v>0.7010233036191562</v>
       </c>
       <c r="F55">
-        <v>0.791695176724964</v>
+        <v>1.179230397244153</v>
       </c>
       <c r="G55">
-        <v>1.472238530352902</v>
+        <v>3.01437566082875</v>
       </c>
       <c r="H55">
-        <v>3.775585472446666</v>
-      </c>
-      <c r="I55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2085,28 +1918,25 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.447279196521686</v>
+        <v>0.06386010662272974</v>
       </c>
       <c r="C56">
-        <v>0.3042459969977338</v>
+        <v>0.1698109144396542</v>
       </c>
       <c r="D56">
-        <v>0.2396593857117934</v>
+        <v>0.37096260613713</v>
       </c>
       <c r="E56">
-        <v>0.2653278058288346</v>
+        <v>0.876986269368341</v>
       </c>
       <c r="F56">
-        <v>0.9295871961757034</v>
+        <v>0.9693461877437543</v>
       </c>
       <c r="G56">
-        <v>1.133398485674714</v>
+        <v>2.156392397713026</v>
       </c>
       <c r="H56">
-        <v>1.125853640773408</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2116,28 +1946,25 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.2098028311593161</v>
+        <v>0.2290355751787571</v>
       </c>
       <c r="C57">
-        <v>0.1667162449481845</v>
+        <v>0.1169103652550007</v>
       </c>
       <c r="D57">
-        <v>0.2895847636559054</v>
+        <v>0.1737744901816815</v>
       </c>
       <c r="E57">
-        <v>0.6742806621883101</v>
+        <v>0.6555991535643234</v>
       </c>
       <c r="F57">
-        <v>0.7105973535230931</v>
+        <v>0.7253503648538977</v>
       </c>
       <c r="G57">
-        <v>1.056065282010948</v>
+        <v>2.400388220602882</v>
       </c>
       <c r="H57">
-        <v>5.040846193268997</v>
-      </c>
-      <c r="I57">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2147,28 +1974,25 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.7002744456866195</v>
+        <v>0.7762877474018501</v>
       </c>
       <c r="C58">
-        <v>0.2930553084503704</v>
+        <v>0.2601937659311886</v>
       </c>
       <c r="D58">
-        <v>0.8463421024529133</v>
+        <v>0.6655929546771441</v>
       </c>
       <c r="E58">
-        <v>0.8024107832496989</v>
+        <v>0.7577996140419968</v>
       </c>
       <c r="F58">
-        <v>0.8324302328788236</v>
+        <v>1.29907570947722</v>
       </c>
       <c r="G58">
-        <v>1.621531321055239</v>
+        <v>2.894530348595683</v>
       </c>
       <c r="H58">
-        <v>3.626292681744328</v>
-      </c>
-      <c r="I58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2178,28 +2002,25 @@
         </is>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.3353520553007144</v>
       </c>
       <c r="C59">
-        <v>0.1999304895486649</v>
+        <v>0.2003848125313096</v>
       </c>
       <c r="D59">
-        <v>0.3345491399571588</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0.8145711244880213</v>
+        <v>0.7293480020193751</v>
       </c>
       <c r="F59">
-        <v>0.842514040121963</v>
+        <v>1.297907385808893</v>
       </c>
       <c r="G59">
-        <v>1.589103946363974</v>
+        <v>0.89403475266376</v>
       </c>
       <c r="H59">
-        <v>1.689345749279584</v>
-      </c>
-      <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2209,28 +2030,25 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.5901429985573439</v>
+        <v>0.0842109851340964</v>
       </c>
       <c r="C60">
-        <v>0.341958562845432</v>
+        <v>0.3356277724281652</v>
       </c>
       <c r="D60">
-        <v>0.06471226696620698</v>
+        <v>0.461844976699692</v>
       </c>
       <c r="E60">
-        <v>0.6869463127422675</v>
+        <v>0.802676134049089</v>
       </c>
       <c r="F60">
-        <v>0.9234173332856104</v>
+        <v>0.9885986295342906</v>
       </c>
       <c r="G60">
-        <v>1.339397962872864</v>
+        <v>1.203343508938363</v>
       </c>
       <c r="H60">
-        <v>1.939051732770694</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2240,27 +2058,24 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.5772673814798602</v>
+        <v>0.4448391708457908</v>
       </c>
       <c r="C61">
-        <v>0.6772759319874415</v>
+        <v>0.6642449594055807</v>
       </c>
       <c r="D61">
-        <v>0.4684309742814957</v>
+        <v>0.5256270198400019</v>
       </c>
       <c r="E61">
-        <v>0.8215401536009749</v>
+        <v>0.6466505700697275</v>
       </c>
       <c r="F61">
-        <v>0.7135554902004173</v>
+        <v>1.154791746494526</v>
       </c>
       <c r="G61">
-        <v>1.481707648967992</v>
+        <v>0.274140082377315</v>
       </c>
       <c r="H61">
-        <v>0.2709652368015754</v>
-      </c>
-      <c r="I61">
         <v>1</v>
       </c>
     </row>
@@ -2271,28 +2086,25 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.6338668411013515</v>
+        <v>0.0985131913320273</v>
       </c>
       <c r="C62">
-        <v>0.1622218415814493</v>
+        <v>0.1012977305329977</v>
       </c>
       <c r="D62">
-        <v>0.1840981284328134</v>
+        <v>0.5334797745990463</v>
       </c>
       <c r="E62">
-        <v>0.4264549517625205</v>
+        <v>0.7674844999048458</v>
       </c>
       <c r="F62">
-        <v>0.8592422935056725</v>
+        <v>0.945303764182708</v>
       </c>
       <c r="G62">
-        <v>1.175651463597103</v>
+        <v>1.246638374289945</v>
       </c>
       <c r="H62">
-        <v>2.102798232046455</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2302,28 +2114,25 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.6087661747713156</v>
+        <v>0.1462564355275004</v>
       </c>
       <c r="C63">
-        <v>0.1720202681881352</v>
+        <v>0.1504392445985553</v>
       </c>
       <c r="D63">
-        <v>0.1978787754340567</v>
+        <v>0.5113547285254125</v>
       </c>
       <c r="E63">
-        <v>0.5692621070122395</v>
+        <v>0.6542905889687367</v>
       </c>
       <c r="F63">
-        <v>0.743105396328717</v>
+        <v>0.8565061263335765</v>
       </c>
       <c r="G63">
-        <v>1.146999657590783</v>
+        <v>1.335436012139077</v>
       </c>
       <c r="H63">
-        <v>2.131450038052774</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2333,27 +2142,24 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.5584462601254668</v>
+        <v>0.3142369401344713</v>
       </c>
       <c r="C64">
-        <v>0.6294218206540364</v>
+        <v>0.5794893348065207</v>
       </c>
       <c r="D64">
-        <v>0.3559834090256132</v>
+        <v>0.5053245786536613</v>
       </c>
       <c r="E64">
-        <v>0.8363617402967368</v>
+        <v>0.8554937156250626</v>
       </c>
       <c r="F64">
-        <v>0.8976269192919352</v>
+        <v>1.192382141330981</v>
       </c>
       <c r="G64">
-        <v>1.529703660234484</v>
+        <v>0.2365496875408601</v>
       </c>
       <c r="H64">
-        <v>0.2229692255350839</v>
-      </c>
-      <c r="I64">
         <v>1</v>
       </c>
     </row>
@@ -2364,28 +2170,25 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.5396240879998515</v>
+        <v>0.3244295138295088</v>
       </c>
       <c r="C65">
-        <v>0.2508183647435789</v>
+        <v>0.1608483030977287</v>
       </c>
       <c r="D65">
-        <v>0.4064952944151784</v>
+        <v>0.5045726125466946</v>
       </c>
       <c r="E65">
-        <v>0.6707372462739477</v>
+        <v>0.7909793974115469</v>
       </c>
       <c r="F65">
-        <v>0.8239675854004211</v>
+        <v>1.005668242769354</v>
       </c>
       <c r="G65">
-        <v>1.283804295114234</v>
+        <v>1.186273895703299</v>
       </c>
       <c r="H65">
-        <v>1.994645400529324</v>
-      </c>
-      <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2395,27 +2198,24 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.5939467945093785</v>
+        <v>0.2982105918733531</v>
       </c>
       <c r="C66">
-        <v>0.6189739522441152</v>
+        <v>0.5881455217554527</v>
       </c>
       <c r="D66">
-        <v>0.3309825651248808</v>
+        <v>0.5475427514091246</v>
       </c>
       <c r="E66">
-        <v>0.8487130754932576</v>
+        <v>0.5150633651627199</v>
       </c>
       <c r="F66">
-        <v>0.5784502932317902</v>
+        <v>0.9999690228301419</v>
       </c>
       <c r="G66">
-        <v>1.378538948646167</v>
+        <v>0.428962806041699</v>
       </c>
       <c r="H66">
-        <v>0.3741339371234003</v>
-      </c>
-      <c r="I66">
         <v>1</v>
       </c>
     </row>
@@ -2426,28 +2226,25 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.2234959237322641</v>
+        <v>0.1491204970382798</v>
       </c>
       <c r="C67">
-        <v>0.1407472887501553</v>
+        <v>0.02266967607619866</v>
       </c>
       <c r="D67">
-        <v>0.3026096809731778</v>
+        <v>0.1846245919626451</v>
       </c>
       <c r="E67">
-        <v>0.4015004971062978</v>
+        <v>0.7977224694206493</v>
       </c>
       <c r="F67">
-        <v>0.8382292266573327</v>
+        <v>0.8325852599141396</v>
       </c>
       <c r="G67">
-        <v>1.012503694725753</v>
+        <v>2.293153325542641</v>
       </c>
       <c r="H67">
-        <v>5.084407780554193</v>
-      </c>
-      <c r="I67">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2457,27 +2254,24 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.5904286923167069</v>
+        <v>0.09667117257432058</v>
       </c>
       <c r="C68">
-        <v>0.1156342571546296</v>
+        <v>0.07516207480259018</v>
       </c>
       <c r="D68">
-        <v>0.1462530108672042</v>
+        <v>0.4690974724871225</v>
       </c>
       <c r="E68">
-        <v>0.7157052003441938</v>
+        <v>0.9354962247066204</v>
       </c>
       <c r="F68">
-        <v>0.9840511353552579</v>
+        <v>1.053660418839804</v>
       </c>
       <c r="G68">
-        <v>1.36526841174911</v>
+        <v>2.072078166616977</v>
       </c>
       <c r="H68">
-        <v>1.913181283894448</v>
-      </c>
-      <c r="I68">
         <v>3</v>
       </c>
     </row>
@@ -2488,28 +2282,25 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.5519904708975167</v>
+        <v>0.4077225216752498</v>
       </c>
       <c r="C69">
-        <v>0.612671199455001</v>
+        <v>0.5880589127294953</v>
       </c>
       <c r="D69">
-        <v>0.4644306206438028</v>
+        <v>0.4718612451895826</v>
       </c>
       <c r="E69">
-        <v>0.7391119731688141</v>
+        <v>0.3620612216338534</v>
       </c>
       <c r="F69">
-        <v>0.432384886364659</v>
+        <v>0.9304796088279863</v>
       </c>
       <c r="G69">
-        <v>1.276322247253003</v>
+        <v>0.4984522200438546</v>
       </c>
       <c r="H69">
-        <v>2.878661746517845</v>
-      </c>
-      <c r="I69">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2519,27 +2310,24 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.4181535786264842</v>
+        <v>0.1050588396917773</v>
       </c>
       <c r="C70">
-        <v>0.5778687218707602</v>
+        <v>0.5296662931098189</v>
       </c>
       <c r="D70">
-        <v>0.253432668131202</v>
+        <v>0.3094965426914523</v>
       </c>
       <c r="E70">
-        <v>0.2473798633876208</v>
+        <v>0.6600848129453821</v>
       </c>
       <c r="F70">
-        <v>0.7329985918680061</v>
+        <v>0.9072396662807361</v>
       </c>
       <c r="G70">
-        <v>1.082356930407405</v>
+        <v>1.284702472191917</v>
       </c>
       <c r="H70">
-        <v>1.176895196040717</v>
-      </c>
-      <c r="I70">
         <v>2</v>
       </c>
     </row>
@@ -2550,27 +2338,24 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.4145861499041938</v>
+        <v>0.1880200836596494</v>
       </c>
       <c r="C71">
-        <v>0.3150781466484709</v>
+        <v>0.2862844655105316</v>
       </c>
       <c r="D71">
-        <v>0.209585219053728</v>
+        <v>0.3121605258723844</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>1.102159036149029</v>
       </c>
       <c r="G71">
-        <v>1.521539312089444</v>
+        <v>2.023579549307752</v>
       </c>
       <c r="H71">
-        <v>1.756910383554114</v>
-      </c>
-      <c r="I71">
         <v>3</v>
       </c>
     </row>
@@ -2581,27 +2366,24 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.2538015647857727</v>
+        <v>0.1272200659555243</v>
       </c>
       <c r="C72">
-        <v>0.2629541952861546</v>
+        <v>0.1584415216208676</v>
       </c>
       <c r="D72">
-        <v>0.2219240806717628</v>
+        <v>0.2077332483630588</v>
       </c>
       <c r="E72">
-        <v>0.9442884213196895</v>
+        <v>0.9329828431045194</v>
       </c>
       <c r="F72">
-        <v>0.8879297461420074</v>
+        <v>0.9771892083717074</v>
       </c>
       <c r="G72">
-        <v>1.36488471945822</v>
+        <v>2.148549377085073</v>
       </c>
       <c r="H72">
-        <v>1.913564976185338</v>
-      </c>
-      <c r="I72">
         <v>3</v>
       </c>
     </row>
@@ -2612,27 +2394,24 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.5785969477081231</v>
+        <v>0.2705078343189306</v>
       </c>
       <c r="C73">
-        <v>0.6446827425156523</v>
+        <v>0.6463860990018575</v>
       </c>
       <c r="D73">
-        <v>0.292393732879681</v>
+        <v>0.4831055817020484</v>
       </c>
       <c r="E73">
-        <v>0.7811215687785382</v>
+        <v>0.5321740373612333</v>
       </c>
       <c r="F73">
-        <v>0.6112496241668786</v>
+        <v>1.003787670039729</v>
       </c>
       <c r="G73">
-        <v>1.348948245737089</v>
+        <v>0.4251441588321123</v>
       </c>
       <c r="H73">
-        <v>0.403724640032479</v>
-      </c>
-      <c r="I73">
         <v>1</v>
       </c>
     </row>
@@ -2643,28 +2422,25 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.5398306856661524</v>
+        <v>0.2759124078414481</v>
       </c>
       <c r="C74">
-        <v>0.6226410830223799</v>
+        <v>0.6091250340679029</v>
       </c>
       <c r="D74">
-        <v>0.3354448521351234</v>
+        <v>0.4408182529293304</v>
       </c>
       <c r="E74">
-        <v>0.6623027592148884</v>
+        <v>0.483665868674321</v>
       </c>
       <c r="F74">
-        <v>0.5586758836765609</v>
+        <v>0.935635809792059</v>
       </c>
       <c r="G74">
-        <v>1.241928349037683</v>
+        <v>0.4932960190797819</v>
       </c>
       <c r="H74">
-        <v>2.913055644733165</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Spring_Dist</t>
+          <t>well</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Well</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Piped_Yard_Tap</t>
+          <t>sprg</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Piped_Home</t>
+          <t>pipy</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -406,22 +406,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3301026324782411</v>
+        <v>0.7024974479537011</v>
       </c>
       <c r="C2">
-        <v>0.6011028806334483</v>
+        <v>0.9617149287398467</v>
       </c>
       <c r="D2">
-        <v>0.4301594088733358</v>
+        <v>0.2421066633242847</v>
       </c>
       <c r="E2">
-        <v>0.6498169611969592</v>
+        <v>0.08956578771630037</v>
       </c>
       <c r="F2">
-        <v>1.03807110603099</v>
+        <v>1.218620505037483</v>
       </c>
       <c r="G2">
-        <v>0.3908607228408512</v>
+        <v>0.3740271666424664</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2023686208553027</v>
+        <v>0.4380324187370142</v>
       </c>
       <c r="C3">
-        <v>0.2777357682949861</v>
+        <v>0.4449251533933707</v>
       </c>
       <c r="D3">
-        <v>0.3322684967206326</v>
+        <v>0.1953102390897842</v>
       </c>
       <c r="E3">
-        <v>0.5996713172868109</v>
+        <v>0.1401042521876995</v>
       </c>
       <c r="F3">
-        <v>0.7668756472771655</v>
+        <v>0.6690336934423382</v>
       </c>
       <c r="G3">
-        <v>1.425066491195488</v>
+        <v>1.413221097869181</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3745132704338859</v>
+        <v>0.7083498425436027</v>
       </c>
       <c r="C4">
-        <v>0.6519004068346094</v>
+        <v>0.9275834185088152</v>
       </c>
       <c r="D4">
-        <v>0.4579437249363378</v>
+        <v>0.2864212843622933</v>
       </c>
       <c r="E4">
-        <v>0.7650362669863743</v>
+        <v>0.1829445885849366</v>
       </c>
       <c r="F4">
-        <v>1.166287818325832</v>
+        <v>1.215597125840755</v>
       </c>
       <c r="G4">
-        <v>0.2626440105460086</v>
+        <v>0.3770505458391951</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5071797222520986</v>
       </c>
       <c r="C5">
-        <v>0.03179103204839025</v>
+        <v>0.01066961593624452</v>
       </c>
       <c r="D5">
-        <v>0.3635339227366345</v>
+        <v>0.1467396642164856</v>
       </c>
       <c r="E5">
-        <v>0.8450433456689586</v>
+        <v>0.2159359059279223</v>
       </c>
       <c r="F5">
-        <v>0.92047044426118</v>
+        <v>0.5705312926485473</v>
       </c>
       <c r="G5">
-        <v>2.2052681411956</v>
+        <v>1.511723498662972</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.171164950739965</v>
+        <v>0.5470284610680847</v>
       </c>
       <c r="C6">
-        <v>0.23385009651925</v>
+        <v>0.5788512355257476</v>
       </c>
       <c r="D6">
-        <v>0.4104450956588311</v>
+        <v>0.2459213097564157</v>
       </c>
       <c r="E6">
-        <v>0.6323821960073675</v>
+        <v>0.3918882284320747</v>
       </c>
       <c r="F6">
-        <v>0.8076854130051903</v>
+        <v>0.921065993435944</v>
       </c>
       <c r="G6">
-        <v>1.384256725467463</v>
+        <v>2.283517403668786</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +546,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.05283777878988627</v>
+        <v>0.5226565406421679</v>
       </c>
       <c r="C7">
-        <v>0.1000038869768483</v>
+        <v>0.9532771500235164</v>
       </c>
       <c r="D7">
-        <v>0.3018868268455396</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0548652792203839</v>
       </c>
       <c r="F7">
-        <v>0.3223790695761684</v>
+        <v>1.088539104992065</v>
       </c>
       <c r="G7">
-        <v>1.869563068896485</v>
+        <v>3.028601348023218</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -574,22 +574,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.2261475967129348</v>
+        <v>0.7975089200143064</v>
       </c>
       <c r="C8">
-        <v>0.6088815393195453</v>
+        <v>0.9441812385609787</v>
       </c>
       <c r="D8">
-        <v>0.4949832013086082</v>
+        <v>0.1007168560151636</v>
       </c>
       <c r="E8">
-        <v>0.5560220174960099</v>
+        <v>0.06721880506175314</v>
       </c>
       <c r="F8">
-        <v>0.9879515767188321</v>
+        <v>1.241837727560424</v>
       </c>
       <c r="G8">
-        <v>0.4409802521530088</v>
+        <v>0.3508099441195256</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -602,25 +602,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.03386179997977935</v>
+        <v>0.5679599137357974</v>
       </c>
       <c r="C9">
-        <v>0.1107349983824677</v>
+        <v>0.627378667490726</v>
       </c>
       <c r="D9">
-        <v>0.5163633588361585</v>
+        <v>0.1110038359160378</v>
       </c>
       <c r="E9">
-        <v>0.7140026564830567</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.8887293025314609</v>
+        <v>1.314725943921884</v>
       </c>
       <c r="G9">
-        <v>1.303212835941193</v>
+        <v>1.889857453182846</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -630,22 +630,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.289182512910864</v>
+        <v>0.887533573695541</v>
       </c>
       <c r="C10">
-        <v>0.6818255349856556</v>
+        <v>0.9622535693458847</v>
       </c>
       <c r="D10">
-        <v>0.5903346370146425</v>
+        <v>0.1416151726489518</v>
       </c>
       <c r="E10">
-        <v>0.3599127492239455</v>
+        <v>0.1615490237008306</v>
       </c>
       <c r="F10">
-        <v>1.013185450273081</v>
+        <v>1.326574807667761</v>
       </c>
       <c r="G10">
-        <v>0.4157463785987599</v>
+        <v>0.2660728640121886</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.8562516591020831</v>
+        <v>0.7611420433948266</v>
       </c>
       <c r="C11">
-        <v>0.24845764104367</v>
+        <v>0.9241133206438176</v>
       </c>
       <c r="D11">
-        <v>0.6386042567360687</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.764941524208031</v>
+        <v>0.1415428655083422</v>
       </c>
       <c r="F11">
-        <v>1.337104721137125</v>
+        <v>1.566319578627206</v>
       </c>
       <c r="G11">
-        <v>2.856501336935779</v>
+        <v>3.626092011570245</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -686,25 +686,25 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2056692847191466</v>
+        <v>0.4449376503012907</v>
       </c>
       <c r="C12">
-        <v>0.4384933306689822</v>
+        <v>0.893039324509623</v>
       </c>
       <c r="D12">
-        <v>0.2141635315047961</v>
+        <v>0.09360032152317015</v>
       </c>
       <c r="E12">
-        <v>0.4254404654110284</v>
+        <v>0.04007628670482418</v>
       </c>
       <c r="F12">
-        <v>0.6792951225747327</v>
+        <v>1.002923664453844</v>
       </c>
       <c r="G12">
-        <v>0.7496367062971082</v>
+        <v>3.114216788561441</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -714,22 +714,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.3883821749011942</v>
+        <v>0.7406456979189311</v>
       </c>
       <c r="C13">
-        <v>0.452326508622745</v>
+        <v>0.8927569944416186</v>
       </c>
       <c r="D13">
-        <v>0.4887501316244985</v>
+        <v>0.2539969222170652</v>
       </c>
       <c r="E13">
-        <v>0.4867584891838891</v>
+        <v>0.131042867075585</v>
       </c>
       <c r="F13">
-        <v>0.9117294018179796</v>
+        <v>1.194678940333923</v>
       </c>
       <c r="G13">
-        <v>0.5172024270538613</v>
+        <v>0.3979687313460272</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.2978960509025257</v>
+        <v>0.9539108361645862</v>
       </c>
       <c r="C14">
-        <v>0.9456322417326022</v>
+        <v>0.9811629882820118</v>
       </c>
       <c r="D14">
-        <v>0.4975580771901655</v>
+        <v>0.08770802404751724</v>
       </c>
       <c r="E14">
-        <v>0.4030218862189334</v>
+        <v>0.03413917265265048</v>
       </c>
       <c r="F14">
-        <v>1.180234330417561</v>
+        <v>1.371672290861937</v>
       </c>
       <c r="G14">
-        <v>0.24869749845428</v>
+        <v>0.2209753808180128</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -770,25 +770,25 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.01011410332953179</v>
+        <v>0.4702420873216543</v>
       </c>
       <c r="C15">
-        <v>0.08131038598568167</v>
+        <v>0.1064918880968133</v>
       </c>
       <c r="D15">
-        <v>0.2920887362425406</v>
+        <v>0.1440430247782729</v>
       </c>
       <c r="E15">
-        <v>0.8619539234444267</v>
+        <v>0.06618959109145901</v>
       </c>
       <c r="F15">
-        <v>0.9137800993326053</v>
+        <v>0.5075407351880036</v>
       </c>
       <c r="G15">
-        <v>2.211958486124175</v>
+        <v>1.574714056123516</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -798,25 +798,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.1728062469694915</v>
+        <v>0.5697501407067103</v>
       </c>
       <c r="C16">
-        <v>0.1953971575719869</v>
+        <v>0.7916708535445224</v>
       </c>
       <c r="D16">
-        <v>0.5737804577256376</v>
+        <v>0.2532019833502887</v>
       </c>
       <c r="E16">
-        <v>0.7949831727565437</v>
+        <v>0.4578792309159927</v>
       </c>
       <c r="F16">
-        <v>1.014526641746187</v>
+        <v>1.106852563652436</v>
       </c>
       <c r="G16">
-        <v>1.177415496726467</v>
+        <v>3.010287889362848</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.3674435410126524</v>
+        <v>0.7601045795857193</v>
       </c>
       <c r="C17">
-        <v>0.3404960364434364</v>
+        <v>0.9082999877589411</v>
       </c>
       <c r="D17">
-        <v>0.6345579063202654</v>
+        <v>0.3645552567075457</v>
       </c>
       <c r="E17">
-        <v>0.6808636481627547</v>
+        <v>0.4084915881521348</v>
       </c>
       <c r="F17">
-        <v>1.056972729321178</v>
+        <v>1.30481176897445</v>
       </c>
       <c r="G17">
-        <v>1.134969409151475</v>
+        <v>1.89977162813028</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -854,25 +854,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.8196179283043439</v>
       </c>
       <c r="C18">
-        <v>0.4476549628751105</v>
+        <v>0.9404104685040327</v>
       </c>
       <c r="D18">
-        <v>0.4645593470500635</v>
+        <v>0.8155339567029301</v>
       </c>
       <c r="E18">
-        <v>0.7031139675738407</v>
+        <v>0.1354777754659318</v>
       </c>
       <c r="F18">
-        <v>1.382237173612302</v>
+        <v>1.496527734407422</v>
       </c>
       <c r="G18">
-        <v>2.811368884460601</v>
+        <v>3.695883855790028</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.2314014398510715</v>
+        <v>0.7882664919803915</v>
       </c>
       <c r="C19">
-        <v>0.5689011374449776</v>
+        <v>0.8433731967924895</v>
       </c>
       <c r="D19">
-        <v>0.5625172962397955</v>
+        <v>0.1449864067929873</v>
       </c>
       <c r="E19">
-        <v>0.6326975262493664</v>
+        <v>0.3679676431835934</v>
       </c>
       <c r="F19">
-        <v>1.045909651376416</v>
+        <v>1.220271959864638</v>
       </c>
       <c r="G19">
-        <v>0.383022177495425</v>
+        <v>0.3723757118153115</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -910,25 +910,25 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.2591072608303278</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1408369038213745</v>
+        <v>0.9254834961463976</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.1937623900175984</v>
       </c>
       <c r="E20">
-        <v>0.7410425772463075</v>
+        <v>0.1476664681754715</v>
       </c>
       <c r="F20">
-        <v>0.7975686223672771</v>
+        <v>0.9570104237928176</v>
       </c>
       <c r="G20">
-        <v>2.328169963089503</v>
+        <v>3.160130029222466</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -938,25 +938,25 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.01603324335212698</v>
+        <v>0.5171015223772517</v>
       </c>
       <c r="C21">
-        <v>0.07263120562842093</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3639701249673358</v>
+        <v>0.1485222242239442</v>
       </c>
       <c r="E21">
-        <v>0.848403666487265</v>
+        <v>0.07942309328473811</v>
       </c>
       <c r="F21">
-        <v>0.9261724408020349</v>
+        <v>0.5438390049272074</v>
       </c>
       <c r="G21">
-        <v>2.199566144654745</v>
+        <v>1.538415786384312</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.236350836990546</v>
+        <v>0.8483845555306491</v>
       </c>
       <c r="C22">
-        <v>0.845226369996683</v>
+        <v>0.8209304924840434</v>
       </c>
       <c r="D22">
-        <v>0.548991514508833</v>
+        <v>0.2126847859897857</v>
       </c>
       <c r="E22">
-        <v>0.8232197142223527</v>
+        <v>0.0049827261400089</v>
       </c>
       <c r="F22">
-        <v>1.322630604352907</v>
+        <v>1.199559449674896</v>
       </c>
       <c r="G22">
-        <v>0.1063012245189341</v>
+        <v>0.3930882220050542</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.2807890639432907</v>
+        <v>0.7789286365485432</v>
       </c>
       <c r="C23">
-        <v>0.4252360939430628</v>
+        <v>0.7665376235029972</v>
       </c>
       <c r="D23">
-        <v>0.5885175665296136</v>
+        <v>0.2473977387896559</v>
       </c>
       <c r="E23">
-        <v>0.6600094018958611</v>
+        <v>0.3985842260930366</v>
       </c>
       <c r="F23">
-        <v>1.020604512397909</v>
+        <v>1.189279099088778</v>
       </c>
       <c r="G23">
-        <v>1.171337626074745</v>
+        <v>0.403368572591172</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1022,25 +1022,25 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.6759842426180606</v>
+        <v>0.8004173422984378</v>
       </c>
       <c r="C24">
-        <v>0.4067532560039821</v>
+        <v>0.9411960117001055</v>
       </c>
       <c r="D24">
-        <v>0.5563790460046527</v>
+        <v>0.5760377486148305</v>
       </c>
       <c r="E24">
-        <v>0.6376612158801445</v>
+        <v>0.2628785901249486</v>
       </c>
       <c r="F24">
-        <v>1.156966886565275</v>
+        <v>1.388323627713511</v>
       </c>
       <c r="G24">
-        <v>3.036639171507628</v>
+        <v>3.80408796248394</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1050,25 +1050,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.1556270398347348</v>
+        <v>0.6463298890658563</v>
       </c>
       <c r="C25">
-        <v>0.1315775084201037</v>
+        <v>0.6418634433060165</v>
       </c>
       <c r="D25">
-        <v>0.6331463548921003</v>
+        <v>0.2421220873644614</v>
       </c>
       <c r="E25">
-        <v>0.7636286451485556</v>
+        <v>0.7216153697042026</v>
       </c>
       <c r="F25">
-        <v>1.012687232394255</v>
+        <v>1.187047957049586</v>
       </c>
       <c r="G25">
-        <v>1.179254906078398</v>
+        <v>2.017535440055144</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1078,25 +1078,25 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.203904772412834</v>
+        <v>0.7800668166523466</v>
       </c>
       <c r="C26">
-        <v>0.3238133361257333</v>
+        <v>0.8931583348326971</v>
       </c>
       <c r="D26">
-        <v>0.7835417286375226</v>
+        <v>0.1664918407444261</v>
       </c>
       <c r="E26">
-        <v>0.6108187337819763</v>
+        <v>0.6908375231193936</v>
       </c>
       <c r="F26">
-        <v>1.064645198608861</v>
+        <v>1.382465936617408</v>
       </c>
       <c r="G26">
-        <v>1.127296939863793</v>
+        <v>1.822117460487322</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1106,25 +1106,25 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.2660281701285499</v>
+        <v>0.6536732606173207</v>
       </c>
       <c r="C27">
-        <v>0.299059373145779</v>
+        <v>0.9569605546940042</v>
       </c>
       <c r="D27">
-        <v>0.5040227708054446</v>
+        <v>0.1839316742993877</v>
       </c>
       <c r="E27">
-        <v>0.8481278820300008</v>
+        <v>0.1004508245056361</v>
       </c>
       <c r="F27">
-        <v>1.064691201116729</v>
+        <v>1.177702621140317</v>
       </c>
       <c r="G27">
-        <v>1.127250937355924</v>
+        <v>0.4149450505396324</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1134,25 +1134,25 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.1534340972302506</v>
+        <v>0.3362214345367779</v>
       </c>
       <c r="C28">
-        <v>0.01031635394423281</v>
+        <v>0.7102751499704355</v>
       </c>
       <c r="D28">
-        <v>0.3036556630080568</v>
+        <v>0.1874413504476867</v>
       </c>
       <c r="E28">
-        <v>0.8038365954171426</v>
+        <v>0.5927489774187021</v>
       </c>
       <c r="F28">
-        <v>0.8729309727351013</v>
+        <v>1.00200860864369</v>
       </c>
       <c r="G28">
-        <v>2.252807612721679</v>
+        <v>3.115131844371594</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.4024256920663447</v>
+        <v>0.7359954685447284</v>
       </c>
       <c r="C29">
-        <v>0.4916660398871648</v>
+        <v>0.9054842848221797</v>
       </c>
       <c r="D29">
-        <v>0.3954592929816316</v>
+        <v>0.2517875689269201</v>
       </c>
       <c r="E29">
-        <v>0.4028928122784831</v>
+        <v>0.09133933035368828</v>
       </c>
       <c r="F29">
-        <v>0.849936822948977</v>
+        <v>1.197218013944786</v>
       </c>
       <c r="G29">
-        <v>0.5789950059228639</v>
+        <v>0.3954296577351639</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1190,25 +1190,25 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.1767531920959871</v>
+        <v>0.2178838629506577</v>
       </c>
       <c r="C30">
-        <v>0.03211143535795882</v>
+        <v>0.7989229786138886</v>
       </c>
       <c r="D30">
-        <v>0.2337211273088025</v>
+        <v>0.1729803776958478</v>
       </c>
       <c r="E30">
-        <v>0.7489953248028083</v>
+        <v>0.3611162788290023</v>
       </c>
       <c r="F30">
-        <v>0.8049176337513243</v>
+        <v>0.919825245030105</v>
       </c>
       <c r="G30">
-        <v>2.320820951705456</v>
+        <v>3.197315207985179</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1218,25 +1218,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.7245817323867252</v>
+        <v>0.7849863766213546</v>
       </c>
       <c r="C31">
-        <v>0.458953180404373</v>
+        <v>0.961538449365923</v>
       </c>
       <c r="D31">
-        <v>0.5748275278240957</v>
+        <v>0.5196703643955527</v>
       </c>
       <c r="E31">
-        <v>0.8828097229365592</v>
+        <v>0.05897880098726113</v>
       </c>
       <c r="F31">
-        <v>1.358468403153906</v>
+        <v>1.346957901230417</v>
       </c>
       <c r="G31">
-        <v>2.835137654918997</v>
+        <v>3.845453688967035</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1246,25 +1246,25 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.129571638972332</v>
+        <v>0.3093806850808903</v>
       </c>
       <c r="C32">
-        <v>0.08299944111439274</v>
+        <v>0.5124043671641231</v>
       </c>
       <c r="D32">
-        <v>0.1909002432564171</v>
+        <v>0.1835383868074372</v>
       </c>
       <c r="E32">
-        <v>0.7701374064971955</v>
+        <v>0.1596689159153606</v>
       </c>
       <c r="F32">
-        <v>0.8082278420178704</v>
+        <v>0.6461076891133933</v>
       </c>
       <c r="G32">
-        <v>2.31751074343891</v>
+        <v>1.436147102198126</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1274,25 +1274,25 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.1249605736198036</v>
+        <v>0.6134449196964198</v>
       </c>
       <c r="C33">
-        <v>0.2101193970524475</v>
+        <v>0.7943222618258725</v>
       </c>
       <c r="D33">
-        <v>0.495718222668913</v>
+        <v>0.1010327212586594</v>
       </c>
       <c r="E33">
-        <v>0.3961354014248406</v>
+        <v>0.2554201883949887</v>
       </c>
       <c r="F33">
-        <v>0.6800184692529462</v>
+        <v>1.040533328893495</v>
       </c>
       <c r="G33">
-        <v>1.511923669219707</v>
+        <v>3.076607124121789</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1302,25 +1302,25 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.1959336838489023</v>
+        <v>0.2871204672375908</v>
       </c>
       <c r="C34">
-        <v>0.2386276274188597</v>
+        <v>0.902072253393146</v>
       </c>
       <c r="D34">
-        <v>0.1135537857343022</v>
+        <v>0.230188538532477</v>
       </c>
       <c r="E34">
-        <v>0.6867386951410494</v>
+        <v>0.04196241288684733</v>
       </c>
       <c r="F34">
-        <v>0.7614707155845054</v>
+        <v>0.9751513320585296</v>
       </c>
       <c r="G34">
-        <v>2.364267869872275</v>
+        <v>3.141989120956755</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1330,25 +1330,25 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.08642884028875079</v>
+        <v>0.2556374009566448</v>
       </c>
       <c r="C35">
-        <v>0.02048330573016863</v>
+        <v>0.3584303541910978</v>
       </c>
       <c r="D35">
-        <v>0.1671338817164624</v>
+        <v>0.1629586743319662</v>
       </c>
       <c r="E35">
-        <v>0.7966155527326994</v>
+        <v>0.07558542142020618</v>
       </c>
       <c r="F35">
-        <v>0.8187915385008143</v>
+        <v>0.4754907833436167</v>
       </c>
       <c r="G35">
-        <v>2.306947046955966</v>
+        <v>1.606764007967903</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1358,25 +1358,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.3254855998302122</v>
+        <v>0.660445627656624</v>
       </c>
       <c r="C36">
-        <v>0.3428113399695774</v>
+        <v>0.8487200127420685</v>
       </c>
       <c r="D36">
-        <v>0.5227349997298579</v>
+        <v>0.3429435107141538</v>
       </c>
       <c r="E36">
-        <v>0.7253743886134558</v>
+        <v>0.2703385491499261</v>
       </c>
       <c r="F36">
-        <v>1.011375486210483</v>
+        <v>1.160692581960049</v>
       </c>
       <c r="G36">
-        <v>1.180566652262171</v>
+        <v>2.956447871055235</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1386,25 +1386,25 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.1718761871179025</v>
+        <v>0.6508023451130059</v>
       </c>
       <c r="C37">
-        <v>0.1189948967720449</v>
+        <v>0.5975178076004755</v>
       </c>
       <c r="D37">
-        <v>0.6220269171149764</v>
+        <v>0.2318812730460454</v>
       </c>
       <c r="E37">
-        <v>0.732218403546221</v>
+        <v>0.5798152488482185</v>
       </c>
       <c r="F37">
-        <v>0.9832408073627316</v>
+        <v>1.081908439005188</v>
       </c>
       <c r="G37">
-        <v>1.208701331109922</v>
+        <v>2.122674958099542</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1414,25 +1414,25 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.4331580224487923</v>
+        <v>0.8380132988592081</v>
       </c>
       <c r="C38">
-        <v>0.3381139729738223</v>
+        <v>0.9152036470050949</v>
       </c>
       <c r="D38">
-        <v>0.8103533309948563</v>
+        <v>0.3666544830133555</v>
       </c>
       <c r="E38">
-        <v>0.6798295423703931</v>
+        <v>0.4182077901584604</v>
       </c>
       <c r="F38">
-        <v>1.191967977282061</v>
+        <v>1.359851929520024</v>
       </c>
       <c r="G38">
-        <v>0.9999741611905921</v>
+        <v>1.844731467584706</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.3881353666333209</v>
+        <v>0.7761293680437859</v>
       </c>
       <c r="C39">
-        <v>0.5244775180511403</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0.4652198706826153</v>
+        <v>0.1458008014385984</v>
       </c>
       <c r="E39">
-        <v>0.3384668832453257</v>
+        <v>0.006751663828755001</v>
       </c>
       <c r="F39">
-        <v>0.8698937227641206</v>
+        <v>1.274237126521057</v>
       </c>
       <c r="G39">
-        <v>0.5590381061077203</v>
+        <v>0.3184105451588928</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1470,25 +1470,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.6165499290029342</v>
+        <v>0.8378106217515325</v>
       </c>
       <c r="C40">
-        <v>0.5917838434988236</v>
+        <v>0.9593779994140715</v>
       </c>
       <c r="D40">
-        <v>0.4970250097716574</v>
+        <v>0.4332617364035518</v>
       </c>
       <c r="E40">
-        <v>0.6706723250313723</v>
+        <v>0.06559629949703084</v>
       </c>
       <c r="F40">
-        <v>1.194645202677877</v>
+        <v>1.346978615427343</v>
       </c>
       <c r="G40">
-        <v>2.998960855395026</v>
+        <v>3.845432974770108</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1498,22 +1498,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.3598851123399027</v>
+        <v>0.8521091965984577</v>
       </c>
       <c r="C41">
-        <v>0.5700397517257323</v>
+        <v>0.9587150530386529</v>
       </c>
       <c r="D41">
-        <v>0.5764102687575259</v>
+        <v>0.1243601720600576</v>
       </c>
       <c r="E41">
-        <v>0.1449859048012774</v>
+        <v>0.09347094915974585</v>
       </c>
       <c r="F41">
-        <v>0.8987392965435567</v>
+        <v>1.292063042804881</v>
       </c>
       <c r="G41">
-        <v>0.5301925323282842</v>
+        <v>0.3005846288750691</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1526,25 +1526,25 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.2094332747614254</v>
+        <v>0.09338178672310893</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.8340400732695641</v>
       </c>
       <c r="D42">
-        <v>0.160086804495707</v>
+        <v>0.1678566214662831</v>
       </c>
       <c r="E42">
-        <v>0.7666640496759322</v>
+        <v>0.07644640261683318</v>
       </c>
       <c r="F42">
-        <v>0.8107181055190772</v>
+        <v>0.8592804546562374</v>
       </c>
       <c r="G42">
-        <v>2.315020479937703</v>
+        <v>3.257859998359047</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1554,22 +1554,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.2278261630942707</v>
+        <v>0.869512621106815</v>
       </c>
       <c r="C43">
-        <v>0.7621153455433927</v>
+        <v>0.9257490105707653</v>
       </c>
       <c r="D43">
-        <v>0.5673158536285688</v>
+        <v>0.05591116149762849</v>
       </c>
       <c r="E43">
-        <v>0.4951880653990571</v>
+        <v>0.1166586147885751</v>
       </c>
       <c r="F43">
-        <v>1.095346090692323</v>
+        <v>1.27663570341002</v>
       </c>
       <c r="G43">
-        <v>0.333585738179518</v>
+        <v>0.3160119682699294</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.1872962744664455</v>
+        <v>0.8881904541598901</v>
       </c>
       <c r="C44">
-        <v>0.8203105905524946</v>
+        <v>0.8105113999268133</v>
       </c>
       <c r="D44">
-        <v>0.6066547968931867</v>
+        <v>0.1312205511410782</v>
       </c>
       <c r="E44">
-        <v>0.7721110755853329</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.29312602442169</v>
+        <v>1.20955770648359</v>
       </c>
       <c r="G44">
-        <v>0.1358058044501507</v>
+        <v>0.3830899651963597</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1610,25 +1610,25 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.1001986224450368</v>
+        <v>0.629470921472276</v>
       </c>
       <c r="C45">
-        <v>0.8286406110356639</v>
+        <v>0.6669839797958947</v>
       </c>
       <c r="D45">
-        <v>0.2138877326135669</v>
+        <v>0.07130595614905093</v>
       </c>
       <c r="E45">
-        <v>0.7940009466759583</v>
+        <v>0.1294921896625122</v>
       </c>
       <c r="F45">
-        <v>1.171695562713426</v>
+        <v>0.928953194111226</v>
       </c>
       <c r="G45">
-        <v>0.2572362661584149</v>
+        <v>3.188187258904058</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1638,22 +1638,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.07583478533531694</v>
+        <v>0.6790945126541589</v>
       </c>
       <c r="C46">
-        <v>0.4932814281612489</v>
+        <v>0.3593822840516951</v>
       </c>
       <c r="D46">
-        <v>0.3787489688518938</v>
+        <v>0.1099168391949723</v>
       </c>
       <c r="E46">
-        <v>0.7359843329707245</v>
+        <v>0.07739684105782292</v>
       </c>
       <c r="F46">
-        <v>0.9665408433275803</v>
+        <v>0.7799980549665148</v>
       </c>
       <c r="G46">
-        <v>1.225401295145073</v>
+        <v>1.302256736345004</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1666,22 +1666,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.2200003447285272</v>
+        <v>0.8270437047185387</v>
       </c>
       <c r="C47">
-        <v>0.6883821505657728</v>
+        <v>0.9565834664588059</v>
       </c>
       <c r="D47">
-        <v>0.5289738220817494</v>
+        <v>0.1199386531202731</v>
       </c>
       <c r="E47">
-        <v>0.6518040846426849</v>
+        <v>0.2467589299839745</v>
       </c>
       <c r="F47">
-        <v>1.107669628590986</v>
+        <v>1.293958449045429</v>
       </c>
       <c r="G47">
-        <v>0.3212622002808554</v>
+        <v>0.2986892226345208</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1694,22 +1694,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.2585281817553575</v>
+        <v>0.5885960654767798</v>
       </c>
       <c r="C48">
-        <v>0.5631577185411767</v>
+        <v>0.9704124193268644</v>
       </c>
       <c r="D48">
-        <v>0.306283501082446</v>
+        <v>0.1242089489609089</v>
       </c>
       <c r="E48">
-        <v>0.4874167991773501</v>
+        <v>0.07405519316482141</v>
       </c>
       <c r="F48">
-        <v>0.8457943933781119</v>
+        <v>1.144140562393982</v>
       </c>
       <c r="G48">
-        <v>0.583137435493729</v>
+        <v>0.4485071092859683</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1722,25 +1722,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.1556867310881036</v>
+        <v>0.7313217885819372</v>
       </c>
       <c r="C49">
-        <v>0.2790936058521271</v>
+        <v>0.5670639072975273</v>
       </c>
       <c r="D49">
-        <v>0.6403103824621902</v>
+        <v>0.2037481373216336</v>
       </c>
       <c r="E49">
-        <v>0.7284510077444392</v>
+        <v>0.2850889342416531</v>
       </c>
       <c r="F49">
-        <v>1.021161033156479</v>
+        <v>0.9895362738693813</v>
       </c>
       <c r="G49">
-        <v>1.170781105316175</v>
+        <v>2.215047123235349</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1750,25 +1750,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.1410208475522975</v>
+        <v>0.5898905224618652</v>
       </c>
       <c r="C50">
-        <v>0.08842758321577901</v>
+        <v>0.8740972398771859</v>
       </c>
       <c r="D50">
-        <v>0.5482938101257687</v>
+        <v>0.1484523007978118</v>
       </c>
       <c r="E50">
-        <v>0.4294895401028141</v>
+        <v>0.4491344797146646</v>
       </c>
       <c r="F50">
-        <v>0.7160961417279883</v>
+        <v>1.155758054149731</v>
       </c>
       <c r="G50">
-        <v>1.475845996744665</v>
+        <v>2.961382398865553</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.1279151208738922</v>
+        <v>0.5561781863578766</v>
       </c>
       <c r="C51">
-        <v>0.09039953928669239</v>
+        <v>0.5937725513646488</v>
       </c>
       <c r="D51">
-        <v>0.4680124494706774</v>
+        <v>0.1607381620119033</v>
       </c>
       <c r="E51">
-        <v>0.9273977410762925</v>
+        <v>0.6075629220873693</v>
       </c>
       <c r="F51">
-        <v>1.050541088137148</v>
+        <v>1.028041574430105</v>
       </c>
       <c r="G51">
-        <v>2.075197497319633</v>
+        <v>2.176541822674625</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -1806,22 +1806,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.2653049105720428</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.9756141536965117</v>
       </c>
       <c r="D52">
-        <v>0.6301038663154741</v>
+        <v>0.1102702329154151</v>
       </c>
       <c r="E52">
-        <v>0.6204110932783936</v>
+        <v>0.06221165818250909</v>
       </c>
       <c r="F52">
-        <v>1.361002388896596</v>
+        <v>1.402801764888396</v>
       </c>
       <c r="G52">
-        <v>0.06792943997524525</v>
+        <v>0.1898459067915541</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1834,22 +1834,22 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.2944621095291136</v>
+        <v>0.7631223202472487</v>
       </c>
       <c r="C53">
-        <v>0.6449819697982618</v>
+        <v>0.9870415261866885</v>
       </c>
       <c r="D53">
-        <v>0.4406566212803352</v>
+        <v>0.1045143672116179</v>
       </c>
       <c r="E53">
-        <v>0.448332055209423</v>
+        <v>0.01458398623388672</v>
       </c>
       <c r="F53">
-        <v>0.9475703482695559</v>
+        <v>1.252095282190859</v>
       </c>
       <c r="G53">
-        <v>0.481361480602285</v>
+        <v>0.340552389489091</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1862,25 +1862,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.09900488846680774</v>
+        <v>0.5317865734741091</v>
       </c>
       <c r="C54">
-        <v>0.1411672103221323</v>
+        <v>0.7738346255953081</v>
       </c>
       <c r="D54">
-        <v>0.3376407884933096</v>
+        <v>0.09500359918388422</v>
       </c>
       <c r="E54">
-        <v>0.3543761523521577</v>
+        <v>0.03555756496364224</v>
       </c>
       <c r="F54">
-        <v>0.5189546305995946</v>
+        <v>0.9444082865909217</v>
       </c>
       <c r="G54">
-        <v>1.672987507873059</v>
+        <v>3.172732166424362</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1890,25 +1890,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.7544005130978924</v>
+        <v>0.6805415605080568</v>
       </c>
       <c r="C55">
-        <v>0.4391623005247469</v>
+        <v>0.895267728839161</v>
       </c>
       <c r="D55">
-        <v>0.3703606312810996</v>
+        <v>0.5443862259434752</v>
       </c>
       <c r="E55">
-        <v>0.7010233036191562</v>
+        <v>0.09854892878944123</v>
       </c>
       <c r="F55">
-        <v>1.179230397244153</v>
+        <v>1.253279448583634</v>
       </c>
       <c r="G55">
-        <v>3.01437566082875</v>
+        <v>3.939132141613817</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1918,25 +1918,25 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.06386010662272974</v>
+        <v>0.5523786083203375</v>
       </c>
       <c r="C56">
-        <v>0.1698109144396542</v>
+        <v>0.1974893290797908</v>
       </c>
       <c r="D56">
-        <v>0.37096260613713</v>
+        <v>0.1742176510935038</v>
       </c>
       <c r="E56">
-        <v>0.876986269368341</v>
+        <v>0.1457959263119675</v>
       </c>
       <c r="F56">
-        <v>0.9693461877437543</v>
+        <v>0.6290726540805928</v>
       </c>
       <c r="G56">
-        <v>2.156392397713026</v>
+        <v>1.453182137230927</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1946,25 +1946,25 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.2290355751787571</v>
+        <v>0.2725859452414159</v>
       </c>
       <c r="C57">
-        <v>0.1169103652550007</v>
+        <v>0.7577910401190755</v>
       </c>
       <c r="D57">
-        <v>0.1737744901816815</v>
+        <v>0.232188613050515</v>
       </c>
       <c r="E57">
-        <v>0.6555991535643234</v>
+        <v>0.09251354575813461</v>
       </c>
       <c r="F57">
-        <v>0.7253503648538977</v>
+        <v>0.8432204137750524</v>
       </c>
       <c r="G57">
-        <v>2.400388220602882</v>
+        <v>3.273920039240231</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1974,25 +1974,25 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.7762877474018501</v>
+        <v>0.7697045589513243</v>
       </c>
       <c r="C58">
-        <v>0.2601937659311886</v>
+        <v>0.9363487091225382</v>
       </c>
       <c r="D58">
-        <v>0.6655929546771441</v>
+        <v>0.8443201112256951</v>
       </c>
       <c r="E58">
-        <v>0.7577996140419968</v>
+        <v>0.2030465533832319</v>
       </c>
       <c r="F58">
-        <v>1.29907570947722</v>
+        <v>1.491072890977123</v>
       </c>
       <c r="G58">
-        <v>2.894530348595683</v>
+        <v>3.701338699220328</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2002,25 +2002,25 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.3353520553007144</v>
+        <v>0.8602561534494041</v>
       </c>
       <c r="C59">
-        <v>0.2003848125313096</v>
+        <v>0.896986813656154</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.3788464530803425</v>
       </c>
       <c r="E59">
-        <v>0.7293480020193751</v>
+        <v>0.4952303603326453</v>
       </c>
       <c r="F59">
-        <v>1.297907385808893</v>
+        <v>1.390468891499318</v>
       </c>
       <c r="G59">
-        <v>0.89403475266376</v>
+        <v>1.814114505605412</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2030,25 +2030,25 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.0842109851340964</v>
+        <v>0.5769874863229939</v>
       </c>
       <c r="C60">
-        <v>0.3356277724281652</v>
+        <v>0.6941544200500913</v>
       </c>
       <c r="D60">
-        <v>0.461844976699692</v>
+        <v>0.09227723771216885</v>
       </c>
       <c r="E60">
-        <v>0.802676134049089</v>
+        <v>0.6503748993168169</v>
       </c>
       <c r="F60">
-        <v>0.9885986295342906</v>
+        <v>1.116363523458893</v>
       </c>
       <c r="G60">
-        <v>1.203343508938363</v>
+        <v>2.088219873645837</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2058,22 +2058,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.4448391708457908</v>
+        <v>0.8348418926394234</v>
       </c>
       <c r="C61">
-        <v>0.6642449594055807</v>
+        <v>0.9732556301883671</v>
       </c>
       <c r="D61">
-        <v>0.5256270198400019</v>
+        <v>0.2735342628245416</v>
       </c>
       <c r="E61">
-        <v>0.6466505700697275</v>
+        <v>0.0671960839291391</v>
       </c>
       <c r="F61">
-        <v>1.154791746494526</v>
+        <v>1.312830458982997</v>
       </c>
       <c r="G61">
-        <v>0.274140082377315</v>
+        <v>0.2798172126969525</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2086,25 +2086,25 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.0985131913320273</v>
+        <v>0.5823689256081314</v>
       </c>
       <c r="C62">
-        <v>0.1012977305329977</v>
+        <v>0.4518982108767606</v>
       </c>
       <c r="D62">
-        <v>0.5334797745990463</v>
+        <v>0.1788950097857715</v>
       </c>
       <c r="E62">
-        <v>0.7674844999048458</v>
+        <v>0.5041651111655402</v>
       </c>
       <c r="F62">
-        <v>0.945303764182708</v>
+        <v>0.910797146652535</v>
       </c>
       <c r="G62">
-        <v>1.246638374289945</v>
+        <v>2.293786250452195</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2114,25 +2114,25 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.1462564355275004</v>
+        <v>0.589689573495269</v>
       </c>
       <c r="C63">
-        <v>0.1504392445985553</v>
+        <v>0.6635273381112689</v>
       </c>
       <c r="D63">
-        <v>0.5113547285254125</v>
+        <v>0.2009022759548472</v>
       </c>
       <c r="E63">
-        <v>0.6542905889687367</v>
+        <v>0.4779169605616789</v>
       </c>
       <c r="F63">
-        <v>0.8565061263335765</v>
+        <v>1.027992542378791</v>
       </c>
       <c r="G63">
-        <v>1.335436012139077</v>
+        <v>2.176590854725939</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.3142369401344713</v>
+        <v>0.7713045519017463</v>
       </c>
       <c r="C64">
-        <v>0.5794893348065207</v>
+        <v>0.9066294922850977</v>
       </c>
       <c r="D64">
-        <v>0.5053245786536613</v>
+        <v>0.25667081220703</v>
       </c>
       <c r="E64">
-        <v>0.8554937156250626</v>
+        <v>0.1568292039287303</v>
       </c>
       <c r="F64">
-        <v>1.192382141330981</v>
+        <v>1.227747145429149</v>
       </c>
       <c r="G64">
-        <v>0.2365496875408601</v>
+        <v>0.3649005262508012</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2170,25 +2170,25 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.3244295138295088</v>
+        <v>0.6039297471140713</v>
       </c>
       <c r="C65">
-        <v>0.1608483030977287</v>
+        <v>0.7141751313788597</v>
       </c>
       <c r="D65">
-        <v>0.5045726125466946</v>
+        <v>0.3658964231690922</v>
       </c>
       <c r="E65">
-        <v>0.7909793974115469</v>
+        <v>0.2084395037075704</v>
       </c>
       <c r="F65">
-        <v>1.005668242769354</v>
+        <v>1.025721442167936</v>
       </c>
       <c r="G65">
-        <v>1.186273895703299</v>
+        <v>3.091419010847348</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.2982105918733531</v>
+        <v>0.8259636837526148</v>
       </c>
       <c r="C66">
-        <v>0.5881455217554527</v>
+        <v>0.9782138508098254</v>
       </c>
       <c r="D66">
-        <v>0.5475427514091246</v>
+        <v>0.1441578979126931</v>
       </c>
       <c r="E66">
-        <v>0.5150633651627199</v>
+        <v>0.06480570236740346</v>
       </c>
       <c r="F66">
-        <v>0.9999690228301419</v>
+        <v>1.28999985402492</v>
       </c>
       <c r="G66">
-        <v>0.428962806041699</v>
+        <v>0.3026478176550296</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2226,25 +2226,25 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.1491204970382798</v>
+        <v>0.2842519832801393</v>
       </c>
       <c r="C67">
-        <v>0.02266967607619866</v>
+        <v>0.4334359534130907</v>
       </c>
       <c r="D67">
-        <v>0.1846245919626451</v>
+        <v>0.2631779644608362</v>
       </c>
       <c r="E67">
-        <v>0.7977224694206493</v>
+        <v>0.06477322370414984</v>
       </c>
       <c r="F67">
-        <v>0.8325852599141396</v>
+        <v>0.5849137775745965</v>
       </c>
       <c r="G67">
-        <v>2.293153325542641</v>
+        <v>1.497341013736923</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2254,22 +2254,22 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.09667117257432058</v>
+        <v>0.5157785051803367</v>
       </c>
       <c r="C68">
-        <v>0.07516207480259018</v>
+        <v>0.6557860097819196</v>
       </c>
       <c r="D68">
-        <v>0.4690974724871225</v>
+        <v>0.1528900326304085</v>
       </c>
       <c r="E68">
-        <v>0.9354962247066204</v>
+        <v>0.559907732283814</v>
       </c>
       <c r="F68">
-        <v>1.053660418839804</v>
+        <v>1.016343833444512</v>
       </c>
       <c r="G68">
-        <v>2.072078166616977</v>
+        <v>2.188239563660218</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.4077225216752498</v>
+        <v>0.8087161004268731</v>
       </c>
       <c r="C69">
-        <v>0.5880589127294953</v>
+        <v>0.9624219153538036</v>
       </c>
       <c r="D69">
-        <v>0.4718612451895826</v>
+        <v>0.2562568836196096</v>
       </c>
       <c r="E69">
-        <v>0.3620612216338534</v>
+        <v>0.08833122470196306</v>
       </c>
       <c r="F69">
-        <v>0.9304796088279863</v>
+        <v>1.285981209000627</v>
       </c>
       <c r="G69">
-        <v>0.4984522200438546</v>
+        <v>0.3066664626793225</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2310,22 +2310,22 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.1050588396917773</v>
+        <v>0.6310097669860751</v>
       </c>
       <c r="C70">
-        <v>0.5296662931098189</v>
+        <v>0.3737201837232693</v>
       </c>
       <c r="D70">
-        <v>0.3094965426914523</v>
+        <v>0.1027201075759455</v>
       </c>
       <c r="E70">
-        <v>0.6600848129453821</v>
+        <v>0.2101735930164715</v>
       </c>
       <c r="F70">
-        <v>0.9072396662807361</v>
+        <v>0.769782086993353</v>
       </c>
       <c r="G70">
-        <v>1.284702472191917</v>
+        <v>1.312472704318166</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2338,25 +2338,25 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.1880200836596494</v>
+        <v>0.5047884333945129</v>
       </c>
       <c r="C71">
-        <v>0.2862844655105316</v>
+        <v>0.9545158701935999</v>
       </c>
       <c r="D71">
-        <v>0.3121605258723844</v>
+        <v>0.157052969542045</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.3749350732838275</v>
       </c>
       <c r="F71">
-        <v>1.102159036149029</v>
+        <v>1.153756409889304</v>
       </c>
       <c r="G71">
-        <v>2.023579549307752</v>
+        <v>2.96338404312598</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2366,25 +2366,25 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.1272200659555243</v>
+        <v>0.3253303262909799</v>
       </c>
       <c r="C72">
-        <v>0.1584415216208676</v>
+        <v>0.9852541673893482</v>
       </c>
       <c r="D72">
-        <v>0.2077332483630588</v>
+        <v>0.1702274133080117</v>
       </c>
       <c r="E72">
-        <v>0.9329828431045194</v>
+        <v>0.01333415106821483</v>
       </c>
       <c r="F72">
-        <v>0.9771892083717074</v>
+        <v>1.051532580279337</v>
       </c>
       <c r="G72">
-        <v>2.148549377085073</v>
+        <v>3.065607872735947</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.2705078343189306</v>
+        <v>0.803872816532372</v>
       </c>
       <c r="C73">
-        <v>0.6463860990018575</v>
+        <v>0.9053872275200109</v>
       </c>
       <c r="D73">
-        <v>0.4831055817020484</v>
+        <v>0.1174959810542748</v>
       </c>
       <c r="E73">
-        <v>0.5321740373612333</v>
+        <v>0.2070927934696392</v>
       </c>
       <c r="F73">
-        <v>1.003787670039729</v>
+        <v>1.233949053886353</v>
       </c>
       <c r="G73">
-        <v>0.4251441588321123</v>
+        <v>0.3586986177935967</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.2759124078414481</v>
+        <v>0.7761946338764526</v>
       </c>
       <c r="C74">
-        <v>0.6091250340679029</v>
+        <v>0.8327557174007194</v>
       </c>
       <c r="D74">
-        <v>0.4408182529293304</v>
+        <v>0.1473185398077266</v>
       </c>
       <c r="E74">
-        <v>0.483665868674321</v>
+        <v>0.1696169052914255</v>
       </c>
       <c r="F74">
-        <v>0.935635809792059</v>
+        <v>1.160358927769295</v>
       </c>
       <c r="G74">
-        <v>0.4932960190797819</v>
+        <v>0.4322887439106546</v>
       </c>
       <c r="H74">
         <v>1</v>

--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,35 +365,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>Tap_UWS_excursion_No_watp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>Natural_Commodity_Water_No_phom</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sprg</t>
+          <t>Protected_Well_No_pipy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pipy</t>
+          <t>Water_Trucking_No_bore</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Spring_No_well</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>norm</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>distToCentroid</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>clusters</t>
         </is>
@@ -406,24 +411,27 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7024974479537011</v>
+        <v>0.7180895458444897</v>
       </c>
       <c r="C2">
-        <v>0.9617149287398467</v>
+        <v>0.9471794628042387</v>
       </c>
       <c r="D2">
-        <v>0.2421066633242847</v>
+        <v>0.883587232823279</v>
       </c>
       <c r="E2">
-        <v>0.08956578771630037</v>
+        <v>0.7634234890676924</v>
       </c>
       <c r="F2">
-        <v>1.218620505037483</v>
+        <v>0.2686459068632295</v>
       </c>
       <c r="G2">
-        <v>0.3740271666424664</v>
+        <v>1.666236283447777</v>
       </c>
       <c r="H2">
+        <v>0.1979481705665012</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4380324187370142</v>
+        <v>0.4514531053161297</v>
       </c>
       <c r="C3">
-        <v>0.4449251533933707</v>
+        <v>0.451805439652944</v>
       </c>
       <c r="D3">
-        <v>0.1953102390897842</v>
+        <v>0.8256810492230599</v>
       </c>
       <c r="E3">
-        <v>0.1401042521876995</v>
+        <v>0.8877910772393439</v>
       </c>
       <c r="F3">
-        <v>0.6690336934423382</v>
+        <v>0.3345355515831426</v>
       </c>
       <c r="G3">
-        <v>1.413221097869181</v>
+        <v>1.370350412657819</v>
       </c>
       <c r="H3">
+        <v>1.04127277076642</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
@@ -462,24 +473,27 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7083498425436027</v>
+        <v>0.7249451410971303</v>
       </c>
       <c r="C4">
-        <v>0.9275834185088152</v>
+        <v>0.9538644412538156</v>
       </c>
       <c r="D4">
-        <v>0.2864212843622933</v>
+        <v>0.8199021660562208</v>
       </c>
       <c r="E4">
-        <v>0.1829445885849366</v>
+        <v>0.9546775975388132</v>
       </c>
       <c r="F4">
-        <v>1.215597125840755</v>
+        <v>0.2823771352030169</v>
       </c>
       <c r="G4">
-        <v>0.3770505458391951</v>
+        <v>1.737541857635365</v>
       </c>
       <c r="H4">
+        <v>0.1266425963789131</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
@@ -490,24 +504,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5071797222520986</v>
+        <v>0.5306486422187154</v>
       </c>
       <c r="C5">
-        <v>0.01066961593624452</v>
+        <v>0.006983021973441856</v>
       </c>
       <c r="D5">
-        <v>0.1467396642164856</v>
+        <v>0.7361201049089476</v>
       </c>
       <c r="E5">
-        <v>0.2159359059279223</v>
+        <v>0.8464063285225165</v>
       </c>
       <c r="F5">
-        <v>0.5705312926485473</v>
+        <v>0.3454024701813137</v>
       </c>
       <c r="G5">
-        <v>1.511723498662972</v>
+        <v>1.240932401824763</v>
       </c>
       <c r="H5">
+        <v>1.170690781599476</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
     </row>
@@ -518,24 +535,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.5470284610680847</v>
+        <v>0.5745546071103607</v>
       </c>
       <c r="C6">
-        <v>0.5788512355257476</v>
+        <v>0.5654467503400457</v>
       </c>
       <c r="D6">
-        <v>0.2459213097564157</v>
+        <v>0.5808396571098221</v>
       </c>
       <c r="E6">
-        <v>0.3918882284320747</v>
+        <v>0.7953093312965301</v>
       </c>
       <c r="F6">
-        <v>0.921065993435944</v>
+        <v>0.3850819995803583</v>
       </c>
       <c r="G6">
-        <v>2.283517403668786</v>
+        <v>1.272687967940551</v>
       </c>
       <c r="H6">
+        <v>2.035695182512606</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
     </row>
@@ -546,25 +566,28 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.5226565406421679</v>
+        <v>0.4949341747857009</v>
       </c>
       <c r="C7">
-        <v>0.9532771500235164</v>
+        <v>0.7614084820170408</v>
       </c>
       <c r="D7">
+        <v>0.7931199561183232</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0.0548652792203839</v>
-      </c>
       <c r="F7">
-        <v>1.088539104992065</v>
+        <v>0.3454895602160054</v>
       </c>
       <c r="G7">
-        <v>3.028601348023218</v>
+        <v>1.205712228789037</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>0.6584722252252406</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -574,24 +597,27 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7975089200143064</v>
+        <v>0.7928975423022673</v>
       </c>
       <c r="C8">
-        <v>0.9441812385609787</v>
+        <v>0.9041149825907661</v>
       </c>
       <c r="D8">
-        <v>0.1007168560151636</v>
+        <v>0.887661842522509</v>
       </c>
       <c r="E8">
-        <v>0.06721880506175314</v>
+        <v>0.6709821532522321</v>
       </c>
       <c r="F8">
-        <v>1.241837727560424</v>
+        <v>0.1622302338539469</v>
       </c>
       <c r="G8">
-        <v>0.3508099441195256</v>
+        <v>1.638374502666449</v>
       </c>
       <c r="H8">
+        <v>0.2258099513478289</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +628,27 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.5679599137357974</v>
+        <v>0.5947537572484442</v>
       </c>
       <c r="C9">
-        <v>0.627378667490726</v>
+        <v>0.6138423610532964</v>
       </c>
       <c r="D9">
-        <v>0.1110038359160378</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.8500887431023124</v>
       </c>
       <c r="F9">
-        <v>1.314725943921884</v>
+        <v>0.2507167496506863</v>
       </c>
       <c r="G9">
-        <v>1.889857453182846</v>
+        <v>1.205481375689353</v>
       </c>
       <c r="H9">
+        <v>2.102901774763803</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
     </row>
@@ -630,24 +659,27 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.887533573695541</v>
+        <v>0.8890768528944868</v>
       </c>
       <c r="C10">
-        <v>0.9622535693458847</v>
+        <v>0.8966560311504216</v>
       </c>
       <c r="D10">
-        <v>0.1416151726489518</v>
+        <v>0.7857610492849423</v>
       </c>
       <c r="E10">
-        <v>0.1615490237008306</v>
+        <v>0.5386932602935377</v>
       </c>
       <c r="F10">
-        <v>1.326574807667761</v>
+        <v>0.1966478556879807</v>
       </c>
       <c r="G10">
-        <v>0.2660728640121886</v>
+        <v>1.581790297040112</v>
       </c>
       <c r="H10">
+        <v>0.2823941569741661</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
@@ -658,25 +690,28 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.7611420433948266</v>
+        <v>0.9087831956879205</v>
       </c>
       <c r="C11">
-        <v>0.9241133206438176</v>
+        <v>0.9775723983360852</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.8953105482298027</v>
       </c>
       <c r="E11">
-        <v>0.1415428655083422</v>
+        <v>0.9581536041576465</v>
       </c>
       <c r="F11">
-        <v>1.566319578627206</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.626092011570245</v>
+        <v>1.871142431159411</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2.526208341930339</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -686,25 +721,28 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4449376503012907</v>
+        <v>0.4234257304579915</v>
       </c>
       <c r="C12">
-        <v>0.893039324509623</v>
+        <v>0.8608245987037939</v>
       </c>
       <c r="D12">
-        <v>0.09360032152317015</v>
+        <v>0.9063279019632731</v>
       </c>
       <c r="E12">
-        <v>0.04007628670482418</v>
+        <v>0.7126247674428061</v>
       </c>
       <c r="F12">
-        <v>1.002923664453844</v>
+        <v>0.1833658099843105</v>
       </c>
       <c r="G12">
-        <v>3.114216788561441</v>
+        <v>1.499857547901631</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3.724036174774029</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -714,24 +752,27 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7406456979189311</v>
+        <v>0.7592854735066161</v>
       </c>
       <c r="C13">
-        <v>0.8927569944416186</v>
+        <v>0.848475359788303</v>
       </c>
       <c r="D13">
-        <v>0.2539969222170652</v>
+        <v>0.8241884945554521</v>
       </c>
       <c r="E13">
-        <v>0.131042867075585</v>
+        <v>0.6369286738670679</v>
       </c>
       <c r="F13">
-        <v>1.194678940333923</v>
+        <v>0.3784255910036735</v>
       </c>
       <c r="G13">
-        <v>0.3979687313460272</v>
+        <v>1.543175193099507</v>
       </c>
       <c r="H13">
+        <v>0.321009260914771</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
     </row>
@@ -742,24 +783,27 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.9539108361645862</v>
+        <v>0.9581418637420921</v>
       </c>
       <c r="C14">
-        <v>0.9811629882820118</v>
+        <v>0.9458166907811915</v>
       </c>
       <c r="D14">
-        <v>0.08770802404751724</v>
+        <v>0.9287170951482461</v>
       </c>
       <c r="E14">
-        <v>0.03413917265265048</v>
+        <v>0.6682193698837203</v>
       </c>
       <c r="F14">
-        <v>1.371672290861937</v>
+        <v>0.03748433450164374</v>
       </c>
       <c r="G14">
-        <v>0.2209753808180128</v>
+        <v>1.766815670273457</v>
       </c>
       <c r="H14">
+        <v>0.09736878374082081</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
@@ -770,24 +814,27 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4702420873216543</v>
+        <v>0.4853457823356224</v>
       </c>
       <c r="C15">
-        <v>0.1064918880968133</v>
+        <v>0.106185798951067</v>
       </c>
       <c r="D15">
-        <v>0.1440430247782729</v>
+        <v>0.8824535425406396</v>
       </c>
       <c r="E15">
-        <v>0.06618959109145901</v>
+        <v>0.8552723087596289</v>
       </c>
       <c r="F15">
-        <v>0.5075407351880036</v>
+        <v>0.3229754543558596</v>
       </c>
       <c r="G15">
-        <v>1.574714056123516</v>
+        <v>1.325537977276926</v>
       </c>
       <c r="H15">
+        <v>1.086085206147313</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
     </row>
@@ -798,25 +845,28 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.5697501407067103</v>
+        <v>0.5894446395927322</v>
       </c>
       <c r="C16">
-        <v>0.7916708535445224</v>
+        <v>0.8036041288591692</v>
       </c>
       <c r="D16">
-        <v>0.2532019833502887</v>
+        <v>0.540040392230267</v>
       </c>
       <c r="E16">
-        <v>0.4578792309159927</v>
+        <v>0.9169945377806743</v>
       </c>
       <c r="F16">
-        <v>1.106852563652436</v>
+        <v>0.3318525675956157</v>
       </c>
       <c r="G16">
-        <v>3.010287889362848</v>
+        <v>1.457994234084594</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1.850388916368562</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -826,24 +876,27 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7601045795857193</v>
+        <v>0.7962028190152029</v>
       </c>
       <c r="C17">
-        <v>0.9082999877589411</v>
+        <v>0.9091915080091327</v>
       </c>
       <c r="D17">
-        <v>0.3645552567075457</v>
+        <v>0.5914171770205003</v>
       </c>
       <c r="E17">
-        <v>0.4084915881521348</v>
+        <v>0.838485023893031</v>
       </c>
       <c r="F17">
-        <v>1.30481176897445</v>
+        <v>0.4217600265486122</v>
       </c>
       <c r="G17">
-        <v>1.89977162813028</v>
+        <v>1.585370473993846</v>
       </c>
       <c r="H17">
+        <v>1.723012676459311</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
     </row>
@@ -854,25 +907,28 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.8196179283043439</v>
+        <v>0.9338632910695532</v>
       </c>
       <c r="C18">
-        <v>0.9404104685040327</v>
+        <v>0.9863501748813739</v>
       </c>
       <c r="D18">
-        <v>0.8155339567029301</v>
+        <v>0.8940652644730955</v>
       </c>
       <c r="E18">
-        <v>0.1354777754659318</v>
+        <v>0.9508370673005547</v>
       </c>
       <c r="F18">
-        <v>1.496527734407422</v>
+        <v>0.8080736039084056</v>
       </c>
       <c r="G18">
-        <v>3.695883855790028</v>
+        <v>1.883727989807934</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>2.513622783281816</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -882,25 +938,28 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.7882664919803915</v>
+        <v>0.7957377337719244</v>
       </c>
       <c r="C19">
-        <v>0.8433731967924895</v>
+        <v>0.8329563348665035</v>
       </c>
       <c r="D19">
-        <v>0.1449864067929873</v>
+        <v>0.6173187348305432</v>
       </c>
       <c r="E19">
-        <v>0.3679676431835934</v>
+        <v>0.8183406951921071</v>
       </c>
       <c r="F19">
-        <v>1.220271959864638</v>
+        <v>0.1983815609761743</v>
       </c>
       <c r="G19">
-        <v>0.3723757118153115</v>
+        <v>1.542004769941715</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>1.766378380511442</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -913,22 +972,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.9254834961463976</v>
+        <v>0.9376933368921523</v>
       </c>
       <c r="D20">
-        <v>0.1937623900175984</v>
+        <v>0.8224768869088507</v>
       </c>
       <c r="E20">
-        <v>0.1476664681754715</v>
+        <v>0.9226936666941745</v>
       </c>
       <c r="F20">
-        <v>0.9570104237928176</v>
+        <v>0.3023039980618857</v>
       </c>
       <c r="G20">
-        <v>3.160130029222466</v>
+        <v>1.551483363142755</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3.672410359532905</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -938,24 +1000,27 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.5171015223772517</v>
+        <v>0.5357064126203996</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1485222242239442</v>
+        <v>0.8685153516553078</v>
       </c>
       <c r="E21">
-        <v>0.07942309328473811</v>
+        <v>0.8559805347012711</v>
       </c>
       <c r="F21">
-        <v>0.5438390049272074</v>
+        <v>0.3407127377803487</v>
       </c>
       <c r="G21">
-        <v>1.538415786384312</v>
+        <v>1.331917021578685</v>
       </c>
       <c r="H21">
+        <v>1.079706161845554</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
     </row>
@@ -966,24 +1031,27 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8483845555306491</v>
+        <v>0.8478301553235335</v>
       </c>
       <c r="C22">
-        <v>0.8209304924840434</v>
+        <v>0.8595646865773674</v>
       </c>
       <c r="D22">
-        <v>0.2126847859897857</v>
+        <v>0.9972345653506967</v>
       </c>
       <c r="E22">
-        <v>0.0049827261400089</v>
+        <v>0.9969643676189763</v>
       </c>
       <c r="F22">
-        <v>1.199559449674896</v>
+        <v>0.114117622979366</v>
       </c>
       <c r="G22">
-        <v>0.3930882220050542</v>
+        <v>1.856362613100919</v>
       </c>
       <c r="H22">
+        <v>0.007821840913358802</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
     </row>
@@ -994,25 +1062,28 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.7789286365485432</v>
+        <v>0.8021826596180517</v>
       </c>
       <c r="C23">
-        <v>0.7665376235029972</v>
+        <v>0.7676978377098264</v>
       </c>
       <c r="D23">
-        <v>0.2473977387896559</v>
+        <v>0.5951194285074031</v>
       </c>
       <c r="E23">
-        <v>0.3985842260930366</v>
+        <v>0.8596281823626256</v>
       </c>
       <c r="F23">
-        <v>1.189279099088778</v>
+        <v>0.3197843523143971</v>
       </c>
       <c r="G23">
-        <v>0.403368572591172</v>
+        <v>1.525117941509864</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>1.783265208943293</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1022,25 +1093,28 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.8004173422984378</v>
+        <v>0.8711539967829488</v>
       </c>
       <c r="C24">
-        <v>0.9411960117001055</v>
+        <v>0.9522723266717554</v>
       </c>
       <c r="D24">
-        <v>0.5760377486148305</v>
+        <v>0.7439125334944239</v>
       </c>
       <c r="E24">
-        <v>0.2628785901249486</v>
+        <v>0.841057569300108</v>
       </c>
       <c r="F24">
-        <v>1.388323627713511</v>
+        <v>0.6201949218173555</v>
       </c>
       <c r="G24">
-        <v>3.80408796248394</v>
+        <v>1.710706159053285</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>2.686644614036465</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1050,24 +1124,27 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.6463298890658563</v>
+        <v>0.6774925620922622</v>
       </c>
       <c r="C25">
-        <v>0.6418634433060165</v>
+        <v>0.642121335139668</v>
       </c>
       <c r="D25">
-        <v>0.2421220873644614</v>
+        <v>0.2790582630373717</v>
       </c>
       <c r="E25">
-        <v>0.7216153697042026</v>
+        <v>0.8801981669769126</v>
       </c>
       <c r="F25">
-        <v>1.187047957049586</v>
+        <v>0.3704583942116981</v>
       </c>
       <c r="G25">
-        <v>2.017535440055144</v>
+        <v>1.312988312229336</v>
       </c>
       <c r="H25">
+        <v>1.995394838223821</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
     </row>
@@ -1078,24 +1155,27 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.7800668166523466</v>
+        <v>0.7935410137827588</v>
       </c>
       <c r="C26">
-        <v>0.8931583348326971</v>
+        <v>0.8787836433617891</v>
       </c>
       <c r="D26">
-        <v>0.1664918407444261</v>
+        <v>0.3078708500926704</v>
       </c>
       <c r="E26">
-        <v>0.6908375231193936</v>
+        <v>0.8238382188174452</v>
       </c>
       <c r="F26">
-        <v>1.382465936617408</v>
+        <v>0.2699767209699272</v>
       </c>
       <c r="G26">
-        <v>1.822117460487322</v>
+        <v>1.474944712020309</v>
       </c>
       <c r="H26">
+        <v>1.833438438432847</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
     </row>
@@ -1106,24 +1186,27 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.6536732606173207</v>
+        <v>0.6381095746977777</v>
       </c>
       <c r="C27">
-        <v>0.9569605546940042</v>
+        <v>0.9303176683905298</v>
       </c>
       <c r="D27">
-        <v>0.1839316742993877</v>
+        <v>0.8602699514998019</v>
       </c>
       <c r="E27">
-        <v>0.1004508245056361</v>
+        <v>0.7553443005482967</v>
       </c>
       <c r="F27">
-        <v>1.177702621140317</v>
+        <v>0.3604370313350465</v>
       </c>
       <c r="G27">
-        <v>0.4149450505396324</v>
+        <v>1.607259840618448</v>
       </c>
       <c r="H27">
+        <v>0.2569246133958305</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
@@ -1134,25 +1217,28 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.3362214345367779</v>
+        <v>0.3523978273503682</v>
       </c>
       <c r="C28">
-        <v>0.7102751499704355</v>
+        <v>0.7072596319561249</v>
       </c>
       <c r="D28">
-        <v>0.1874413504476867</v>
+        <v>0.3915787203271082</v>
       </c>
       <c r="E28">
-        <v>0.5927489774187021</v>
+        <v>0.8806642800492545</v>
       </c>
       <c r="F28">
-        <v>1.00200860864369</v>
+        <v>0.3609319706175612</v>
       </c>
       <c r="G28">
-        <v>3.115131844371594</v>
+        <v>1.246316125260225</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2.062067025192931</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1162,24 +1248,27 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.7359954685447284</v>
+        <v>0.7488816007714504</v>
       </c>
       <c r="C29">
-        <v>0.9054842848221797</v>
+        <v>0.8357617684676489</v>
       </c>
       <c r="D29">
-        <v>0.2517875689269201</v>
+        <v>0.8461870357546613</v>
       </c>
       <c r="E29">
-        <v>0.09133933035368828</v>
+        <v>0.5120778764950192</v>
       </c>
       <c r="F29">
-        <v>1.197218013944786</v>
+        <v>0.3892246436635077</v>
       </c>
       <c r="G29">
-        <v>0.3954296577351639</v>
+        <v>1.495853481020481</v>
       </c>
       <c r="H29">
+        <v>0.3683309729937971</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
@@ -1190,25 +1279,28 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.2178838629506577</v>
+        <v>0.2208778265913654</v>
       </c>
       <c r="C30">
-        <v>0.7989229786138886</v>
+        <v>0.8041313683527472</v>
       </c>
       <c r="D30">
-        <v>0.1729803776958478</v>
+        <v>0.6163001282861581</v>
       </c>
       <c r="E30">
-        <v>0.3611162788290023</v>
+        <v>0.9087372753984355</v>
       </c>
       <c r="F30">
-        <v>0.919825245030105</v>
+        <v>0.3193237873506372</v>
       </c>
       <c r="G30">
-        <v>3.197315207985179</v>
+        <v>1.378783360674437</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>1.92959978977872</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1218,25 +1310,28 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.7849863766213546</v>
+        <v>0.8306409543250721</v>
       </c>
       <c r="C31">
-        <v>0.961538449365923</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.5196703643955527</v>
+        <v>0.9532536070670715</v>
       </c>
       <c r="E31">
-        <v>0.05897880098726113</v>
+        <v>0.9848198514089223</v>
       </c>
       <c r="F31">
-        <v>1.346957901230417</v>
+        <v>0.5769891190846617</v>
       </c>
       <c r="G31">
-        <v>3.845453688967035</v>
+        <v>1.889054518566773</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2.508296254522977</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1246,24 +1341,27 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.3093806850808903</v>
+        <v>0.3171921216683323</v>
       </c>
       <c r="C32">
-        <v>0.5124043671641231</v>
+        <v>0.515274700098179</v>
       </c>
       <c r="D32">
-        <v>0.1835383868074372</v>
+        <v>0.8021284461415169</v>
       </c>
       <c r="E32">
-        <v>0.1596689159153606</v>
+        <v>0.8806797154823149</v>
       </c>
       <c r="F32">
-        <v>0.6461076891133933</v>
+        <v>0.3531634114873132</v>
       </c>
       <c r="G32">
-        <v>1.436147102198126</v>
+        <v>1.336085949324048</v>
       </c>
       <c r="H32">
+        <v>1.075537234100191</v>
+      </c>
+      <c r="I32">
         <v>2</v>
       </c>
     </row>
@@ -1274,25 +1372,28 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.6134449196964198</v>
+        <v>0.6090141999790066</v>
       </c>
       <c r="C33">
-        <v>0.7943222618258725</v>
+        <v>0.7125766065677891</v>
       </c>
       <c r="D33">
-        <v>0.1010327212586594</v>
+        <v>0.6718705798856995</v>
       </c>
       <c r="E33">
-        <v>0.2554201883949887</v>
+        <v>0.5010125000798409</v>
       </c>
       <c r="F33">
-        <v>1.040533328893495</v>
+        <v>0.3108744437811735</v>
       </c>
       <c r="G33">
-        <v>3.076607124121789</v>
+        <v>1.257412946233629</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>0.6067715077806495</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1302,25 +1403,28 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.2871204672375908</v>
+        <v>0.2961487073081819</v>
       </c>
       <c r="C34">
-        <v>0.902072253393146</v>
+        <v>0.8858825375310666</v>
       </c>
       <c r="D34">
-        <v>0.230188538532477</v>
+        <v>0.9139797857779716</v>
       </c>
       <c r="E34">
-        <v>0.04196241288684733</v>
+        <v>0.7739227325838667</v>
       </c>
       <c r="F34">
-        <v>0.9751513320585296</v>
+        <v>0.3434404959726362</v>
       </c>
       <c r="G34">
-        <v>3.141989120956755</v>
+        <v>1.518817754690672</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>3.705075967984988</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1330,24 +1434,27 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.2556374009566448</v>
+        <v>0.2639459176515079</v>
       </c>
       <c r="C35">
-        <v>0.3584303541910978</v>
+        <v>0.3634927348844439</v>
       </c>
       <c r="D35">
-        <v>0.1629586743319662</v>
+        <v>0.8777901186088932</v>
       </c>
       <c r="E35">
-        <v>0.07558542142020618</v>
+        <v>0.8875401994267708</v>
       </c>
       <c r="F35">
-        <v>0.4754907833436167</v>
+        <v>0.3413782014839613</v>
       </c>
       <c r="G35">
-        <v>1.606764007967903</v>
+        <v>1.326664054568675</v>
       </c>
       <c r="H35">
+        <v>1.084959128855564</v>
+      </c>
+      <c r="I35">
         <v>2</v>
       </c>
     </row>
@@ -1358,25 +1465,28 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.660445627656624</v>
+        <v>0.6880207679075261</v>
       </c>
       <c r="C36">
-        <v>0.8487200127420685</v>
+        <v>0.8548776209007543</v>
       </c>
       <c r="D36">
-        <v>0.3429435107141538</v>
+        <v>0.7212291810318932</v>
       </c>
       <c r="E36">
-        <v>0.2703385491499261</v>
+        <v>0.8667506403253379</v>
       </c>
       <c r="F36">
-        <v>1.160692581960049</v>
+        <v>0.4263165095580852</v>
       </c>
       <c r="G36">
-        <v>2.956447871055235</v>
+        <v>1.573409205472408</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1.734973944980748</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1386,24 +1496,27 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.6508023451130059</v>
+        <v>0.6763671266526173</v>
       </c>
       <c r="C37">
-        <v>0.5975178076004755</v>
+        <v>0.5947731409604722</v>
       </c>
       <c r="D37">
-        <v>0.2318812730460454</v>
+        <v>0.4107481808372145</v>
       </c>
       <c r="E37">
-        <v>0.5798152488482185</v>
+        <v>0.8660440436847747</v>
       </c>
       <c r="F37">
-        <v>1.081908439005188</v>
+        <v>0.3902605011897483</v>
       </c>
       <c r="G37">
-        <v>2.122674958099542</v>
+        <v>1.315284734529851</v>
       </c>
       <c r="H37">
+        <v>1.993098415923305</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
     </row>
@@ -1414,24 +1527,27 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.8380132988592081</v>
+        <v>0.8744920986768581</v>
       </c>
       <c r="C38">
-        <v>0.9152036470050949</v>
+        <v>0.9251956172502707</v>
       </c>
       <c r="D38">
-        <v>0.3666544830133555</v>
+        <v>0.5899310492977906</v>
       </c>
       <c r="E38">
-        <v>0.4182077901584604</v>
+        <v>0.8880241192939844</v>
       </c>
       <c r="F38">
-        <v>1.359851929520024</v>
+        <v>0.4351454151799859</v>
       </c>
       <c r="G38">
-        <v>1.844731467584706</v>
+        <v>1.66052065334967</v>
       </c>
       <c r="H38">
+        <v>1.647862497103487</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
     </row>
@@ -1442,24 +1558,27 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.7761293680437859</v>
+        <v>0.7585226161437062</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.9083600259621887</v>
       </c>
       <c r="D39">
-        <v>0.1458008014385984</v>
+        <v>0.9128616580168064</v>
       </c>
       <c r="E39">
-        <v>0.006751663828755001</v>
+        <v>0.4455526936341758</v>
       </c>
       <c r="F39">
-        <v>1.274237126521057</v>
+        <v>0.3728880419970503</v>
       </c>
       <c r="G39">
-        <v>0.3184105451588928</v>
+        <v>1.559585876266319</v>
       </c>
       <c r="H39">
+        <v>0.3045985777479587</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
     </row>
@@ -1470,25 +1589,28 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.8378106217515325</v>
+        <v>0.8845389383665436</v>
       </c>
       <c r="C40">
-        <v>0.9593779994140715</v>
+        <v>0.9898556412241932</v>
       </c>
       <c r="D40">
-        <v>0.4332617364035518</v>
+        <v>0.9426231952698673</v>
       </c>
       <c r="E40">
-        <v>0.06559629949703084</v>
+        <v>0.9468486379048332</v>
       </c>
       <c r="F40">
-        <v>1.346978615427343</v>
+        <v>0.441357454079294</v>
       </c>
       <c r="G40">
-        <v>3.845432974770108</v>
+        <v>1.883423519900127</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>2.513927253189623</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1498,24 +1620,27 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.8521091965984577</v>
+        <v>0.845259427455041</v>
       </c>
       <c r="C41">
-        <v>0.9587150530386529</v>
+        <v>0.8528213199081182</v>
       </c>
       <c r="D41">
-        <v>0.1243601720600576</v>
+        <v>0.8228370678918864</v>
       </c>
       <c r="E41">
-        <v>0.09347094915974585</v>
+        <v>0.3689216432537403</v>
       </c>
       <c r="F41">
-        <v>1.292063042804881</v>
+        <v>0.3091897846682318</v>
       </c>
       <c r="G41">
-        <v>0.3005846288750691</v>
+        <v>1.50164300769171</v>
       </c>
       <c r="H41">
+        <v>0.362541446322568</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
     </row>
@@ -1526,25 +1651,28 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.09338178672310893</v>
+        <v>0.08345668768451665</v>
       </c>
       <c r="C42">
-        <v>0.8340400732695641</v>
+        <v>0.8465991883566967</v>
       </c>
       <c r="D42">
-        <v>0.1678566214662831</v>
+        <v>0.8894296436719389</v>
       </c>
       <c r="E42">
-        <v>0.07644640261683318</v>
+        <v>0.9332250636854608</v>
       </c>
       <c r="F42">
-        <v>0.8592804546562374</v>
+        <v>0.3116994041207943</v>
       </c>
       <c r="G42">
-        <v>3.257859998359047</v>
+        <v>1.544567678989371</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3.679326043686289</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1554,24 +1682,27 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.869512621106815</v>
+        <v>0.8680831588083894</v>
       </c>
       <c r="C43">
-        <v>0.9257490105707653</v>
+        <v>0.9002924620658386</v>
       </c>
       <c r="D43">
-        <v>0.05591116149762849</v>
+        <v>0.8509046825878848</v>
       </c>
       <c r="E43">
-        <v>0.1166586147885751</v>
+        <v>0.7401454879916823</v>
       </c>
       <c r="F43">
-        <v>1.27663570341002</v>
+        <v>0.06467773012688598</v>
       </c>
       <c r="G43">
-        <v>0.3160119682699294</v>
+        <v>1.684027615600099</v>
       </c>
       <c r="H43">
+        <v>0.1801568384141787</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
     </row>
@@ -1582,24 +1713,27 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.8881904541598901</v>
+        <v>0.8905641044002765</v>
       </c>
       <c r="C44">
-        <v>0.8105113999268133</v>
+        <v>0.8466245447578876</v>
       </c>
       <c r="D44">
-        <v>0.1312205511410782</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.20955770648359</v>
+        <v>0.04174486253452797</v>
       </c>
       <c r="G44">
-        <v>0.3830899651963597</v>
+        <v>1.87346671810117</v>
       </c>
       <c r="H44">
+        <v>0.009282264086891479</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
     </row>
@@ -1610,25 +1744,28 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.629470921472276</v>
+        <v>0.6077042736099176</v>
       </c>
       <c r="C45">
-        <v>0.6669839797958947</v>
+        <v>0.6839652837106036</v>
       </c>
       <c r="D45">
-        <v>0.07130595614905093</v>
+        <v>0.8508852189442553</v>
       </c>
       <c r="E45">
-        <v>0.1294921896625122</v>
+        <v>0.9375801755059191</v>
       </c>
       <c r="F45">
-        <v>0.928953194111226</v>
+        <v>0.06505260125145741</v>
       </c>
       <c r="G45">
-        <v>3.188187258904058</v>
+        <v>1.562106025468376</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0.8495171579558627</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1638,24 +1775,27 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.6790945126541589</v>
+        <v>0.6781821770997414</v>
       </c>
       <c r="C46">
-        <v>0.3593822840516951</v>
+        <v>0.3745500615888076</v>
       </c>
       <c r="D46">
-        <v>0.1099168391949723</v>
+        <v>0.8935586516902019</v>
       </c>
       <c r="E46">
-        <v>0.07739684105782292</v>
+        <v>0.9209386560914282</v>
       </c>
       <c r="F46">
-        <v>0.7799980549665148</v>
+        <v>0.1656467527681785</v>
       </c>
       <c r="G46">
-        <v>1.302256736345004</v>
+        <v>1.49893091444063</v>
       </c>
       <c r="H46">
+        <v>0.9126922689836094</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
     </row>
@@ -1666,24 +1806,27 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.8270437047185387</v>
+        <v>0.8317320234964153</v>
       </c>
       <c r="C47">
-        <v>0.9565834664588059</v>
+        <v>0.9542469885229681</v>
       </c>
       <c r="D47">
-        <v>0.1199386531202731</v>
+        <v>0.7422315440041986</v>
       </c>
       <c r="E47">
-        <v>0.2467589299839745</v>
+        <v>0.8456909856016082</v>
       </c>
       <c r="F47">
-        <v>1.293958449045429</v>
+        <v>0.1053353332427327</v>
       </c>
       <c r="G47">
-        <v>0.2986892226345208</v>
+        <v>1.693654741101996</v>
       </c>
       <c r="H47">
+        <v>0.1705297129122816</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
     </row>
@@ -1694,24 +1837,27 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.5885960654767798</v>
+        <v>0.5784431333839891</v>
       </c>
       <c r="C48">
-        <v>0.9704124193268644</v>
+        <v>0.9280090526023633</v>
       </c>
       <c r="D48">
-        <v>0.1242089489609089</v>
+        <v>0.8744567063634429</v>
       </c>
       <c r="E48">
-        <v>0.07405519316482141</v>
+        <v>0.6666095610093885</v>
       </c>
       <c r="F48">
-        <v>1.144140562393982</v>
+        <v>0.2331104112153871</v>
       </c>
       <c r="G48">
-        <v>0.4485071092859683</v>
+        <v>1.550754686726483</v>
       </c>
       <c r="H48">
+        <v>0.3134297672877948</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
     </row>
@@ -1722,24 +1868,27 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.7313217885819372</v>
+        <v>0.7476057762570708</v>
       </c>
       <c r="C49">
-        <v>0.5670639072975273</v>
+        <v>0.5629059299443772</v>
       </c>
       <c r="D49">
-        <v>0.2037481373216336</v>
+        <v>0.6920700627346887</v>
       </c>
       <c r="E49">
-        <v>0.2850889342416531</v>
+        <v>0.8374408852530588</v>
       </c>
       <c r="F49">
-        <v>0.9895362738693813</v>
+        <v>0.3151381363818239</v>
       </c>
       <c r="G49">
-        <v>2.215047123235349</v>
+        <v>1.433891798807185</v>
       </c>
       <c r="H49">
+        <v>1.874491351645971</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
     </row>
@@ -1750,25 +1899,28 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.5898905224618652</v>
+        <v>0.5932985188723172</v>
       </c>
       <c r="C50">
-        <v>0.8740972398771859</v>
+        <v>0.7955034860558164</v>
       </c>
       <c r="D50">
-        <v>0.1484523007978118</v>
+        <v>0.4913873342171768</v>
       </c>
       <c r="E50">
-        <v>0.4491344797146646</v>
+        <v>0.5242665939459379</v>
       </c>
       <c r="F50">
-        <v>1.155758054149731</v>
+        <v>0.3743882409936692</v>
       </c>
       <c r="G50">
-        <v>2.961382398865553</v>
+        <v>1.22521259485029</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>0.6389718591639884</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1778,24 +1930,27 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.5561781863578766</v>
+        <v>0.5682582495089207</v>
       </c>
       <c r="C51">
-        <v>0.5937725513646488</v>
+        <v>0.588641876783921</v>
       </c>
       <c r="D51">
-        <v>0.1607381620119033</v>
+        <v>0.3780856189714716</v>
       </c>
       <c r="E51">
-        <v>0.6075629220873693</v>
+        <v>0.877529005855277</v>
       </c>
       <c r="F51">
-        <v>1.028041574430105</v>
+        <v>0.34903028137196</v>
       </c>
       <c r="G51">
-        <v>2.176541822674625</v>
+        <v>1.257943793906958</v>
       </c>
       <c r="H51">
+        <v>2.050439356546198</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
     </row>
@@ -1809,21 +1964,24 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.9756141536965117</v>
+        <v>0.9810792772550599</v>
       </c>
       <c r="D52">
-        <v>0.1102702329154151</v>
+        <v>0.9288949527657702</v>
       </c>
       <c r="E52">
-        <v>0.06221165818250909</v>
+        <v>0.8556031805079288</v>
       </c>
       <c r="F52">
-        <v>1.402801764888396</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.1898459067915541</v>
+        <v>1.886112187550973</v>
       </c>
       <c r="H52">
+        <v>0.02192773353669497</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
     </row>
@@ -1834,24 +1992,27 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.7631223202472487</v>
+        <v>0.7513866762438913</v>
       </c>
       <c r="C53">
-        <v>0.9870415261866885</v>
+        <v>0.9275367258807796</v>
       </c>
       <c r="D53">
-        <v>0.1045143672116179</v>
+        <v>0.9253690438822545</v>
       </c>
       <c r="E53">
-        <v>0.01458398623388672</v>
+        <v>0.583103177655979</v>
       </c>
       <c r="F53">
-        <v>1.252095282190859</v>
+        <v>0.2119453184059829</v>
       </c>
       <c r="G53">
-        <v>0.340552389489091</v>
+        <v>1.619019301386656</v>
       </c>
       <c r="H53">
+        <v>0.2451651526276217</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
     </row>
@@ -1862,25 +2023,28 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.5317865734741091</v>
+        <v>0.5199191369475686</v>
       </c>
       <c r="C54">
-        <v>0.7738346255953081</v>
+        <v>0.6595294324396778</v>
       </c>
       <c r="D54">
-        <v>0.09500359918388422</v>
+        <v>0.8579540148446093</v>
       </c>
       <c r="E54">
-        <v>0.03555756496364224</v>
+        <v>0.3413335322229474</v>
       </c>
       <c r="F54">
-        <v>0.9444082865909217</v>
+        <v>0.3560996585806711</v>
       </c>
       <c r="G54">
-        <v>3.172732166424362</v>
+        <v>1.248154098269235</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0.6160303557450435</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1890,25 +2054,28 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.6805415605080568</v>
+        <v>0.7511114014457969</v>
       </c>
       <c r="C55">
-        <v>0.895267728839161</v>
+        <v>0.9321693024170571</v>
       </c>
       <c r="D55">
-        <v>0.5443862259434752</v>
+        <v>0.9120853791902477</v>
       </c>
       <c r="E55">
-        <v>0.09854892878944123</v>
+        <v>0.9566365853678274</v>
       </c>
       <c r="F55">
-        <v>1.253279448583634</v>
+        <v>0.5586700923370473</v>
       </c>
       <c r="G55">
-        <v>3.939132141613817</v>
+        <v>1.783300659212407</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>2.614050113877343</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1918,24 +2085,27 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.5523786083203375</v>
+        <v>0.5695000747278258</v>
       </c>
       <c r="C56">
-        <v>0.1974893290797908</v>
+        <v>0.2028548902391754</v>
       </c>
       <c r="D56">
-        <v>0.1742176510935038</v>
+        <v>0.8153407916783623</v>
       </c>
       <c r="E56">
-        <v>0.1457959263119675</v>
+        <v>0.8807887612899498</v>
       </c>
       <c r="F56">
-        <v>0.6290726540805928</v>
+        <v>0.3347925855151072</v>
       </c>
       <c r="G56">
-        <v>1.453182137230927</v>
+        <v>1.3438935561265</v>
       </c>
       <c r="H56">
+        <v>1.067729627297739</v>
+      </c>
+      <c r="I56">
         <v>2</v>
       </c>
     </row>
@@ -1946,25 +2116,28 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.2725859452414159</v>
+        <v>0.2833425259192716</v>
       </c>
       <c r="C57">
-        <v>0.7577910401190755</v>
+        <v>0.7438214388277015</v>
       </c>
       <c r="D57">
-        <v>0.232188613050515</v>
+        <v>0.8624419813777881</v>
       </c>
       <c r="E57">
-        <v>0.09251354575813461</v>
+        <v>0.7923072527711159</v>
       </c>
       <c r="F57">
-        <v>0.8432204137750524</v>
+        <v>0.3938134023395741</v>
       </c>
       <c r="G57">
-        <v>3.273920039240231</v>
+        <v>1.4160191643797</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>3.807874558295961</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -1974,25 +2147,28 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.7697045589513243</v>
+        <v>0.8855596580768365</v>
       </c>
       <c r="C58">
-        <v>0.9363487091225382</v>
+        <v>0.9809828561090563</v>
       </c>
       <c r="D58">
-        <v>0.8443201112256951</v>
+        <v>0.8274846596724269</v>
       </c>
       <c r="E58">
-        <v>0.2030465533832319</v>
+        <v>0.950018992649353</v>
       </c>
       <c r="F58">
-        <v>1.491072890977123</v>
+        <v>0.8612563101311376</v>
       </c>
       <c r="G58">
-        <v>3.701338699220328</v>
+        <v>1.825872454576367</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2.571478318513383</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2002,24 +2178,27 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.8602561534494041</v>
+        <v>0.8894128191504719</v>
       </c>
       <c r="C59">
-        <v>0.896986813656154</v>
+        <v>0.9151377545196239</v>
       </c>
       <c r="D59">
-        <v>0.3788464530803425</v>
+        <v>0.5209958256638181</v>
       </c>
       <c r="E59">
-        <v>0.4952303603326453</v>
+        <v>0.9372580021197446</v>
       </c>
       <c r="F59">
-        <v>1.390468891499318</v>
+        <v>0.4763546934981487</v>
       </c>
       <c r="G59">
-        <v>1.814114505605412</v>
+        <v>1.666859767800828</v>
       </c>
       <c r="H59">
+        <v>1.641523382652329</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
     </row>
@@ -2030,24 +2209,27 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.5769874863229939</v>
+        <v>0.596349051851228</v>
       </c>
       <c r="C60">
-        <v>0.6941544200500913</v>
+        <v>0.6899910761659928</v>
       </c>
       <c r="D60">
-        <v>0.09227723771216885</v>
+        <v>0.3416579812693152</v>
       </c>
       <c r="E60">
-        <v>0.6503748993168169</v>
+        <v>0.8658023691107247</v>
       </c>
       <c r="F60">
-        <v>1.116363523458893</v>
+        <v>0.1490551967238661</v>
       </c>
       <c r="G60">
-        <v>2.088219873645837</v>
+        <v>1.303097768916566</v>
       </c>
       <c r="H60">
+        <v>2.005285381536591</v>
+      </c>
+      <c r="I60">
         <v>3</v>
       </c>
     </row>
@@ -2058,25 +2240,28 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.8348418926394234</v>
+        <v>0.838996079959373</v>
       </c>
       <c r="C61">
-        <v>0.9732556301883671</v>
+        <v>0.9704731248732887</v>
       </c>
       <c r="D61">
-        <v>0.2735342628245416</v>
+        <v>0.9155444968055927</v>
       </c>
       <c r="E61">
-        <v>0.0671960839291391</v>
+        <v>0.8283775980821496</v>
       </c>
       <c r="F61">
-        <v>1.312830458982997</v>
+        <v>0.343045440317634</v>
       </c>
       <c r="G61">
-        <v>0.2798172126969525</v>
+        <v>1.780495346504415</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2.616855426585334</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2086,24 +2271,27 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.5823689256081314</v>
+        <v>0.6039216821900633</v>
       </c>
       <c r="C62">
-        <v>0.4518982108767606</v>
+        <v>0.4448042915986104</v>
       </c>
       <c r="D62">
-        <v>0.1788950097857715</v>
+        <v>0.4735005847242132</v>
       </c>
       <c r="E62">
-        <v>0.5041651111655402</v>
+        <v>0.8447482142551268</v>
       </c>
       <c r="F62">
-        <v>0.910797146652535</v>
+        <v>0.3382645904228616</v>
       </c>
       <c r="G62">
-        <v>2.293786250452195</v>
+        <v>1.224897793803718</v>
       </c>
       <c r="H62">
+        <v>2.083485356649439</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
     </row>
@@ -2114,24 +2302,27 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.589689573495269</v>
+        <v>0.6046615715157808</v>
       </c>
       <c r="C63">
-        <v>0.6635273381112689</v>
+        <v>0.6460391909357945</v>
       </c>
       <c r="D63">
-        <v>0.2009022759548472</v>
+        <v>0.4979868460921483</v>
       </c>
       <c r="E63">
-        <v>0.4779169605616789</v>
+        <v>0.797650514974929</v>
       </c>
       <c r="F63">
-        <v>1.027992542378791</v>
+        <v>0.3664447075180248</v>
       </c>
       <c r="G63">
-        <v>2.176590854725939</v>
+        <v>1.29120854055938</v>
       </c>
       <c r="H63">
+        <v>2.017174609893776</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
     </row>
@@ -2142,24 +2333,27 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.7713045519017463</v>
+        <v>0.7890755489934701</v>
       </c>
       <c r="C64">
-        <v>0.9066294922850977</v>
+        <v>0.9335840904237551</v>
       </c>
       <c r="D64">
-        <v>0.25667081220703</v>
+        <v>0.8461573598523074</v>
       </c>
       <c r="E64">
-        <v>0.1568292039287303</v>
+        <v>0.9595708525522517</v>
       </c>
       <c r="F64">
-        <v>1.227747145429149</v>
+        <v>0.237418995366967</v>
       </c>
       <c r="G64">
-        <v>0.3649005262508012</v>
+        <v>1.769456971675711</v>
       </c>
       <c r="H64">
+        <v>0.09472748233856665</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
     </row>
@@ -2170,25 +2364,28 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.6039297471140713</v>
+        <v>0.6412440278550161</v>
       </c>
       <c r="C65">
-        <v>0.7141751313788597</v>
+        <v>0.7270322532597613</v>
       </c>
       <c r="D65">
-        <v>0.3658964231690922</v>
+        <v>0.7800536305528977</v>
       </c>
       <c r="E65">
-        <v>0.2084395037075704</v>
+        <v>0.8919878163675477</v>
       </c>
       <c r="F65">
-        <v>1.025721442167936</v>
+        <v>0.4670545582304759</v>
       </c>
       <c r="G65">
-        <v>3.091419010847348</v>
+        <v>1.530978684249586</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1.77740446620357</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2198,24 +2395,27 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.8259636837526148</v>
+        <v>0.8177123818074138</v>
       </c>
       <c r="C66">
-        <v>0.9782138508098254</v>
+        <v>0.9362744283116794</v>
       </c>
       <c r="D66">
-        <v>0.1441578979126931</v>
+        <v>0.8905251322717528</v>
       </c>
       <c r="E66">
-        <v>0.06480570236740346</v>
+        <v>0.6655326455286829</v>
       </c>
       <c r="F66">
-        <v>1.28999985402492</v>
+        <v>0.2487359569177729</v>
       </c>
       <c r="G66">
-        <v>0.3026478176550296</v>
+        <v>1.667702628751165</v>
       </c>
       <c r="H66">
+        <v>0.1964818252631131</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
     </row>
@@ -2226,24 +2426,27 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.2842519832801393</v>
+        <v>0.3095224878116759</v>
       </c>
       <c r="C67">
-        <v>0.4334359534130907</v>
+        <v>0.4393319432750994</v>
       </c>
       <c r="D67">
-        <v>0.2631779644608362</v>
+        <v>0.8939809899888681</v>
       </c>
       <c r="E67">
-        <v>0.06477322370414984</v>
+        <v>0.8725345870355931</v>
       </c>
       <c r="F67">
-        <v>0.5849137775745965</v>
+        <v>0.4272708212251678</v>
       </c>
       <c r="G67">
-        <v>1.497341013736923</v>
+        <v>1.359902696106546</v>
       </c>
       <c r="H67">
+        <v>1.051720487317693</v>
+      </c>
+      <c r="I67">
         <v>2</v>
       </c>
     </row>
@@ -2254,24 +2457,27 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.5157785051803367</v>
+        <v>0.5218973665049129</v>
       </c>
       <c r="C68">
-        <v>0.6557860097819196</v>
+        <v>0.652755703822576</v>
       </c>
       <c r="D68">
-        <v>0.1528900326304085</v>
+        <v>0.4251243479524838</v>
       </c>
       <c r="E68">
-        <v>0.559907732283814</v>
+        <v>0.8875575368898329</v>
       </c>
       <c r="F68">
-        <v>1.016343833444512</v>
+        <v>0.3313729893697001</v>
       </c>
       <c r="G68">
-        <v>2.188239563660218</v>
+        <v>1.291106487687844</v>
       </c>
       <c r="H68">
+        <v>2.017276662765312</v>
+      </c>
+      <c r="I68">
         <v>3</v>
       </c>
     </row>
@@ -2282,24 +2488,27 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.8087161004268731</v>
+        <v>0.8270397601190881</v>
       </c>
       <c r="C69">
-        <v>0.9624219153538036</v>
+        <v>0.8959244988065571</v>
       </c>
       <c r="D69">
-        <v>0.2562568836196096</v>
+        <v>0.8553280724435529</v>
       </c>
       <c r="E69">
-        <v>0.08833122470196306</v>
+        <v>0.5173431702763052</v>
       </c>
       <c r="F69">
-        <v>1.285981209000627</v>
+        <v>0.3449107790569283</v>
       </c>
       <c r="G69">
-        <v>0.3066664626793225</v>
+        <v>1.576675470641045</v>
       </c>
       <c r="H69">
+        <v>0.2875089833732329</v>
+      </c>
+      <c r="I69">
         <v>1</v>
       </c>
     </row>
@@ -2310,24 +2519,27 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.6310097669860751</v>
+        <v>0.6246948571657702</v>
       </c>
       <c r="C70">
-        <v>0.3737201837232693</v>
+        <v>0.372996545049257</v>
       </c>
       <c r="D70">
-        <v>0.1027201075759455</v>
+        <v>0.7553424253293692</v>
       </c>
       <c r="E70">
-        <v>0.2101735930164715</v>
+        <v>0.8596766456568691</v>
       </c>
       <c r="F70">
-        <v>0.769782086993353</v>
+        <v>0.1994058111552987</v>
       </c>
       <c r="G70">
-        <v>1.312472704318166</v>
+        <v>1.356081192915212</v>
       </c>
       <c r="H70">
+        <v>1.055541990509027</v>
+      </c>
+      <c r="I70">
         <v>2</v>
       </c>
     </row>
@@ -2338,25 +2550,28 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.5047884333945129</v>
+        <v>0.4828164001479559</v>
       </c>
       <c r="C71">
-        <v>0.9545158701935999</v>
+        <v>0.9636173121603081</v>
       </c>
       <c r="D71">
-        <v>0.157052969542045</v>
+        <v>0.616029624154314</v>
       </c>
       <c r="E71">
-        <v>0.3749350732838275</v>
+        <v>0.9403056056976249</v>
       </c>
       <c r="F71">
-        <v>1.153756409889304</v>
+        <v>0.2849949200504784</v>
       </c>
       <c r="G71">
-        <v>2.96338404312598</v>
+        <v>1.557349392554211</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>1.751033757898945</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2366,25 +2581,28 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.3253303262909799</v>
+        <v>0.3033090533708254</v>
       </c>
       <c r="C72">
-        <v>0.9852541673893482</v>
+        <v>0.9710488804940102</v>
       </c>
       <c r="D72">
-        <v>0.1702274133080117</v>
+        <v>0.9427774772176215</v>
       </c>
       <c r="E72">
-        <v>0.01333415106821483</v>
+        <v>0.8117196582615128</v>
       </c>
       <c r="F72">
-        <v>1.051532580279337</v>
+        <v>0.3279683566779791</v>
       </c>
       <c r="G72">
-        <v>3.065607872735947</v>
+        <v>1.607062688672221</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>3.61683103400344</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -2394,24 +2612,27 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.803872816532372</v>
+        <v>0.8049918713726668</v>
       </c>
       <c r="C73">
-        <v>0.9053872275200109</v>
+        <v>0.8723739320055802</v>
       </c>
       <c r="D73">
-        <v>0.1174959810542748</v>
+        <v>0.7581626352655083</v>
       </c>
       <c r="E73">
-        <v>0.2070927934696392</v>
+        <v>0.7086952010825123</v>
       </c>
       <c r="F73">
-        <v>1.233949053886353</v>
+        <v>0.1831632202643398</v>
       </c>
       <c r="G73">
-        <v>0.3586986177935967</v>
+        <v>1.576739566247092</v>
       </c>
       <c r="H73">
+        <v>0.2874448877671862</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
     </row>
@@ -2422,24 +2643,27 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.7761946338764526</v>
+        <v>0.7789161010027976</v>
       </c>
       <c r="C74">
-        <v>0.8327557174007194</v>
+        <v>0.7860479474847403</v>
       </c>
       <c r="D74">
-        <v>0.1473185398077266</v>
+        <v>0.7830719345358124</v>
       </c>
       <c r="E74">
-        <v>0.1696169052914255</v>
+        <v>0.6367233957015095</v>
       </c>
       <c r="F74">
-        <v>1.160358927769295</v>
+        <v>0.2407680711765946</v>
       </c>
       <c r="G74">
-        <v>0.4322887439106546</v>
+        <v>1.497731619963234</v>
       </c>
       <c r="H74">
+        <v>0.3664528340510438</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
     </row>

--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tap_UWS_excursion_No_watp</t>
+          <t>dugwell_tap_no_bott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Natural_Commodity_Water_No_phom</t>
+          <t>natural_commodity_water_no_phom</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Protected_Well_No_pipy</t>
+          <t>protected_well_no_pipy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Water_Trucking_No_bore</t>
+          <t>water_trucking_no_bore</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Spring_No_well</t>
+          <t>spring_no_well</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -429,7 +429,7 @@
         <v>1.666236283447777</v>
       </c>
       <c r="H2">
-        <v>0.1979481705665012</v>
+        <v>0.2468799096934229</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>1.370350412657819</v>
       </c>
       <c r="H3">
-        <v>1.04127277076642</v>
+        <v>1.057869595371587</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -491,7 +491,7 @@
         <v>1.737541857635365</v>
       </c>
       <c r="H4">
-        <v>0.1266425963789131</v>
+        <v>0.1755743355058348</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -522,7 +522,7 @@
         <v>1.240932401824763</v>
       </c>
       <c r="H5">
-        <v>1.170690781599476</v>
+        <v>1.187287606204643</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -584,7 +584,7 @@
         <v>1.205712228789037</v>
       </c>
       <c r="H7">
-        <v>0.6584722252252406</v>
+        <v>0.7074039643521624</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1.638374502666449</v>
       </c>
       <c r="H8">
-        <v>0.2258099513478289</v>
+        <v>0.2747416904747506</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>1.581790297040112</v>
       </c>
       <c r="H10">
-        <v>0.2823941569741661</v>
+        <v>0.3313258961010879</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -708,10 +708,10 @@
         <v>1.871142431159411</v>
       </c>
       <c r="H11">
-        <v>2.526208341930339</v>
+        <v>0.04197376198178837</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -739,10 +739,10 @@
         <v>1.499857547901631</v>
       </c>
       <c r="H12">
-        <v>3.724036174774029</v>
+        <v>0.9283624601277751</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -770,7 +770,7 @@
         <v>1.543175193099507</v>
       </c>
       <c r="H13">
-        <v>0.321009260914771</v>
+        <v>0.3699410000416927</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>1.766815670273457</v>
       </c>
       <c r="H14">
-        <v>0.09736878374082081</v>
+        <v>0.1463005228677425</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>1.325537977276926</v>
       </c>
       <c r="H15">
-        <v>1.086085206147313</v>
+        <v>1.10268203075248</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -925,10 +925,10 @@
         <v>1.883727989807934</v>
       </c>
       <c r="H18">
-        <v>2.513622783281816</v>
+        <v>0.02938820333326575</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -987,10 +987,10 @@
         <v>1.551483363142755</v>
       </c>
       <c r="H20">
-        <v>3.672410359532905</v>
+        <v>0.8767366448866509</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1018,7 +1018,7 @@
         <v>1.331917021578685</v>
       </c>
       <c r="H21">
-        <v>1.079706161845554</v>
+        <v>1.096302986450721</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1049,7 +1049,7 @@
         <v>1.856362613100919</v>
       </c>
       <c r="H22">
-        <v>0.007821840913358802</v>
+        <v>0.05675358004028053</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>1.710706159053285</v>
       </c>
       <c r="H24">
-        <v>2.686644614036465</v>
+        <v>0.2024100340879149</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1204,7 +1204,7 @@
         <v>1.607259840618448</v>
       </c>
       <c r="H27">
-        <v>0.2569246133958305</v>
+        <v>0.3058563525227522</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>1.495853481020481</v>
       </c>
       <c r="H29">
-        <v>0.3683309729937971</v>
+        <v>0.4172627121207189</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1328,10 +1328,10 @@
         <v>1.889054518566773</v>
       </c>
       <c r="H31">
-        <v>2.508296254522977</v>
+        <v>0.02406167457442709</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1359,7 +1359,7 @@
         <v>1.336085949324048</v>
       </c>
       <c r="H32">
-        <v>1.075537234100191</v>
+        <v>1.092134058705358</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1390,7 +1390,7 @@
         <v>1.257412946233629</v>
       </c>
       <c r="H33">
-        <v>0.6067715077806495</v>
+        <v>0.6557032469075712</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1421,10 +1421,10 @@
         <v>1.518817754690672</v>
       </c>
       <c r="H34">
-        <v>3.705075967984988</v>
+        <v>0.909402253338734</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1452,7 +1452,7 @@
         <v>1.326664054568675</v>
       </c>
       <c r="H35">
-        <v>1.084959128855564</v>
+        <v>1.101555953460731</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>1.559585876266319</v>
       </c>
       <c r="H39">
-        <v>0.3045985777479587</v>
+        <v>0.3535303168748805</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1607,10 +1607,10 @@
         <v>1.883423519900127</v>
       </c>
       <c r="H40">
-        <v>2.513927253189623</v>
+        <v>0.02969267324107316</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1638,7 +1638,7 @@
         <v>1.50164300769171</v>
       </c>
       <c r="H41">
-        <v>0.362541446322568</v>
+        <v>0.4114731854494897</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1669,10 +1669,10 @@
         <v>1.544567678989371</v>
       </c>
       <c r="H42">
-        <v>3.679326043686289</v>
+        <v>0.8836523290400349</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1700,7 +1700,7 @@
         <v>1.684027615600099</v>
       </c>
       <c r="H43">
-        <v>0.1801568384141787</v>
+        <v>0.2290885775411005</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>1.87346671810117</v>
       </c>
       <c r="H44">
-        <v>0.009282264086891479</v>
+        <v>0.03964947504003025</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>1.562106025468376</v>
       </c>
       <c r="H45">
-        <v>0.8495171579558627</v>
+        <v>0.8661139825610298</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -1793,7 +1793,7 @@
         <v>1.49893091444063</v>
       </c>
       <c r="H46">
-        <v>0.9126922689836094</v>
+        <v>0.9292890935887765</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -1824,7 +1824,7 @@
         <v>1.693654741101996</v>
       </c>
       <c r="H47">
-        <v>0.1705297129122816</v>
+        <v>0.2194614520392033</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>1.550754686726483</v>
       </c>
       <c r="H48">
-        <v>0.3134297672877948</v>
+        <v>0.3623615064147165</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         <v>1.22521259485029</v>
       </c>
       <c r="H50">
-        <v>0.6389718591639884</v>
+        <v>0.6879035982909101</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>1.886112187550973</v>
       </c>
       <c r="H52">
-        <v>0.02192773353669497</v>
+        <v>0.02700400559022675</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>1.619019301386656</v>
       </c>
       <c r="H53">
-        <v>0.2451651526276217</v>
+        <v>0.2940968917545435</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>1.248154098269235</v>
       </c>
       <c r="H54">
-        <v>0.6160303557450435</v>
+        <v>0.6649620948719652</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2072,10 +2072,10 @@
         <v>1.783300659212407</v>
       </c>
       <c r="H55">
-        <v>2.614050113877343</v>
+        <v>0.1298155339287925</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2103,7 +2103,7 @@
         <v>1.3438935561265</v>
       </c>
       <c r="H56">
-        <v>1.067729627297739</v>
+        <v>1.084326451902906</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2134,10 +2134,10 @@
         <v>1.4160191643797</v>
       </c>
       <c r="H57">
-        <v>3.807874558295961</v>
+        <v>1.012200843649707</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2165,10 +2165,10 @@
         <v>1.825872454576367</v>
       </c>
       <c r="H58">
-        <v>2.571478318513383</v>
+        <v>0.08724373856483236</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2258,10 +2258,10 @@
         <v>1.780495346504415</v>
       </c>
       <c r="H61">
-        <v>2.616855426585334</v>
+        <v>0.1326208466367844</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2351,7 +2351,7 @@
         <v>1.769456971675711</v>
       </c>
       <c r="H64">
-        <v>0.09472748233856665</v>
+        <v>0.1436592214654884</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>1.667702628751165</v>
       </c>
       <c r="H66">
-        <v>0.1964818252631131</v>
+        <v>0.2454135643900348</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>1.359902696106546</v>
       </c>
       <c r="H67">
-        <v>1.051720487317693</v>
+        <v>1.06831731192286</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>1.576675470641045</v>
       </c>
       <c r="H69">
-        <v>0.2875089833732329</v>
+        <v>0.3364407225001547</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2537,7 +2537,7 @@
         <v>1.356081192915212</v>
       </c>
       <c r="H70">
-        <v>1.055541990509027</v>
+        <v>1.072138815114194</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -2599,10 +2599,10 @@
         <v>1.607062688672221</v>
       </c>
       <c r="H72">
-        <v>3.61683103400344</v>
+        <v>0.8211573193571855</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2630,7 +2630,7 @@
         <v>1.576739566247092</v>
       </c>
       <c r="H73">
-        <v>0.2874448877671862</v>
+        <v>0.336376626894108</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2661,7 +2661,7 @@
         <v>1.497731619963234</v>
       </c>
       <c r="H74">
-        <v>0.3664528340510438</v>
+        <v>0.4153845731779655</v>
       </c>
       <c r="I74">
         <v>1</v>

--- a/results/df-fa-cluster-rank.xlsx
+++ b/results/df-fa-cluster-rank.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>natural_commodity_water_no_phom</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>spring_no_well</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>protected_well_no_pipy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>water_trucking_no_bore</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>dugwell_tap_no_bott</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>natural_commodity_water_no_phom</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>protected_well_no_pipy</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>water_trucking_no_bore</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>spring_no_well</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -411,25 +411,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7180895458444897</v>
+        <v>0.37860810547924</v>
       </c>
       <c r="C2">
-        <v>0.9471794628042387</v>
+        <v>0.6054630982421287</v>
       </c>
       <c r="D2">
-        <v>0.883587232823279</v>
+        <v>0.4398335349144496</v>
       </c>
       <c r="E2">
-        <v>0.7634234890676924</v>
+        <v>0.5169148237810761</v>
       </c>
       <c r="F2">
-        <v>0.2686459068632295</v>
+        <v>0.3941816894808592</v>
       </c>
       <c r="G2">
-        <v>1.666236283447777</v>
+        <v>0.9851822848323544</v>
       </c>
       <c r="H2">
-        <v>0.2468799096934229</v>
+        <v>0.4403266915449382</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -442,25 +442,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4514531053161297</v>
+        <v>0.1374996930512995</v>
       </c>
       <c r="C3">
-        <v>0.451805439652944</v>
+        <v>0.167962452359574</v>
       </c>
       <c r="D3">
-        <v>0.8256810492230599</v>
+        <v>0.1735878432854467</v>
       </c>
       <c r="E3">
-        <v>0.8877910772393439</v>
+        <v>0.8503784878760169</v>
       </c>
       <c r="F3">
-        <v>0.3345355515831426</v>
+        <v>0.3456189962439017</v>
       </c>
       <c r="G3">
-        <v>1.370350412657819</v>
+        <v>0.894647340000873</v>
       </c>
       <c r="H3">
-        <v>1.057869595371587</v>
+        <v>1.310930105277124</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -473,25 +473,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7249451410971303</v>
+        <v>0.4238036002360227</v>
       </c>
       <c r="C4">
-        <v>0.9538644412538156</v>
+        <v>0.6233491942818576</v>
       </c>
       <c r="D4">
-        <v>0.8199021660562208</v>
+        <v>0.513843161594323</v>
       </c>
       <c r="E4">
-        <v>0.9546775975388132</v>
+        <v>0.6639955978161501</v>
       </c>
       <c r="F4">
-        <v>0.2823771352030169</v>
+        <v>0.4389020612811098</v>
       </c>
       <c r="G4">
-        <v>1.737541857635365</v>
+        <v>1.128316736657457</v>
       </c>
       <c r="H4">
-        <v>0.1755743355058348</v>
+        <v>0.2971922397198361</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -504,25 +504,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5306486422187154</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006983021973441856</v>
+        <v>0.002252355435700771</v>
       </c>
       <c r="D5">
-        <v>0.7361201049089476</v>
+        <v>0.1151603776093063</v>
       </c>
       <c r="E5">
-        <v>0.8464063285225165</v>
+        <v>0.9899717593177034</v>
       </c>
       <c r="F5">
-        <v>0.3454024701813137</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.240932401824763</v>
+        <v>0.9966499234549289</v>
       </c>
       <c r="H5">
-        <v>1.187287606204643</v>
+        <v>1.208927521823068</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -535,25 +535,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.5745546071103607</v>
+        <v>0.215702034261702</v>
       </c>
       <c r="C6">
-        <v>0.5654467503400457</v>
+        <v>0.204107962069363</v>
       </c>
       <c r="D6">
-        <v>0.5808396571098221</v>
+        <v>0.4847073028764705</v>
       </c>
       <c r="E6">
-        <v>0.7953093312965301</v>
+        <v>0.7011007892548125</v>
       </c>
       <c r="F6">
-        <v>0.3850819995803583</v>
+        <v>0.2276693341145948</v>
       </c>
       <c r="G6">
-        <v>1.272687967940551</v>
+        <v>0.9025912219383969</v>
       </c>
       <c r="H6">
-        <v>2.035695182512606</v>
+        <v>2.268217016998595</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4949341747857009</v>
+        <v>0.08900232835183163</v>
       </c>
       <c r="C7">
-        <v>0.7614084820170408</v>
+        <v>0.1645338754891485</v>
       </c>
       <c r="D7">
-        <v>0.7931199561183232</v>
+        <v>0.2832823480296564</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3454895602160054</v>
+        <v>0.1961306655599404</v>
       </c>
       <c r="G7">
-        <v>1.205712228789037</v>
+        <v>0.3394726783420445</v>
       </c>
       <c r="H7">
-        <v>0.7074039643521624</v>
+        <v>1.086036298035248</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -597,25 +597,25 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7928975423022673</v>
+        <v>0.3093180729486195</v>
       </c>
       <c r="C8">
-        <v>0.9041149825907661</v>
+        <v>0.6844461019025947</v>
       </c>
       <c r="D8">
-        <v>0.887661842522509</v>
+        <v>0.4443813812544071</v>
       </c>
       <c r="E8">
-        <v>0.6709821532522321</v>
+        <v>0.472057968262336</v>
       </c>
       <c r="F8">
-        <v>0.1622302338539469</v>
+        <v>0.3025271873449032</v>
       </c>
       <c r="G8">
-        <v>1.638374502666449</v>
+        <v>0.9921984045884391</v>
       </c>
       <c r="H8">
-        <v>0.2747416904747506</v>
+        <v>0.4333105717888535</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -628,25 +628,25 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.5947537572484442</v>
+        <v>0.08511927867502257</v>
       </c>
       <c r="C9">
-        <v>0.6138423610532964</v>
+        <v>0.1758744175001936</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.8500887431023124</v>
+        <v>0.7536284139039488</v>
       </c>
       <c r="F9">
-        <v>0.2507167496506863</v>
+        <v>0.1800460246538417</v>
       </c>
       <c r="G9">
-        <v>1.205481375689353</v>
+        <v>1.267332982517448</v>
       </c>
       <c r="H9">
-        <v>2.102901774763803</v>
+        <v>1.903475256419545</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -659,25 +659,25 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.8890768528944868</v>
+        <v>0.332389631708566</v>
       </c>
       <c r="C10">
-        <v>0.8966560311504216</v>
+        <v>0.6862942233977999</v>
       </c>
       <c r="D10">
-        <v>0.7857610492849423</v>
+        <v>0.5700352398587129</v>
       </c>
       <c r="E10">
-        <v>0.5386932602935377</v>
+        <v>0.348112878379525</v>
       </c>
       <c r="F10">
-        <v>0.1966478556879807</v>
+        <v>0.1540055389176266</v>
       </c>
       <c r="G10">
-        <v>1.581790297040112</v>
+        <v>1.013708724985143</v>
       </c>
       <c r="H10">
-        <v>0.3313258961010879</v>
+        <v>0.4118002513921499</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.9087831956879205</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9775723983360852</v>
+        <v>0.4081622990211214</v>
       </c>
       <c r="D11">
-        <v>0.8953105482298027</v>
+        <v>0.6014436151565805</v>
       </c>
       <c r="E11">
-        <v>0.9581536041576465</v>
+        <v>0.4777808154990012</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1743640335817195</v>
       </c>
       <c r="G11">
-        <v>1.871142431159411</v>
+        <v>1.325369907691326</v>
       </c>
       <c r="H11">
-        <v>0.04197376198178837</v>
+        <v>0.1001390686859662</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -721,28 +721,28 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4234257304579915</v>
+        <v>0.1477545930019207</v>
       </c>
       <c r="C12">
-        <v>0.8608245987037939</v>
+        <v>0.3914328662551107</v>
       </c>
       <c r="D12">
-        <v>0.9063279019632731</v>
+        <v>0.2275245166450688</v>
       </c>
       <c r="E12">
-        <v>0.7126247674428061</v>
+        <v>0.5740804420259595</v>
       </c>
       <c r="F12">
-        <v>0.1833658099843105</v>
+        <v>0.5879489798367857</v>
       </c>
       <c r="G12">
-        <v>1.499857547901631</v>
+        <v>0.745913445467467</v>
       </c>
       <c r="H12">
-        <v>0.9283624601277751</v>
+        <v>3.326240849530842</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7592854735066161</v>
+        <v>0.3999182024227658</v>
       </c>
       <c r="C13">
-        <v>0.848475359788303</v>
+        <v>0.4990248681285047</v>
       </c>
       <c r="D13">
-        <v>0.8241884945554521</v>
+        <v>0.4715324493235238</v>
       </c>
       <c r="E13">
-        <v>0.6369286738670679</v>
+        <v>0.4278911701172217</v>
       </c>
       <c r="F13">
-        <v>0.3784255910036735</v>
+        <v>0.2327401648041904</v>
       </c>
       <c r="G13">
-        <v>1.543175193099507</v>
+        <v>0.9024378603920906</v>
       </c>
       <c r="H13">
-        <v>0.3699410000416927</v>
+        <v>0.523071115985202</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -783,25 +783,25 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.9581418637420921</v>
+        <v>0.3240012589151352</v>
       </c>
       <c r="C14">
-        <v>0.9458166907811915</v>
+        <v>0.9013835985839157</v>
       </c>
       <c r="D14">
-        <v>0.9287170951482461</v>
+        <v>0.501580903318618</v>
       </c>
       <c r="E14">
-        <v>0.6682193698837203</v>
+        <v>0.4537853914681756</v>
       </c>
       <c r="F14">
-        <v>0.03748433450164374</v>
+        <v>0.2244257712409631</v>
       </c>
       <c r="G14">
-        <v>1.766815670273457</v>
+        <v>1.172592764628253</v>
       </c>
       <c r="H14">
-        <v>0.1463005228677425</v>
+        <v>0.25291621174904</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4853457823356224</v>
+        <v>0.02214741325687635</v>
       </c>
       <c r="C15">
-        <v>0.106185798951067</v>
+        <v>0.06070090218618214</v>
       </c>
       <c r="D15">
-        <v>0.8824535425406396</v>
+        <v>0.005798361109362105</v>
       </c>
       <c r="E15">
-        <v>0.8552723087596289</v>
+        <v>0.9661084885977459</v>
       </c>
       <c r="F15">
-        <v>0.3229754543558596</v>
+        <v>0.1256519970519421</v>
       </c>
       <c r="G15">
-        <v>1.325537977276926</v>
+        <v>0.9682842248907925</v>
       </c>
       <c r="H15">
-        <v>1.10268203075248</v>
+        <v>1.237293220387204</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -845,25 +845,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.5894446395927322</v>
+        <v>0.2929136248849009</v>
       </c>
       <c r="C16">
-        <v>0.8036041288591692</v>
+        <v>0.3558187756388855</v>
       </c>
       <c r="D16">
-        <v>0.540040392230267</v>
+        <v>0.6239621852513133</v>
       </c>
       <c r="E16">
-        <v>0.9169945377806743</v>
+        <v>0.708191628235378</v>
       </c>
       <c r="F16">
-        <v>0.3318525675956157</v>
+        <v>0.3918664099074576</v>
       </c>
       <c r="G16">
-        <v>1.457994234084594</v>
+        <v>1.050366404483044</v>
       </c>
       <c r="H16">
-        <v>1.850388916368562</v>
+        <v>2.120441834453948</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7962028190152029</v>
+        <v>0.4766704329092389</v>
       </c>
       <c r="C17">
-        <v>0.9091915080091327</v>
+        <v>0.5061929402201787</v>
       </c>
       <c r="D17">
-        <v>0.5914171770205003</v>
+        <v>0.727603233245901</v>
       </c>
       <c r="E17">
-        <v>0.838485023893031</v>
+        <v>0.5509206960866621</v>
       </c>
       <c r="F17">
-        <v>0.4217600265486122</v>
+        <v>0.2510256000460155</v>
       </c>
       <c r="G17">
-        <v>1.585370473993846</v>
+        <v>1.147329975528022</v>
       </c>
       <c r="H17">
-        <v>1.723012676459311</v>
+        <v>0.2781790008492704</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -907,25 +907,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.9338632910695532</v>
+        <v>0.8870157516400352</v>
       </c>
       <c r="C18">
-        <v>0.9863501748813739</v>
+        <v>0.5310671660662611</v>
       </c>
       <c r="D18">
-        <v>0.8940652644730955</v>
+        <v>0.605318646122783</v>
       </c>
       <c r="E18">
-        <v>0.9508370673005547</v>
+        <v>0.5049481696481608</v>
       </c>
       <c r="F18">
-        <v>0.8080736039084056</v>
+        <v>0.1951674922477848</v>
       </c>
       <c r="G18">
-        <v>1.883727989807934</v>
+        <v>1.300081765084848</v>
       </c>
       <c r="H18">
-        <v>0.02938820333326575</v>
+        <v>0.1254272112924448</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.7957377337719244</v>
+        <v>0.3016676406506052</v>
       </c>
       <c r="C19">
-        <v>0.8329563348665035</v>
+        <v>0.5951416512261936</v>
       </c>
       <c r="D19">
-        <v>0.6173187348305432</v>
+        <v>0.6595111317983502</v>
       </c>
       <c r="E19">
-        <v>0.8183406951921071</v>
+        <v>0.6136773804535081</v>
       </c>
       <c r="F19">
-        <v>0.1983815609761743</v>
+        <v>0.2515738801294872</v>
       </c>
       <c r="G19">
-        <v>1.542004769941715</v>
+        <v>1.121049423837399</v>
       </c>
       <c r="H19">
-        <v>1.766378380511442</v>
+        <v>0.3044595525398939</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -969,28 +969,28 @@
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.08929942417124334</v>
       </c>
       <c r="C20">
-        <v>0.9376933368921523</v>
+        <v>0.06099100307554368</v>
       </c>
       <c r="D20">
-        <v>0.8224768869088507</v>
+        <v>0.1345893110940799</v>
       </c>
       <c r="E20">
-        <v>0.9226936666941745</v>
+        <v>0.7489241815835165</v>
       </c>
       <c r="F20">
-        <v>0.3023039980618857</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.551483363142755</v>
+        <v>0.7685674999860426</v>
       </c>
       <c r="H20">
-        <v>0.8767366448866509</v>
+        <v>3.303586795012266</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1000,25 +1000,25 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.5357064126203996</v>
+        <v>0.01704204529686534</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.04020883123023998</v>
       </c>
       <c r="D21">
-        <v>0.8685153516553078</v>
+        <v>0.00334844095506473</v>
       </c>
       <c r="E21">
-        <v>0.8559805347012711</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.3407127377803487</v>
+        <v>0.01943771407366398</v>
       </c>
       <c r="G21">
-        <v>1.331917021578685</v>
+        <v>1.000958737148356</v>
       </c>
       <c r="H21">
-        <v>1.096302986450721</v>
+        <v>1.20461870812964</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1031,25 +1031,25 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8478301553235335</v>
+        <v>0.3694121470196452</v>
       </c>
       <c r="C22">
-        <v>0.8595646865773674</v>
+        <v>0.8157388778551036</v>
       </c>
       <c r="D22">
-        <v>0.9972345653506967</v>
+        <v>0.3815373101559206</v>
       </c>
       <c r="E22">
-        <v>0.9969643676189763</v>
+        <v>0.7534731314217225</v>
       </c>
       <c r="F22">
-        <v>0.114117622979366</v>
+        <v>0.365444888750621</v>
       </c>
       <c r="G22">
-        <v>1.856362613100919</v>
+        <v>1.230929620256755</v>
       </c>
       <c r="H22">
-        <v>0.05675358004028053</v>
+        <v>0.1945793561205376</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.8021826596180517</v>
+        <v>0.3663075935433198</v>
       </c>
       <c r="C23">
-        <v>0.7676978377098264</v>
+        <v>0.5092059063090556</v>
       </c>
       <c r="D23">
-        <v>0.5951194285074031</v>
+        <v>0.6672520940790505</v>
       </c>
       <c r="E23">
-        <v>0.8596281823626256</v>
+        <v>0.6477240416632806</v>
       </c>
       <c r="F23">
-        <v>0.3197843523143971</v>
+        <v>0.1943262334115918</v>
       </c>
       <c r="G23">
-        <v>1.525117941509864</v>
+        <v>1.121714624719237</v>
       </c>
       <c r="H23">
-        <v>1.783265208943293</v>
+        <v>0.3037943516580559</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1093,25 +1093,25 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.8711539967829488</v>
+        <v>0.6788833240144442</v>
       </c>
       <c r="C24">
-        <v>0.9522723266717554</v>
+        <v>0.5133104331897724</v>
       </c>
       <c r="D24">
-        <v>0.7439125334944239</v>
+        <v>0.6670191170111786</v>
       </c>
       <c r="E24">
-        <v>0.841057569300108</v>
+        <v>0.4810217401803793</v>
       </c>
       <c r="F24">
-        <v>0.6201949218173555</v>
+        <v>0.2028855381819477</v>
       </c>
       <c r="G24">
-        <v>1.710706159053285</v>
+        <v>1.183497606854744</v>
       </c>
       <c r="H24">
-        <v>0.2024100340879149</v>
+        <v>0.242011369522549</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1124,25 +1124,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.6774925620922622</v>
+        <v>0.2570996449400474</v>
       </c>
       <c r="C25">
-        <v>0.642121335139668</v>
+        <v>0.2606618198320522</v>
       </c>
       <c r="D25">
-        <v>0.2790582630373717</v>
+        <v>0.8271645984304589</v>
       </c>
       <c r="E25">
-        <v>0.8801981669769126</v>
+        <v>0.7266637131122983</v>
       </c>
       <c r="F25">
-        <v>0.3704583942116981</v>
+        <v>0.1642703575284754</v>
       </c>
       <c r="G25">
-        <v>1.312988312229336</v>
+        <v>1.160295753933983</v>
       </c>
       <c r="H25">
-        <v>1.995394838223821</v>
+        <v>2.010512485003009</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1155,28 +1155,28 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.7935410137827588</v>
+        <v>0.3225016071042833</v>
       </c>
       <c r="C26">
-        <v>0.8787836433617891</v>
+        <v>0.4987421398758482</v>
       </c>
       <c r="D26">
-        <v>0.3078708500926704</v>
+        <v>0.9431844467959191</v>
       </c>
       <c r="E26">
-        <v>0.8238382188174452</v>
+        <v>0.5860268121421215</v>
       </c>
       <c r="F26">
-        <v>0.2699767209699272</v>
+        <v>0.2116469931199755</v>
       </c>
       <c r="G26">
-        <v>1.474944712020309</v>
+        <v>1.259275717982352</v>
       </c>
       <c r="H26">
-        <v>1.833438438432847</v>
+        <v>0.1662332583949411</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1186,25 +1186,25 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.6381095746977777</v>
+        <v>0.3909169092278594</v>
       </c>
       <c r="C27">
-        <v>0.9303176683905298</v>
+        <v>0.4826834361319597</v>
       </c>
       <c r="D27">
-        <v>0.8602699514998019</v>
+        <v>0.4178154235845504</v>
       </c>
       <c r="E27">
-        <v>0.7553443005482967</v>
+        <v>0.510216187373979</v>
       </c>
       <c r="F27">
-        <v>0.3604370313350465</v>
+        <v>0.4239481658454889</v>
       </c>
       <c r="G27">
-        <v>1.607259840618448</v>
+        <v>0.9059192102389675</v>
       </c>
       <c r="H27">
-        <v>0.3058563525227522</v>
+        <v>0.5195897661383251</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1217,28 +1217,28 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.3523978273503682</v>
+        <v>0.1395316285303666</v>
       </c>
       <c r="C28">
-        <v>0.7072596319561249</v>
+        <v>0.07945423171343025</v>
       </c>
       <c r="D28">
-        <v>0.3915787203271082</v>
+        <v>0.5907108668870076</v>
       </c>
       <c r="E28">
-        <v>0.8806642800492545</v>
+        <v>0.7495124813045958</v>
       </c>
       <c r="F28">
-        <v>0.3609319706175612</v>
+        <v>0.4848277265769483</v>
       </c>
       <c r="G28">
-        <v>1.246316125260225</v>
+        <v>0.9677243089781715</v>
       </c>
       <c r="H28">
-        <v>2.062067025192931</v>
+        <v>3.104429986020137</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1248,25 +1248,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.7488816007714504</v>
+        <v>0.3749329728563592</v>
       </c>
       <c r="C29">
-        <v>0.8357617684676489</v>
+        <v>0.4639869387716651</v>
       </c>
       <c r="D29">
-        <v>0.8461870357546613</v>
+        <v>0.4348450216997136</v>
       </c>
       <c r="E29">
-        <v>0.5120778764950192</v>
+        <v>0.3322132272591632</v>
       </c>
       <c r="F29">
-        <v>0.3892246436635077</v>
+        <v>0.1961717315185454</v>
       </c>
       <c r="G29">
-        <v>1.495853481020481</v>
+        <v>0.8095149379403577</v>
       </c>
       <c r="H29">
-        <v>0.4172627121207189</v>
+        <v>0.6159940384369349</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1279,28 +1279,28 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.2208778265913654</v>
+        <v>0.1231424830617932</v>
       </c>
       <c r="C30">
-        <v>0.8041313683527472</v>
+        <v>0.1057617039478416</v>
       </c>
       <c r="D30">
-        <v>0.6163001282861581</v>
+        <v>0.3701484461121527</v>
       </c>
       <c r="E30">
-        <v>0.9087372753984355</v>
+        <v>0.7584405909654273</v>
       </c>
       <c r="F30">
-        <v>0.3193237873506372</v>
+        <v>0.7024405075804551</v>
       </c>
       <c r="G30">
-        <v>1.378783360674437</v>
+        <v>0.8594135275522504</v>
       </c>
       <c r="H30">
-        <v>1.92959978977872</v>
+        <v>3.212740767446058</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1310,25 +1310,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.8306409543250721</v>
+        <v>0.7075571816932016</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.6035226596531975</v>
       </c>
       <c r="D31">
-        <v>0.9532536070670715</v>
+        <v>0.4946760023992498</v>
       </c>
       <c r="E31">
-        <v>0.9848198514089223</v>
+        <v>0.5902005758247939</v>
       </c>
       <c r="F31">
-        <v>0.5769891190846617</v>
+        <v>0.3537125468895475</v>
       </c>
       <c r="G31">
-        <v>1.889054518566773</v>
+        <v>1.207442683167245</v>
       </c>
       <c r="H31">
-        <v>0.02406167457442709</v>
+        <v>0.2180662932100475</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1341,25 +1341,25 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.3171921216683323</v>
+        <v>0.1057521479396167</v>
       </c>
       <c r="C32">
-        <v>0.515274700098179</v>
+        <v>0.07797548950065247</v>
       </c>
       <c r="D32">
-        <v>0.8021284461415169</v>
+        <v>0.1503799197060093</v>
       </c>
       <c r="E32">
-        <v>0.8806797154823149</v>
+        <v>0.8343131984081218</v>
       </c>
       <c r="F32">
-        <v>0.3531634114873132</v>
+        <v>0.4793500051305901</v>
       </c>
       <c r="G32">
-        <v>1.336085949324048</v>
+        <v>0.857878969928442</v>
       </c>
       <c r="H32">
-        <v>1.092134058705358</v>
+        <v>1.347698475349555</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -1372,25 +1372,25 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.6090141999790066</v>
+        <v>0.1879086006493307</v>
       </c>
       <c r="C33">
-        <v>0.7125766065677891</v>
+        <v>0.3036341647311658</v>
       </c>
       <c r="D33">
-        <v>0.6718705798856995</v>
+        <v>0.4571751734861795</v>
       </c>
       <c r="E33">
-        <v>0.5010125000798409</v>
+        <v>0.4133574649520798</v>
       </c>
       <c r="F33">
-        <v>0.3108744437811735</v>
+        <v>0.2207514082056487</v>
       </c>
       <c r="G33">
-        <v>1.257412946233629</v>
+        <v>0.7123039247917357</v>
       </c>
       <c r="H33">
-        <v>0.6557032469075712</v>
+        <v>0.7132050515855569</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1403,28 +1403,28 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.2961487073081819</v>
+        <v>0.2167232123985194</v>
       </c>
       <c r="C34">
-        <v>0.8858825375310666</v>
+        <v>0.2346967824686141</v>
       </c>
       <c r="D34">
-        <v>0.9139797857779716</v>
+        <v>0.180761450625485</v>
       </c>
       <c r="E34">
-        <v>0.7739227325838667</v>
+        <v>0.5979393731024585</v>
       </c>
       <c r="F34">
-        <v>0.3434404959726362</v>
+        <v>0.6931487461821813</v>
       </c>
       <c r="G34">
-        <v>1.518817754690672</v>
+        <v>0.7016108083772972</v>
       </c>
       <c r="H34">
-        <v>0.909402253338734</v>
+        <v>3.370543486621012</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.2639459176515079</v>
+        <v>0.03053246927454773</v>
       </c>
       <c r="C35">
-        <v>0.3634927348844439</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.8777901186088932</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.8875401994267708</v>
+        <v>0.9133496754058943</v>
       </c>
       <c r="F35">
-        <v>0.3413782014839613</v>
+        <v>0.4546569519572882</v>
       </c>
       <c r="G35">
-        <v>1.326664054568675</v>
+        <v>0.9138598695883596</v>
       </c>
       <c r="H35">
-        <v>1.101555953460731</v>
+        <v>1.291717575689637</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -1465,25 +1465,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.6880207679075261</v>
+        <v>0.4338049198968876</v>
       </c>
       <c r="C36">
-        <v>0.8548776209007543</v>
+        <v>0.4373218364970234</v>
       </c>
       <c r="D36">
-        <v>0.7212291810318932</v>
+        <v>0.5437347406877751</v>
       </c>
       <c r="E36">
-        <v>0.8667506403253379</v>
+        <v>0.610709022408801</v>
       </c>
       <c r="F36">
-        <v>0.4263165095580852</v>
+        <v>0.3385942414850379</v>
       </c>
       <c r="G36">
-        <v>1.573409205472408</v>
+        <v>1.023743168712832</v>
       </c>
       <c r="H36">
-        <v>1.734973944980748</v>
+        <v>2.147065070224161</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -1496,25 +1496,25 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.6763671266526173</v>
+        <v>0.2678292622464582</v>
       </c>
       <c r="C37">
-        <v>0.5947731409604722</v>
+        <v>0.2595149425888851</v>
       </c>
       <c r="D37">
-        <v>0.4107481808372145</v>
+        <v>0.6971563394202163</v>
       </c>
       <c r="E37">
-        <v>0.8660440436847747</v>
+        <v>0.7303325839378392</v>
       </c>
       <c r="F37">
-        <v>0.3902605011897483</v>
+        <v>0.1533816559037851</v>
       </c>
       <c r="G37">
-        <v>1.315284734529851</v>
+        <v>1.076333203008024</v>
       </c>
       <c r="H37">
-        <v>1.993098415923305</v>
+        <v>2.094475035928969</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.8744920986768581</v>
+        <v>0.5374699926784561</v>
       </c>
       <c r="C38">
-        <v>0.9251956172502707</v>
+        <v>0.5724109765649704</v>
       </c>
       <c r="D38">
-        <v>0.5899310492977906</v>
+        <v>0.7793136478726639</v>
       </c>
       <c r="E38">
-        <v>0.8880241192939844</v>
+        <v>0.5694750332508369</v>
       </c>
       <c r="F38">
-        <v>0.4351454151799859</v>
+        <v>0.209711720122306</v>
       </c>
       <c r="G38">
-        <v>1.66052065334967</v>
+        <v>1.244250736137408</v>
       </c>
       <c r="H38">
-        <v>1.647862497103487</v>
+        <v>0.1812582402398841</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1558,25 +1558,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.7585226161437062</v>
+        <v>0.3903587006423346</v>
       </c>
       <c r="C39">
-        <v>0.9083600259621887</v>
+        <v>0.5158772635219858</v>
       </c>
       <c r="D39">
-        <v>0.9128616580168064</v>
+        <v>0.40584770554186</v>
       </c>
       <c r="E39">
-        <v>0.4455526936341758</v>
+        <v>0.250039981392535</v>
       </c>
       <c r="F39">
-        <v>0.3728880419970503</v>
+        <v>0.2233709602612146</v>
       </c>
       <c r="G39">
-        <v>1.559585876266319</v>
+        <v>0.8035804991253059</v>
       </c>
       <c r="H39">
-        <v>0.3535303168748805</v>
+        <v>0.6219284772519866</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1589,25 +1589,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.8845389383665436</v>
+        <v>0.6304536524085928</v>
       </c>
       <c r="C40">
-        <v>0.9898556412241932</v>
+        <v>0.7022505929793724</v>
       </c>
       <c r="D40">
-        <v>0.9426231952698673</v>
+        <v>0.5155364227379119</v>
       </c>
       <c r="E40">
-        <v>0.9468486379048332</v>
+        <v>0.5846068903036332</v>
       </c>
       <c r="F40">
-        <v>0.441357454079294</v>
+        <v>0.317957006286028</v>
       </c>
       <c r="G40">
-        <v>1.883423519900127</v>
+        <v>1.223997844170937</v>
       </c>
       <c r="H40">
-        <v>0.02969267324107316</v>
+        <v>0.2015111322063554</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1620,25 +1620,25 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.845259427455041</v>
+        <v>0.340385852010151</v>
       </c>
       <c r="C41">
-        <v>0.8528213199081182</v>
+        <v>0.5549919491277608</v>
       </c>
       <c r="D41">
-        <v>0.8228370678918864</v>
+        <v>0.495217641145805</v>
       </c>
       <c r="E41">
-        <v>0.3689216432537403</v>
+        <v>0.2128874400696618</v>
       </c>
       <c r="F41">
-        <v>0.3091897846682318</v>
+        <v>0.09480932014783443</v>
       </c>
       <c r="G41">
-        <v>1.50164300769171</v>
+        <v>0.8452456247072425</v>
       </c>
       <c r="H41">
-        <v>0.4114731854494897</v>
+        <v>0.5802633516700501</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.08345668768451665</v>
+        <v>0.1126944077195089</v>
       </c>
       <c r="C42">
-        <v>0.8465991883566967</v>
+        <v>0.09788345592854511</v>
       </c>
       <c r="D42">
-        <v>0.8894296436719389</v>
+        <v>0.08654936204278145</v>
       </c>
       <c r="E42">
-        <v>0.9332250636854608</v>
+        <v>0.7807038972705539</v>
       </c>
       <c r="F42">
-        <v>0.3116994041207943</v>
+        <v>0.8947622555126208</v>
       </c>
       <c r="G42">
-        <v>1.544567678989371</v>
+        <v>0.7995439748751849</v>
       </c>
       <c r="H42">
-        <v>0.8836523290400349</v>
+        <v>3.272610320123124</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1682,25 +1682,25 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.8680831588083894</v>
+        <v>0.287819128625246</v>
       </c>
       <c r="C43">
-        <v>0.9002924620658386</v>
+        <v>0.7935075731216946</v>
       </c>
       <c r="D43">
-        <v>0.8509046825878848</v>
+        <v>0.5105633163098777</v>
       </c>
       <c r="E43">
-        <v>0.7401454879916823</v>
+        <v>0.5387133090332767</v>
       </c>
       <c r="F43">
-        <v>0.06467773012688598</v>
+        <v>0.274804894324059</v>
       </c>
       <c r="G43">
-        <v>1.684027615600099</v>
+        <v>1.124002245858522</v>
       </c>
       <c r="H43">
-        <v>0.2290885775411005</v>
+        <v>0.3015067305187711</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1713,25 +1713,25 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.8905641044002765</v>
+        <v>0.3379922110463368</v>
       </c>
       <c r="C44">
-        <v>0.8466245447578876</v>
+        <v>0.8817607543554251</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.3913375617878093</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.7701940493294157</v>
       </c>
       <c r="F44">
-        <v>0.04174486253452797</v>
+        <v>0.3397379611267418</v>
       </c>
       <c r="G44">
-        <v>1.87346671810117</v>
+        <v>1.279876839206769</v>
       </c>
       <c r="H44">
-        <v>0.03964947504003025</v>
+        <v>0.1456321371705236</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1744,25 +1744,25 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.6077042736099176</v>
+        <v>0.1302408605823024</v>
       </c>
       <c r="C45">
-        <v>0.6839652837106036</v>
+        <v>0.5414217555084808</v>
       </c>
       <c r="D45">
-        <v>0.8508852189442553</v>
+        <v>0.3073652346070889</v>
       </c>
       <c r="E45">
-        <v>0.9375801755059191</v>
+        <v>0.8264135118508165</v>
       </c>
       <c r="F45">
-        <v>0.06505260125145741</v>
+        <v>0.4250154133313393</v>
       </c>
       <c r="G45">
-        <v>1.562106025468376</v>
+        <v>1.042848444941917</v>
       </c>
       <c r="H45">
-        <v>0.8661139825610298</v>
+        <v>1.16272900033608</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -1775,25 +1775,25 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.6781821770997414</v>
+        <v>0.1198682035745439</v>
       </c>
       <c r="C46">
-        <v>0.3745500615888076</v>
+        <v>0.4164201406616568</v>
       </c>
       <c r="D46">
-        <v>0.8935586516902019</v>
+        <v>0.1928317845561923</v>
       </c>
       <c r="E46">
-        <v>0.9209386560914282</v>
+        <v>0.9107150008645785</v>
       </c>
       <c r="F46">
-        <v>0.1656467527681785</v>
+        <v>0.1759571242661456</v>
       </c>
       <c r="G46">
-        <v>1.49893091444063</v>
+        <v>1.026820349287916</v>
       </c>
       <c r="H46">
-        <v>0.9292890935887765</v>
+        <v>1.178757095990081</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -1806,25 +1806,25 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.8317320234964153</v>
+        <v>0.3238590739894021</v>
       </c>
       <c r="C47">
-        <v>0.9542469885229681</v>
+        <v>0.7589642759235648</v>
       </c>
       <c r="D47">
-        <v>0.7422315440041986</v>
+        <v>0.6148553207368467</v>
       </c>
       <c r="E47">
-        <v>0.8456909856016082</v>
+        <v>0.5982860487339937</v>
       </c>
       <c r="F47">
-        <v>0.1053353332427327</v>
+        <v>0.3404472815483584</v>
       </c>
       <c r="G47">
-        <v>1.693654741101996</v>
+        <v>1.190338075288529</v>
       </c>
       <c r="H47">
-        <v>0.2194614520392033</v>
+        <v>0.2351709010887637</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1837,25 +1837,25 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.5784431333839891</v>
+        <v>0.2625077706061623</v>
       </c>
       <c r="C48">
-        <v>0.9280090526023633</v>
+        <v>0.4931411824171468</v>
       </c>
       <c r="D48">
-        <v>0.8744567063634429</v>
+        <v>0.3598400883527819</v>
       </c>
       <c r="E48">
-        <v>0.6666095610093885</v>
+        <v>0.4756426966936041</v>
       </c>
       <c r="F48">
-        <v>0.2331104112153871</v>
+        <v>0.4707397454703294</v>
       </c>
       <c r="G48">
-        <v>1.550754686726483</v>
+        <v>0.8172021901146013</v>
       </c>
       <c r="H48">
-        <v>0.3623615064147165</v>
+        <v>0.6083067862626913</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -1868,25 +1868,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.7476057762570708</v>
+        <v>0.2730120295238055</v>
       </c>
       <c r="C49">
-        <v>0.5629059299443772</v>
+        <v>0.4041477675203857</v>
       </c>
       <c r="D49">
-        <v>0.6920700627346887</v>
+        <v>0.4761084537813239</v>
       </c>
       <c r="E49">
-        <v>0.8374408852530588</v>
+        <v>0.7242298944789988</v>
       </c>
       <c r="F49">
-        <v>0.3151381363818239</v>
+        <v>0.1339781504277696</v>
       </c>
       <c r="G49">
-        <v>1.433891798807185</v>
+        <v>0.9945145479456415</v>
       </c>
       <c r="H49">
-        <v>1.874491351645971</v>
+        <v>2.176293690991351</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -1899,25 +1899,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.5932985188723172</v>
+        <v>0.2320624949043921</v>
       </c>
       <c r="C50">
-        <v>0.7955034860558164</v>
+        <v>0.2524913080024229</v>
       </c>
       <c r="D50">
-        <v>0.4913873342171768</v>
+        <v>0.6398893366428801</v>
       </c>
       <c r="E50">
-        <v>0.5242665939459379</v>
+        <v>0.387336429391719</v>
       </c>
       <c r="F50">
-        <v>0.3743882409936692</v>
+        <v>0.2427295276162471</v>
       </c>
       <c r="G50">
-        <v>1.22521259485029</v>
+        <v>0.8228564485019344</v>
       </c>
       <c r="H50">
-        <v>0.6879035982909101</v>
+        <v>0.6026525278753582</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -1930,25 +1930,25 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.5682582495089207</v>
+        <v>0.1863431917592368</v>
       </c>
       <c r="C51">
-        <v>0.588641876783921</v>
+        <v>0.1921485327891822</v>
       </c>
       <c r="D51">
-        <v>0.3780856189714716</v>
+        <v>0.6652668886681408</v>
       </c>
       <c r="E51">
-        <v>0.877529005855277</v>
+        <v>0.7671103514926263</v>
       </c>
       <c r="F51">
-        <v>0.34903028137196</v>
+        <v>0.2431336395509409</v>
       </c>
       <c r="G51">
-        <v>1.257943793906958</v>
+        <v>1.050087219374364</v>
       </c>
       <c r="H51">
-        <v>2.050439356546198</v>
+        <v>2.120721019562629</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.3700990512264346</v>
       </c>
       <c r="C52">
-        <v>0.9810792772550599</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.9288949527657702</v>
+        <v>0.5467960768026011</v>
       </c>
       <c r="E52">
-        <v>0.8556031805079288</v>
+        <v>0.5909761633776248</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.2774554322953927</v>
       </c>
       <c r="G52">
-        <v>1.886112187550973</v>
+        <v>1.336118289301498</v>
       </c>
       <c r="H52">
-        <v>0.02700400559022675</v>
+        <v>0.08939068707579501</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -1992,25 +1992,25 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.7513866762438913</v>
+        <v>0.3183194858219158</v>
       </c>
       <c r="C53">
-        <v>0.9275367258807796</v>
+        <v>0.6312491649169789</v>
       </c>
       <c r="D53">
-        <v>0.9253690438822545</v>
+        <v>0.3976881672030233</v>
       </c>
       <c r="E53">
-        <v>0.583103177655979</v>
+        <v>0.3872373925475159</v>
       </c>
       <c r="F53">
-        <v>0.2119453184059829</v>
+        <v>0.318036754257141</v>
       </c>
       <c r="G53">
-        <v>1.619019301386656</v>
+        <v>0.898838962096443</v>
       </c>
       <c r="H53">
-        <v>0.2940968917545435</v>
+        <v>0.5266700142808496</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2023,25 +2023,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.5199191369475686</v>
+        <v>0.150112643480478</v>
       </c>
       <c r="C54">
-        <v>0.6595294324396778</v>
+        <v>0.2093821482464568</v>
       </c>
       <c r="D54">
-        <v>0.8579540148446093</v>
+        <v>0.225770471687149</v>
       </c>
       <c r="E54">
-        <v>0.3413335322229474</v>
+        <v>0.3101053765036838</v>
       </c>
       <c r="F54">
-        <v>0.3560996585806711</v>
+        <v>0.2359801604177216</v>
       </c>
       <c r="G54">
-        <v>1.248154098269235</v>
+        <v>0.4620739552921453</v>
       </c>
       <c r="H54">
-        <v>0.6649620948719652</v>
+        <v>0.9634350210851472</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2054,25 +2054,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.7511114014457969</v>
+        <v>0.6227540638156141</v>
       </c>
       <c r="C55">
-        <v>0.9321693024170571</v>
+        <v>0.5099967048769454</v>
       </c>
       <c r="D55">
-        <v>0.9120853791902477</v>
+        <v>0.4594574195369656</v>
       </c>
       <c r="E55">
-        <v>0.9566365853678274</v>
+        <v>0.6119710371068492</v>
       </c>
       <c r="F55">
-        <v>0.5586700923370473</v>
+        <v>0.3670074785220746</v>
       </c>
       <c r="G55">
-        <v>1.783300659212407</v>
+        <v>1.110643477273154</v>
       </c>
       <c r="H55">
-        <v>0.1298155339287925</v>
+        <v>0.3148654991041382</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2085,25 +2085,25 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.5695000747278258</v>
+        <v>0.09967866617435159</v>
       </c>
       <c r="C56">
-        <v>0.2028548902391754</v>
+        <v>0.1459494737541952</v>
       </c>
       <c r="D56">
-        <v>0.8153407916783623</v>
+        <v>0.1455643155131141</v>
       </c>
       <c r="E56">
-        <v>0.8807887612899498</v>
+        <v>0.9314630996666015</v>
       </c>
       <c r="F56">
-        <v>0.3347925855151072</v>
+        <v>0.1061489979652205</v>
       </c>
       <c r="G56">
-        <v>1.3438935561265</v>
+        <v>0.9591921399650536</v>
       </c>
       <c r="H56">
-        <v>1.084326451902906</v>
+        <v>1.246385305312943</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2116,28 +2116,28 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.2833425259192716</v>
+        <v>0.1893241263354704</v>
       </c>
       <c r="C57">
-        <v>0.7438214388277015</v>
+        <v>0.128207774228103</v>
       </c>
       <c r="D57">
-        <v>0.8624419813777881</v>
+        <v>0.167379877901918</v>
       </c>
       <c r="E57">
-        <v>0.7923072527711159</v>
+        <v>0.663802681096796</v>
       </c>
       <c r="F57">
-        <v>0.3938134023395741</v>
+        <v>0.6099584859791144</v>
       </c>
       <c r="G57">
-        <v>1.4160191643797</v>
+        <v>0.7217554164278707</v>
       </c>
       <c r="H57">
-        <v>1.012200843649707</v>
+        <v>3.350398878570438</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2147,25 +2147,25 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.8855596580768365</v>
+        <v>0.8882750395112022</v>
       </c>
       <c r="C58">
-        <v>0.9809828561090563</v>
+        <v>0.4477779176289458</v>
       </c>
       <c r="D58">
-        <v>0.8274846596724269</v>
+        <v>0.6384372929759447</v>
       </c>
       <c r="E58">
-        <v>0.950018992649353</v>
+        <v>0.5029392371926392</v>
       </c>
       <c r="F58">
-        <v>0.8612563101311376</v>
+        <v>0.2082897462758141</v>
       </c>
       <c r="G58">
-        <v>1.825872454576367</v>
+        <v>1.284557380074985</v>
       </c>
       <c r="H58">
-        <v>0.08724373856483236</v>
+        <v>0.1409515963023078</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2178,28 +2178,28 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.8894128191504719</v>
+        <v>0.5684225895050638</v>
       </c>
       <c r="C59">
-        <v>0.9151377545196239</v>
+        <v>0.5486635544640451</v>
       </c>
       <c r="D59">
-        <v>0.5209958256638181</v>
+        <v>0.8474970446694069</v>
       </c>
       <c r="E59">
-        <v>0.9372580021197446</v>
+        <v>0.6026942438035161</v>
       </c>
       <c r="F59">
-        <v>0.4763546934981487</v>
+        <v>0.1870990799881795</v>
       </c>
       <c r="G59">
-        <v>1.666859767800828</v>
+        <v>1.305996756693535</v>
       </c>
       <c r="H59">
-        <v>1.641523382652329</v>
+        <v>0.1195122196837573</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2209,25 +2209,25 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.596349051851228</v>
+        <v>0.09706043702595729</v>
       </c>
       <c r="C60">
-        <v>0.6899910761659928</v>
+        <v>0.35146101151432</v>
       </c>
       <c r="D60">
-        <v>0.3416579812693152</v>
+        <v>0.7355076168920529</v>
       </c>
       <c r="E60">
-        <v>0.8658023691107247</v>
+        <v>0.7534262397176739</v>
       </c>
       <c r="F60">
-        <v>0.1490551967238661</v>
+        <v>0.3076642662344015</v>
       </c>
       <c r="G60">
-        <v>1.303097768916566</v>
+        <v>1.114256758674445</v>
       </c>
       <c r="H60">
-        <v>2.005285381536591</v>
+        <v>2.056551480262548</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -2240,25 +2240,25 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.838996079959373</v>
+        <v>0.5096463975090511</v>
       </c>
       <c r="C61">
-        <v>0.9704731248732887</v>
+        <v>0.6850904522550292</v>
       </c>
       <c r="D61">
-        <v>0.9155444968055927</v>
+        <v>0.4929723360336532</v>
       </c>
       <c r="E61">
-        <v>0.8283775980821496</v>
+        <v>0.5253680844751781</v>
       </c>
       <c r="F61">
-        <v>0.343045440317634</v>
+        <v>0.3211900574852541</v>
       </c>
       <c r="G61">
-        <v>1.780495346504415</v>
+        <v>1.117193683541287</v>
       </c>
       <c r="H61">
-        <v>0.1326208466367844</v>
+        <v>0.3083152928360056</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2271,25 +2271,25 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.6039216821900633</v>
+        <v>0.1503741314603009</v>
       </c>
       <c r="C62">
-        <v>0.4448042915986104</v>
+        <v>0.181300446088326</v>
       </c>
       <c r="D62">
-        <v>0.4735005847242132</v>
+        <v>0.5439766258941465</v>
       </c>
       <c r="E62">
-        <v>0.8447482142551268</v>
+        <v>0.79743832628943</v>
       </c>
       <c r="F62">
-        <v>0.3382645904228616</v>
+        <v>0.1420598781496164</v>
       </c>
       <c r="G62">
-        <v>1.224897793803718</v>
+        <v>0.9936300543556106</v>
       </c>
       <c r="H62">
-        <v>2.083485356649439</v>
+        <v>2.177178184581382</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.6046615715157808</v>
+        <v>0.2354626739934722</v>
       </c>
       <c r="C63">
-        <v>0.6460391909357945</v>
+        <v>0.2505109069448988</v>
       </c>
       <c r="D63">
-        <v>0.4979868460921483</v>
+        <v>0.6003432772618731</v>
       </c>
       <c r="E63">
-        <v>0.797650514974929</v>
+        <v>0.6691679981443229</v>
       </c>
       <c r="F63">
-        <v>0.3664447075180248</v>
+        <v>0.2386360545424719</v>
       </c>
       <c r="G63">
-        <v>1.29120854055938</v>
+        <v>0.9624948029140307</v>
       </c>
       <c r="H63">
-        <v>2.017174609893776</v>
+        <v>2.208313436022962</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -2333,25 +2333,25 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.7890755489934701</v>
+        <v>0.4212834121838566</v>
       </c>
       <c r="C64">
-        <v>0.9335840904237551</v>
+        <v>0.6937824745143233</v>
       </c>
       <c r="D64">
-        <v>0.8461573598523074</v>
+        <v>0.5138067738594548</v>
       </c>
       <c r="E64">
-        <v>0.9595708525522517</v>
+        <v>0.676172317885387</v>
       </c>
       <c r="F64">
-        <v>0.237418995366967</v>
+        <v>0.3910655783632627</v>
       </c>
       <c r="G64">
-        <v>1.769456971675711</v>
+        <v>1.174742626988077</v>
       </c>
       <c r="H64">
-        <v>0.1436592214654884</v>
+        <v>0.2507663493892154</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2364,25 +2364,25 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.6412440278550161</v>
+        <v>0.4061676762177369</v>
       </c>
       <c r="C65">
-        <v>0.7270322532597613</v>
+        <v>0.3454110091824543</v>
       </c>
       <c r="D65">
-        <v>0.7800536305528977</v>
+        <v>0.4249709575346669</v>
       </c>
       <c r="E65">
-        <v>0.8919878163675477</v>
+        <v>0.6825303026795034</v>
       </c>
       <c r="F65">
-        <v>0.4670545582304759</v>
+        <v>0.3144486520249263</v>
       </c>
       <c r="G65">
-        <v>1.530978684249586</v>
+        <v>0.9647429063187063</v>
       </c>
       <c r="H65">
-        <v>1.77740446620357</v>
+        <v>2.206065332618286</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -2395,25 +2395,25 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.8177123818074138</v>
+        <v>0.3884966918231512</v>
       </c>
       <c r="C66">
-        <v>0.9362744283116794</v>
+        <v>0.67039253953159</v>
       </c>
       <c r="D66">
-        <v>0.8905251322717528</v>
+        <v>0.4725262246732364</v>
       </c>
       <c r="E66">
-        <v>0.6655326455286829</v>
+        <v>0.4322721652501644</v>
       </c>
       <c r="F66">
-        <v>0.2487359569177729</v>
+        <v>0.2820519891192763</v>
       </c>
       <c r="G66">
-        <v>1.667702628751165</v>
+        <v>1.005234348035897</v>
       </c>
       <c r="H66">
-        <v>0.2454135643900348</v>
+        <v>0.4202746283413958</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2426,25 +2426,25 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.3095224878116759</v>
+        <v>0.1345409143808791</v>
       </c>
       <c r="C67">
-        <v>0.4393319432750994</v>
+        <v>0.02200615646268134</v>
       </c>
       <c r="D67">
-        <v>0.8939809899888681</v>
+        <v>0.04370690528901593</v>
       </c>
       <c r="E67">
-        <v>0.8725345870355931</v>
+        <v>0.8445558376414979</v>
       </c>
       <c r="F67">
-        <v>0.4272708212251678</v>
+        <v>0.441536857056563</v>
       </c>
       <c r="G67">
-        <v>1.359902696106546</v>
+        <v>0.8566039837807072</v>
       </c>
       <c r="H67">
-        <v>1.06831731192286</v>
+        <v>1.348973461497289</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -2457,25 +2457,25 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.5218973665049129</v>
+        <v>0.1849786713066997</v>
       </c>
       <c r="C68">
-        <v>0.652755703822576</v>
+        <v>0.2077735030918338</v>
       </c>
       <c r="D68">
-        <v>0.4251243479524838</v>
+        <v>0.6261743685293989</v>
       </c>
       <c r="E68">
-        <v>0.8875575368898329</v>
+        <v>0.7586386562948208</v>
       </c>
       <c r="F68">
-        <v>0.3313729893697001</v>
+        <v>0.3316680160820311</v>
       </c>
       <c r="G68">
-        <v>1.291106487687844</v>
+        <v>1.022259207859458</v>
       </c>
       <c r="H68">
-        <v>2.017276662765312</v>
+        <v>2.148549031077534</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -2488,25 +2488,25 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.8270397601190881</v>
+        <v>0.4060376717574559</v>
       </c>
       <c r="C69">
-        <v>0.8959244988065571</v>
+        <v>0.5745794926220353</v>
       </c>
       <c r="D69">
-        <v>0.8553280724435529</v>
+        <v>0.4877154742285955</v>
       </c>
       <c r="E69">
-        <v>0.5173431702763052</v>
+        <v>0.3088705813145832</v>
       </c>
       <c r="F69">
-        <v>0.3449107790569283</v>
+        <v>0.1793232598620332</v>
       </c>
       <c r="G69">
-        <v>1.576675470641045</v>
+        <v>0.9100964806171066</v>
       </c>
       <c r="H69">
-        <v>0.3364407225001547</v>
+        <v>0.515412495760186</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2519,25 +2519,25 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.6246948571657702</v>
+        <v>0.08497333083415525</v>
       </c>
       <c r="C70">
-        <v>0.372996545049257</v>
+        <v>0.312896151083146</v>
       </c>
       <c r="D70">
-        <v>0.7553424253293692</v>
+        <v>0.2799520096964024</v>
       </c>
       <c r="E70">
-        <v>0.8596766456568691</v>
+        <v>0.8639302350655507</v>
       </c>
       <c r="F70">
-        <v>0.1994058111552987</v>
+        <v>0.1674794941168471</v>
       </c>
       <c r="G70">
-        <v>1.356081192915212</v>
+        <v>0.964299251845178</v>
       </c>
       <c r="H70">
-        <v>1.072138815114194</v>
+        <v>1.241278193432819</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -2550,25 +2550,25 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.4828164001479559</v>
+        <v>0.2857915354196733</v>
       </c>
       <c r="C71">
-        <v>0.9636173121603081</v>
+        <v>0.3924377365976181</v>
       </c>
       <c r="D71">
-        <v>0.616029624154314</v>
+        <v>0.565761709887228</v>
       </c>
       <c r="E71">
-        <v>0.9403056056976249</v>
+        <v>0.6851590727509931</v>
       </c>
       <c r="F71">
-        <v>0.2849949200504784</v>
+        <v>0.5981917852928398</v>
       </c>
       <c r="G71">
-        <v>1.557349392554211</v>
+        <v>1.01252824462872</v>
       </c>
       <c r="H71">
-        <v>1.751033757898945</v>
+        <v>2.158279994308273</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -2581,28 +2581,28 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.3033090533708254</v>
+        <v>0.2523522082434229</v>
       </c>
       <c r="C72">
-        <v>0.9710488804940102</v>
+        <v>0.2982500285848334</v>
       </c>
       <c r="D72">
-        <v>0.9427774772176215</v>
+        <v>0.194631056567987</v>
       </c>
       <c r="E72">
-        <v>0.8117196582615128</v>
+        <v>0.5945983133642823</v>
       </c>
       <c r="F72">
-        <v>0.3279683566779791</v>
+        <v>0.7555544794136481</v>
       </c>
       <c r="G72">
-        <v>1.607062688672221</v>
+        <v>0.7376063441922161</v>
       </c>
       <c r="H72">
-        <v>0.8211573193571855</v>
+        <v>3.334547950806093</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -2612,25 +2612,25 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.8049918713726668</v>
+        <v>0.3070683902740563</v>
       </c>
       <c r="C73">
-        <v>0.8723739320055802</v>
+        <v>0.6430467353151093</v>
       </c>
       <c r="D73">
-        <v>0.7581626352655083</v>
+        <v>0.5518087855954398</v>
       </c>
       <c r="E73">
-        <v>0.7086952010825123</v>
+        <v>0.5101837753267817</v>
       </c>
       <c r="F73">
-        <v>0.1831632202643398</v>
+        <v>0.259665039330444</v>
       </c>
       <c r="G73">
-        <v>1.576739566247092</v>
+        <v>1.035654633829214</v>
       </c>
       <c r="H73">
-        <v>0.336376626894108</v>
+        <v>0.3898543425480789</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2643,25 +2643,25 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.7789161010027976</v>
+        <v>0.290336235004472</v>
       </c>
       <c r="C74">
-        <v>0.7860479474847403</v>
+        <v>0.5499790669724742</v>
       </c>
       <c r="D74">
-        <v>0.7830719345358124</v>
+        <v>0.4828774060466415</v>
       </c>
       <c r="E74">
-        <v>0.6367233957015095</v>
+        <v>0.4802102259937983</v>
       </c>
       <c r="F74">
-        <v>0.2407680711765946</v>
+        <v>0.2020751201876781</v>
       </c>
       <c r="G74">
-        <v>1.497731619963234</v>
+        <v>0.9222497242525114</v>
       </c>
       <c r="H74">
-        <v>0.4153845731779655</v>
+        <v>0.5032592521247812</v>
       </c>
       <c r="I74">
         <v>1</v>
